--- a/config_3.23/rank_server.xlsx
+++ b/config_3.23/rank_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.23\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="349">
   <si>
     <t>id|</t>
   </si>
@@ -1652,6 +1652,74 @@
   </si>
   <si>
     <t>cnhk_009_thphb_rank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ymkh_010_wxphb_rank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxlzb_007_rank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>五星排行榜</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>261,275</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>262,276</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>263,277</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>264,278</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>265,279</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>266,280</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>267,281</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>268,282</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>269,283</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>270,284</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>271,285</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>272,286</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>273,287</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>274,288</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2189,11 +2257,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U39"/>
+  <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3531,74 +3599,144 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:12" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="33">
+    <row r="38" spans="1:12" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A38" s="26">
         <v>37</v>
       </c>
-      <c r="B38" s="33" t="b">
-        <v>1</v>
-      </c>
-      <c r="C38" s="38" t="s">
+      <c r="B38" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="C38" s="41" t="s">
         <v>331</v>
       </c>
-      <c r="D38" s="35" t="s">
+      <c r="D38" s="27" t="s">
         <v>316</v>
       </c>
-      <c r="E38" s="33">
+      <c r="E38" s="26">
         <v>1615852800</v>
       </c>
-      <c r="F38" s="33">
+      <c r="F38" s="26">
         <v>1616428799</v>
       </c>
-      <c r="G38" s="33" t="s">
+      <c r="G38" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H38" s="33" t="s">
+      <c r="H38" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I38" s="33">
+      <c r="I38" s="26">
         <v>37</v>
       </c>
-      <c r="K38" s="33">
+      <c r="K38" s="26">
         <v>37</v>
       </c>
-      <c r="L38" s="33">
+      <c r="L38" s="26">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="33">
+    <row r="39" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="26">
         <v>38</v>
       </c>
-      <c r="B39" s="33" t="b">
-        <v>1</v>
-      </c>
-      <c r="C39" s="35" t="s">
+      <c r="B39" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="C39" s="27" t="s">
         <v>315</v>
       </c>
-      <c r="D39" s="33" t="s">
+      <c r="D39" s="26" t="s">
         <v>264</v>
       </c>
-      <c r="E39" s="33">
+      <c r="E39" s="26">
         <v>1615852800</v>
       </c>
-      <c r="F39" s="33">
+      <c r="F39" s="26">
         <v>1616428799</v>
       </c>
-      <c r="G39" s="35" t="s">
+      <c r="G39" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="H39" s="33" t="s">
+      <c r="H39" s="26" t="s">
         <v>281</v>
       </c>
-      <c r="I39" s="33">
+      <c r="I39" s="26">
         <v>38</v>
       </c>
-      <c r="K39" s="33">
+      <c r="K39" s="26">
         <v>38</v>
       </c>
-      <c r="L39" s="33">
+      <c r="L39" s="26">
         <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A40" s="26">
+        <v>39</v>
+      </c>
+      <c r="B40" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" s="38" t="s">
+        <v>332</v>
+      </c>
+      <c r="D40" s="35" t="s">
+        <v>334</v>
+      </c>
+      <c r="E40" s="33">
+        <v>1616457600</v>
+      </c>
+      <c r="F40" s="33">
+        <v>1617033599</v>
+      </c>
+      <c r="G40" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" s="33">
+        <v>39</v>
+      </c>
+      <c r="K40" s="33">
+        <v>39</v>
+      </c>
+      <c r="L40" s="33">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="26">
+        <v>40</v>
+      </c>
+      <c r="B41" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="C41" s="35" t="s">
+        <v>333</v>
+      </c>
+      <c r="D41" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="E41" s="33">
+        <v>1616457600</v>
+      </c>
+      <c r="F41" s="33">
+        <v>1617033599</v>
+      </c>
+      <c r="G41" s="35" t="s">
+        <v>282</v>
+      </c>
+      <c r="H41" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="I41" s="33">
+        <v>40</v>
+      </c>
+      <c r="K41" s="33">
+        <v>40</v>
+      </c>
+      <c r="L41" s="33">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -3610,11 +3748,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H82"/>
+  <dimension ref="A1:H88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B87" sqref="B87"/>
+      <selection pane="bottomLeft" activeCell="B77" sqref="B77:D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4695,13 +4833,13 @@
       <c r="A77" s="5">
         <v>76</v>
       </c>
-      <c r="B77" s="36">
+      <c r="B77" s="5">
         <v>37</v>
       </c>
-      <c r="C77" s="34" t="s">
+      <c r="C77" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="D77" s="36">
+      <c r="D77" s="5">
         <v>41</v>
       </c>
     </row>
@@ -4709,13 +4847,13 @@
       <c r="A78" s="5">
         <v>77</v>
       </c>
-      <c r="B78" s="36">
+      <c r="B78" s="5">
         <v>37</v>
       </c>
-      <c r="C78" s="36" t="s">
+      <c r="C78" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="D78" s="36">
+      <c r="D78" s="5">
         <v>41</v>
       </c>
     </row>
@@ -4723,13 +4861,13 @@
       <c r="A79" s="5">
         <v>78</v>
       </c>
-      <c r="B79" s="36">
+      <c r="B79" s="5">
         <v>38</v>
       </c>
-      <c r="C79" s="39" t="s">
+      <c r="C79" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="D79" s="36">
+      <c r="D79" s="5">
         <v>42</v>
       </c>
     </row>
@@ -4737,13 +4875,13 @@
       <c r="A80" s="5">
         <v>79</v>
       </c>
-      <c r="B80" s="36">
+      <c r="B80" s="5">
         <v>38</v>
       </c>
-      <c r="C80" s="39" t="s">
+      <c r="C80" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="D80" s="36">
+      <c r="D80" s="5">
         <v>42</v>
       </c>
     </row>
@@ -4751,13 +4889,13 @@
       <c r="A81" s="5">
         <v>80</v>
       </c>
-      <c r="B81" s="36">
+      <c r="B81" s="5">
         <v>38</v>
       </c>
-      <c r="C81" s="39" t="s">
+      <c r="C81" s="42" t="s">
         <v>300</v>
       </c>
-      <c r="D81" s="36">
+      <c r="D81" s="5">
         <v>42</v>
       </c>
     </row>
@@ -4765,13 +4903,97 @@
       <c r="A82" s="5">
         <v>81</v>
       </c>
-      <c r="B82" s="36">
+      <c r="B82" s="5">
         <v>38</v>
       </c>
-      <c r="C82" s="39" t="s">
+      <c r="C82" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="D82" s="36">
+      <c r="D82" s="5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="5">
+        <v>82</v>
+      </c>
+      <c r="B83" s="36">
+        <v>39</v>
+      </c>
+      <c r="C83" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="D83" s="36">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="5">
+        <v>83</v>
+      </c>
+      <c r="B84" s="36">
+        <v>39</v>
+      </c>
+      <c r="C84" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="D84" s="36">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="5">
+        <v>84</v>
+      </c>
+      <c r="B85" s="36">
+        <v>40</v>
+      </c>
+      <c r="C85" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="D85" s="36">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="5">
+        <v>85</v>
+      </c>
+      <c r="B86" s="36">
+        <v>40</v>
+      </c>
+      <c r="C86" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="D86" s="36">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="5">
+        <v>86</v>
+      </c>
+      <c r="B87" s="36">
+        <v>40</v>
+      </c>
+      <c r="C87" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="D87" s="36">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="5">
+        <v>87</v>
+      </c>
+      <c r="B88" s="36">
+        <v>40</v>
+      </c>
+      <c r="C88" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D88" s="36">
         <v>42</v>
       </c>
     </row>
@@ -6028,11 +6250,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F39" sqref="F39"/>
+      <selection pane="bottomLeft" activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6898,49 +7120,95 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="36">
+    <row r="38" spans="1:7" s="9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="5">
         <v>37</v>
       </c>
-      <c r="B38" s="36">
-        <v>1</v>
-      </c>
-      <c r="C38" s="36">
+      <c r="B38" s="5">
+        <v>1</v>
+      </c>
+      <c r="C38" s="5">
         <v>20</v>
       </c>
-      <c r="D38" s="36">
+      <c r="D38" s="5">
         <v>100</v>
       </c>
-      <c r="E38" s="36">
+      <c r="E38" s="5">
         <v>20</v>
       </c>
-      <c r="F38" s="36">
+      <c r="F38" s="5">
         <v>180</v>
       </c>
-      <c r="G38" s="36">
+      <c r="G38" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="36">
+    <row r="39" spans="1:7" s="9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="5">
         <v>38</v>
       </c>
-      <c r="B39" s="36">
-        <v>1</v>
-      </c>
-      <c r="C39" s="36">
+      <c r="B39" s="5">
+        <v>1</v>
+      </c>
+      <c r="C39" s="5">
         <v>20</v>
       </c>
-      <c r="D39" s="36">
+      <c r="D39" s="5">
         <v>100</v>
       </c>
-      <c r="E39" s="36">
+      <c r="E39" s="5">
         <v>20</v>
       </c>
-      <c r="F39" s="36">
+      <c r="F39" s="5">
         <v>180</v>
       </c>
-      <c r="G39" s="36">
+      <c r="G39" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="36">
+        <v>39</v>
+      </c>
+      <c r="B40" s="36">
+        <v>1</v>
+      </c>
+      <c r="C40" s="36">
+        <v>20</v>
+      </c>
+      <c r="D40" s="36">
+        <v>100</v>
+      </c>
+      <c r="E40" s="36">
+        <v>20</v>
+      </c>
+      <c r="F40" s="36">
+        <v>180</v>
+      </c>
+      <c r="G40" s="36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="36">
+        <v>40</v>
+      </c>
+      <c r="B41" s="36">
+        <v>1</v>
+      </c>
+      <c r="C41" s="36">
+        <v>20</v>
+      </c>
+      <c r="D41" s="36">
+        <v>100</v>
+      </c>
+      <c r="E41" s="36">
+        <v>20</v>
+      </c>
+      <c r="F41" s="36">
+        <v>180</v>
+      </c>
+      <c r="G41" s="36">
         <v>10</v>
       </c>
     </row>
@@ -6952,11 +7220,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7456,31 +7724,59 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="36">
+      <c r="A36" s="5">
         <v>35</v>
       </c>
-      <c r="B36" s="36">
+      <c r="B36" s="5">
         <v>39</v>
       </c>
-      <c r="C36" s="36">
-        <v>1</v>
-      </c>
-      <c r="D36" s="36">
+      <c r="C36" s="5">
+        <v>1</v>
+      </c>
+      <c r="D36" s="5">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="36">
+      <c r="A37" s="5">
         <v>36</v>
       </c>
-      <c r="B37" s="36">
+      <c r="B37" s="5">
         <v>40</v>
       </c>
-      <c r="C37" s="36">
-        <v>1</v>
-      </c>
-      <c r="D37" s="36">
+      <c r="C37" s="5">
+        <v>1</v>
+      </c>
+      <c r="D37" s="5">
         <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="36">
+        <v>37</v>
+      </c>
+      <c r="B38" s="36">
+        <v>41</v>
+      </c>
+      <c r="C38" s="36">
+        <v>1</v>
+      </c>
+      <c r="D38" s="36">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="36">
+        <v>38</v>
+      </c>
+      <c r="B39" s="36">
+        <v>42</v>
+      </c>
+      <c r="C39" s="36">
+        <v>1</v>
+      </c>
+      <c r="D39" s="36">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -7492,11 +7788,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D48" sqref="D48"/>
+      <selection pane="bottomLeft" activeCell="A42" sqref="A42:C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7963,25 +8259,47 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="36">
+      <c r="A40" s="5">
         <v>39</v>
       </c>
-      <c r="B40" s="36" t="s">
+      <c r="B40" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C40" s="33">
+      <c r="C40" s="26">
         <v>1616428799</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="36">
+      <c r="A41" s="5">
         <v>40</v>
       </c>
-      <c r="B41" s="36" t="s">
+      <c r="B41" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C41" s="33">
+      <c r="C41" s="26">
         <v>1616428799</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="36">
+        <v>41</v>
+      </c>
+      <c r="B42" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="C42" s="36">
+        <v>1617033599</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="36">
+        <v>42</v>
+      </c>
+      <c r="B43" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="C43" s="36">
+        <v>1617033599</v>
       </c>
     </row>
   </sheetData>
@@ -7992,11 +8310,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I248"/>
+  <dimension ref="A1:I262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A221" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G251" sqref="G251"/>
+      <pane ySplit="1" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J265" sqref="J265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13313,25 +13631,25 @@
       <c r="A235" s="5">
         <v>234</v>
       </c>
-      <c r="B235" s="36">
+      <c r="B235" s="5">
         <v>35</v>
       </c>
-      <c r="C235" s="36">
-        <v>1</v>
-      </c>
-      <c r="D235" s="36">
-        <v>1</v>
-      </c>
-      <c r="E235" s="36">
+      <c r="C235" s="5">
+        <v>1</v>
+      </c>
+      <c r="D235" s="5">
+        <v>1</v>
+      </c>
+      <c r="E235" s="5">
         <v>3000000</v>
       </c>
-      <c r="F235" s="36">
+      <c r="F235" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G235" s="40" t="s">
+      <c r="G235" s="43" t="s">
         <v>317</v>
       </c>
-      <c r="H235" s="37" t="s">
+      <c r="H235" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -13339,25 +13657,25 @@
       <c r="A236" s="5">
         <v>235</v>
       </c>
-      <c r="B236" s="36">
+      <c r="B236" s="5">
         <v>35</v>
       </c>
-      <c r="C236" s="36">
+      <c r="C236" s="5">
         <v>2</v>
       </c>
-      <c r="D236" s="36">
+      <c r="D236" s="5">
         <v>2</v>
       </c>
-      <c r="E236" s="36">
+      <c r="E236" s="5">
         <v>1800000</v>
       </c>
-      <c r="F236" s="36">
+      <c r="F236" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G236" s="40" t="s">
+      <c r="G236" s="43" t="s">
         <v>318</v>
       </c>
-      <c r="H236" s="37" t="s">
+      <c r="H236" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -13365,25 +13683,25 @@
       <c r="A237" s="5">
         <v>236</v>
       </c>
-      <c r="B237" s="36">
+      <c r="B237" s="5">
         <v>35</v>
       </c>
-      <c r="C237" s="36">
+      <c r="C237" s="5">
         <v>3</v>
       </c>
-      <c r="D237" s="36">
+      <c r="D237" s="5">
         <v>3</v>
       </c>
-      <c r="E237" s="36">
+      <c r="E237" s="5">
         <v>900000</v>
       </c>
-      <c r="F237" s="36">
+      <c r="F237" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G237" s="40" t="s">
+      <c r="G237" s="43" t="s">
         <v>319</v>
       </c>
-      <c r="H237" s="37" t="s">
+      <c r="H237" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -13391,25 +13709,25 @@
       <c r="A238" s="5">
         <v>237</v>
       </c>
-      <c r="B238" s="36">
+      <c r="B238" s="5">
         <v>35</v>
       </c>
-      <c r="C238" s="36">
+      <c r="C238" s="5">
         <v>4</v>
       </c>
-      <c r="D238" s="36">
+      <c r="D238" s="5">
         <v>6</v>
       </c>
-      <c r="E238" s="36">
+      <c r="E238" s="5">
         <v>450000</v>
       </c>
-      <c r="F238" s="36">
+      <c r="F238" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G238" s="40" t="s">
+      <c r="G238" s="43" t="s">
         <v>320</v>
       </c>
-      <c r="H238" s="37" t="s">
+      <c r="H238" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -13417,25 +13735,25 @@
       <c r="A239" s="5">
         <v>238</v>
       </c>
-      <c r="B239" s="36">
+      <c r="B239" s="5">
         <v>35</v>
       </c>
-      <c r="C239" s="36">
+      <c r="C239" s="5">
         <v>7</v>
       </c>
-      <c r="D239" s="36">
+      <c r="D239" s="5">
         <v>10</v>
       </c>
-      <c r="E239" s="36">
+      <c r="E239" s="5">
         <v>300000</v>
       </c>
-      <c r="F239" s="36">
+      <c r="F239" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G239" s="40" t="s">
+      <c r="G239" s="43" t="s">
         <v>321</v>
       </c>
-      <c r="H239" s="37" t="s">
+      <c r="H239" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -13443,25 +13761,25 @@
       <c r="A240" s="5">
         <v>239</v>
       </c>
-      <c r="B240" s="36">
+      <c r="B240" s="5">
         <v>35</v>
       </c>
-      <c r="C240" s="36">
+      <c r="C240" s="5">
         <v>11</v>
       </c>
-      <c r="D240" s="36">
+      <c r="D240" s="5">
         <v>15</v>
       </c>
-      <c r="E240" s="36">
+      <c r="E240" s="5">
         <v>180000</v>
       </c>
-      <c r="F240" s="36">
+      <c r="F240" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G240" s="40" t="s">
+      <c r="G240" s="43" t="s">
         <v>322</v>
       </c>
-      <c r="H240" s="37" t="s">
+      <c r="H240" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -13469,25 +13787,25 @@
       <c r="A241" s="5">
         <v>240</v>
       </c>
-      <c r="B241" s="36">
+      <c r="B241" s="5">
         <v>35</v>
       </c>
-      <c r="C241" s="36">
+      <c r="C241" s="5">
         <v>16</v>
       </c>
-      <c r="D241" s="36">
+      <c r="D241" s="5">
         <v>20</v>
       </c>
-      <c r="E241" s="36">
+      <c r="E241" s="5">
         <v>90000</v>
       </c>
-      <c r="F241" s="36">
+      <c r="F241" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G241" s="40" t="s">
+      <c r="G241" s="43" t="s">
         <v>323</v>
       </c>
-      <c r="H241" s="37" t="s">
+      <c r="H241" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -13495,25 +13813,25 @@
       <c r="A242" s="5">
         <v>241</v>
       </c>
-      <c r="B242" s="36">
+      <c r="B242" s="5">
         <v>36</v>
       </c>
-      <c r="C242" s="36">
-        <v>1</v>
-      </c>
-      <c r="D242" s="36">
-        <v>1</v>
-      </c>
-      <c r="E242" s="36">
+      <c r="C242" s="5">
+        <v>1</v>
+      </c>
+      <c r="D242" s="5">
+        <v>1</v>
+      </c>
+      <c r="E242" s="5">
         <v>1500000000</v>
       </c>
-      <c r="F242" s="36">
+      <c r="F242" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G242" s="40" t="s">
+      <c r="G242" s="43" t="s">
         <v>324</v>
       </c>
-      <c r="H242" s="37" t="s">
+      <c r="H242" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -13521,25 +13839,25 @@
       <c r="A243" s="5">
         <v>242</v>
       </c>
-      <c r="B243" s="36">
+      <c r="B243" s="5">
         <v>36</v>
       </c>
-      <c r="C243" s="36">
+      <c r="C243" s="5">
         <v>2</v>
       </c>
-      <c r="D243" s="36">
+      <c r="D243" s="5">
         <v>2</v>
       </c>
-      <c r="E243" s="36">
+      <c r="E243" s="5">
         <v>900000000</v>
       </c>
-      <c r="F243" s="36">
+      <c r="F243" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G243" s="40" t="s">
+      <c r="G243" s="43" t="s">
         <v>325</v>
       </c>
-      <c r="H243" s="37" t="s">
+      <c r="H243" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -13547,25 +13865,25 @@
       <c r="A244" s="5">
         <v>243</v>
       </c>
-      <c r="B244" s="36">
+      <c r="B244" s="5">
         <v>36</v>
       </c>
-      <c r="C244" s="36">
+      <c r="C244" s="5">
         <v>3</v>
       </c>
-      <c r="D244" s="36">
+      <c r="D244" s="5">
         <v>3</v>
       </c>
-      <c r="E244" s="36">
+      <c r="E244" s="5">
         <v>450000000</v>
       </c>
-      <c r="F244" s="36">
+      <c r="F244" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G244" s="40" t="s">
+      <c r="G244" s="43" t="s">
         <v>326</v>
       </c>
-      <c r="H244" s="37" t="s">
+      <c r="H244" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -13573,25 +13891,25 @@
       <c r="A245" s="5">
         <v>244</v>
       </c>
-      <c r="B245" s="36">
+      <c r="B245" s="5">
         <v>36</v>
       </c>
-      <c r="C245" s="36">
+      <c r="C245" s="5">
         <v>4</v>
       </c>
-      <c r="D245" s="36">
+      <c r="D245" s="5">
         <v>6</v>
       </c>
-      <c r="E245" s="36">
+      <c r="E245" s="5">
         <v>220000000</v>
       </c>
-      <c r="F245" s="36">
+      <c r="F245" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G245" s="40" t="s">
+      <c r="G245" s="43" t="s">
         <v>327</v>
       </c>
-      <c r="H245" s="37" t="s">
+      <c r="H245" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -13599,25 +13917,25 @@
       <c r="A246" s="5">
         <v>245</v>
       </c>
-      <c r="B246" s="36">
+      <c r="B246" s="5">
         <v>36</v>
       </c>
-      <c r="C246" s="36">
+      <c r="C246" s="5">
         <v>7</v>
       </c>
-      <c r="D246" s="36">
+      <c r="D246" s="5">
         <v>10</v>
       </c>
-      <c r="E246" s="36">
+      <c r="E246" s="5">
         <v>146000000</v>
       </c>
-      <c r="F246" s="36">
+      <c r="F246" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G246" s="40" t="s">
+      <c r="G246" s="43" t="s">
         <v>328</v>
       </c>
-      <c r="H246" s="37" t="s">
+      <c r="H246" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -13625,25 +13943,25 @@
       <c r="A247" s="5">
         <v>246</v>
       </c>
-      <c r="B247" s="36">
+      <c r="B247" s="5">
         <v>36</v>
       </c>
-      <c r="C247" s="36">
+      <c r="C247" s="5">
         <v>11</v>
       </c>
-      <c r="D247" s="36">
+      <c r="D247" s="5">
         <v>15</v>
       </c>
-      <c r="E247" s="36">
+      <c r="E247" s="5">
         <v>88000000</v>
       </c>
-      <c r="F247" s="36">
+      <c r="F247" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G247" s="40" t="s">
+      <c r="G247" s="43" t="s">
         <v>329</v>
       </c>
-      <c r="H247" s="37" t="s">
+      <c r="H247" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -13651,25 +13969,389 @@
       <c r="A248" s="5">
         <v>247</v>
       </c>
-      <c r="B248" s="36">
+      <c r="B248" s="5">
         <v>36</v>
       </c>
-      <c r="C248" s="36">
+      <c r="C248" s="5">
         <v>16</v>
       </c>
-      <c r="D248" s="36">
+      <c r="D248" s="5">
         <v>20</v>
       </c>
-      <c r="E248" s="36">
+      <c r="E248" s="5">
         <v>45000000</v>
       </c>
-      <c r="F248" s="36">
+      <c r="F248" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G248" s="40" t="s">
+      <c r="G248" s="43" t="s">
         <v>330</v>
       </c>
-      <c r="H248" s="37" t="s">
+      <c r="H248" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A249" s="5">
+        <v>248</v>
+      </c>
+      <c r="B249" s="36">
+        <v>37</v>
+      </c>
+      <c r="C249" s="36">
+        <v>1</v>
+      </c>
+      <c r="D249" s="36">
+        <v>1</v>
+      </c>
+      <c r="E249" s="36">
+        <v>3000000</v>
+      </c>
+      <c r="F249" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G249" s="40" t="s">
+        <v>335</v>
+      </c>
+      <c r="H249" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A250" s="5">
+        <v>249</v>
+      </c>
+      <c r="B250" s="36">
+        <v>37</v>
+      </c>
+      <c r="C250" s="36">
+        <v>2</v>
+      </c>
+      <c r="D250" s="36">
+        <v>2</v>
+      </c>
+      <c r="E250" s="36">
+        <v>1800000</v>
+      </c>
+      <c r="F250" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G250" s="40" t="s">
+        <v>336</v>
+      </c>
+      <c r="H250" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A251" s="5">
+        <v>250</v>
+      </c>
+      <c r="B251" s="36">
+        <v>37</v>
+      </c>
+      <c r="C251" s="36">
+        <v>3</v>
+      </c>
+      <c r="D251" s="36">
+        <v>3</v>
+      </c>
+      <c r="E251" s="36">
+        <v>900000</v>
+      </c>
+      <c r="F251" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G251" s="40" t="s">
+        <v>337</v>
+      </c>
+      <c r="H251" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A252" s="5">
+        <v>251</v>
+      </c>
+      <c r="B252" s="36">
+        <v>37</v>
+      </c>
+      <c r="C252" s="36">
+        <v>4</v>
+      </c>
+      <c r="D252" s="36">
+        <v>6</v>
+      </c>
+      <c r="E252" s="36">
+        <v>450000</v>
+      </c>
+      <c r="F252" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G252" s="40" t="s">
+        <v>338</v>
+      </c>
+      <c r="H252" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A253" s="5">
+        <v>252</v>
+      </c>
+      <c r="B253" s="36">
+        <v>37</v>
+      </c>
+      <c r="C253" s="36">
+        <v>7</v>
+      </c>
+      <c r="D253" s="36">
+        <v>10</v>
+      </c>
+      <c r="E253" s="36">
+        <v>300000</v>
+      </c>
+      <c r="F253" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G253" s="40" t="s">
+        <v>339</v>
+      </c>
+      <c r="H253" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A254" s="5">
+        <v>253</v>
+      </c>
+      <c r="B254" s="36">
+        <v>37</v>
+      </c>
+      <c r="C254" s="36">
+        <v>11</v>
+      </c>
+      <c r="D254" s="36">
+        <v>15</v>
+      </c>
+      <c r="E254" s="36">
+        <v>180000</v>
+      </c>
+      <c r="F254" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G254" s="40" t="s">
+        <v>340</v>
+      </c>
+      <c r="H254" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A255" s="5">
+        <v>254</v>
+      </c>
+      <c r="B255" s="36">
+        <v>37</v>
+      </c>
+      <c r="C255" s="36">
+        <v>16</v>
+      </c>
+      <c r="D255" s="36">
+        <v>20</v>
+      </c>
+      <c r="E255" s="36">
+        <v>90000</v>
+      </c>
+      <c r="F255" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G255" s="40" t="s">
+        <v>341</v>
+      </c>
+      <c r="H255" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A256" s="5">
+        <v>255</v>
+      </c>
+      <c r="B256" s="36">
+        <v>38</v>
+      </c>
+      <c r="C256" s="36">
+        <v>1</v>
+      </c>
+      <c r="D256" s="36">
+        <v>1</v>
+      </c>
+      <c r="E256" s="36">
+        <v>1500000000</v>
+      </c>
+      <c r="F256" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G256" s="40" t="s">
+        <v>342</v>
+      </c>
+      <c r="H256" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A257" s="5">
+        <v>256</v>
+      </c>
+      <c r="B257" s="36">
+        <v>38</v>
+      </c>
+      <c r="C257" s="36">
+        <v>2</v>
+      </c>
+      <c r="D257" s="36">
+        <v>2</v>
+      </c>
+      <c r="E257" s="36">
+        <v>900000000</v>
+      </c>
+      <c r="F257" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G257" s="40" t="s">
+        <v>343</v>
+      </c>
+      <c r="H257" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A258" s="5">
+        <v>257</v>
+      </c>
+      <c r="B258" s="36">
+        <v>38</v>
+      </c>
+      <c r="C258" s="36">
+        <v>3</v>
+      </c>
+      <c r="D258" s="36">
+        <v>3</v>
+      </c>
+      <c r="E258" s="36">
+        <v>450000000</v>
+      </c>
+      <c r="F258" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G258" s="40" t="s">
+        <v>344</v>
+      </c>
+      <c r="H258" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A259" s="5">
+        <v>258</v>
+      </c>
+      <c r="B259" s="36">
+        <v>38</v>
+      </c>
+      <c r="C259" s="36">
+        <v>4</v>
+      </c>
+      <c r="D259" s="36">
+        <v>6</v>
+      </c>
+      <c r="E259" s="36">
+        <v>220000000</v>
+      </c>
+      <c r="F259" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G259" s="40" t="s">
+        <v>345</v>
+      </c>
+      <c r="H259" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A260" s="5">
+        <v>259</v>
+      </c>
+      <c r="B260" s="36">
+        <v>38</v>
+      </c>
+      <c r="C260" s="36">
+        <v>7</v>
+      </c>
+      <c r="D260" s="36">
+        <v>10</v>
+      </c>
+      <c r="E260" s="36">
+        <v>146000000</v>
+      </c>
+      <c r="F260" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G260" s="40" t="s">
+        <v>346</v>
+      </c>
+      <c r="H260" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A261" s="5">
+        <v>260</v>
+      </c>
+      <c r="B261" s="36">
+        <v>38</v>
+      </c>
+      <c r="C261" s="36">
+        <v>11</v>
+      </c>
+      <c r="D261" s="36">
+        <v>15</v>
+      </c>
+      <c r="E261" s="36">
+        <v>88000000</v>
+      </c>
+      <c r="F261" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G261" s="40" t="s">
+        <v>347</v>
+      </c>
+      <c r="H261" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A262" s="5">
+        <v>261</v>
+      </c>
+      <c r="B262" s="36">
+        <v>38</v>
+      </c>
+      <c r="C262" s="36">
+        <v>16</v>
+      </c>
+      <c r="D262" s="36">
+        <v>20</v>
+      </c>
+      <c r="E262" s="36">
+        <v>45000000</v>
+      </c>
+      <c r="F262" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G262" s="40" t="s">
+        <v>348</v>
+      </c>
+      <c r="H262" s="37" t="s">
         <v>122</v>
       </c>
     </row>
@@ -13682,11 +14364,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G265"/>
+  <dimension ref="A1:G293"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A230" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I261" sqref="I261"/>
+      <pane ySplit="1" topLeftCell="A260" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B279" sqref="B279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -18428,19 +19110,19 @@
       <c r="A238" s="5">
         <v>237</v>
       </c>
-      <c r="B238" s="36">
+      <c r="B238" s="5">
         <v>233</v>
       </c>
-      <c r="C238" s="34" t="s">
+      <c r="C238" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="D238" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E238" s="36">
+      <c r="D238" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E238" s="5">
         <v>50000</v>
       </c>
-      <c r="F238" s="36">
+      <c r="F238" s="5">
         <v>1</v>
       </c>
     </row>
@@ -18448,19 +19130,19 @@
       <c r="A239" s="5">
         <v>238</v>
       </c>
-      <c r="B239" s="36">
+      <c r="B239" s="5">
         <v>234</v>
       </c>
-      <c r="C239" s="34" t="s">
+      <c r="C239" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="D239" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E239" s="36">
+      <c r="D239" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E239" s="5">
         <v>15000</v>
       </c>
-      <c r="F239" s="36">
+      <c r="F239" s="5">
         <v>1</v>
       </c>
     </row>
@@ -18468,19 +19150,19 @@
       <c r="A240" s="5">
         <v>239</v>
       </c>
-      <c r="B240" s="36">
+      <c r="B240" s="5">
         <v>235</v>
       </c>
-      <c r="C240" s="34" t="s">
+      <c r="C240" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="D240" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E240" s="36">
+      <c r="D240" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E240" s="5">
         <v>5000</v>
       </c>
-      <c r="F240" s="36">
+      <c r="F240" s="5">
         <v>1</v>
       </c>
     </row>
@@ -18488,19 +19170,19 @@
       <c r="A241" s="5">
         <v>240</v>
       </c>
-      <c r="B241" s="36">
+      <c r="B241" s="5">
         <v>236</v>
       </c>
-      <c r="C241" s="34" t="s">
+      <c r="C241" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="D241" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E241" s="36">
+      <c r="D241" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E241" s="5">
         <v>1500</v>
       </c>
-      <c r="F241" s="36">
+      <c r="F241" s="5">
         <v>1</v>
       </c>
     </row>
@@ -18508,19 +19190,19 @@
       <c r="A242" s="5">
         <v>241</v>
       </c>
-      <c r="B242" s="36">
+      <c r="B242" s="5">
         <v>237</v>
       </c>
-      <c r="C242" s="34" t="s">
+      <c r="C242" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="D242" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E242" s="36">
+      <c r="D242" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E242" s="5">
         <v>1000</v>
       </c>
-      <c r="F242" s="36">
+      <c r="F242" s="5">
         <v>1</v>
       </c>
     </row>
@@ -18528,19 +19210,19 @@
       <c r="A243" s="5">
         <v>242</v>
       </c>
-      <c r="B243" s="36">
+      <c r="B243" s="5">
         <v>238</v>
       </c>
-      <c r="C243" s="34" t="s">
+      <c r="C243" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="D243" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E243" s="36">
+      <c r="D243" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E243" s="5">
         <v>500</v>
       </c>
-      <c r="F243" s="36">
+      <c r="F243" s="5">
         <v>1</v>
       </c>
     </row>
@@ -18548,19 +19230,19 @@
       <c r="A244" s="5">
         <v>243</v>
       </c>
-      <c r="B244" s="36">
+      <c r="B244" s="5">
         <v>239</v>
       </c>
-      <c r="C244" s="34" t="s">
+      <c r="C244" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="D244" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E244" s="36">
+      <c r="D244" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E244" s="5">
         <v>240</v>
       </c>
-      <c r="F244" s="36">
+      <c r="F244" s="5">
         <v>1</v>
       </c>
     </row>
@@ -18568,19 +19250,19 @@
       <c r="A245" s="5">
         <v>244</v>
       </c>
-      <c r="B245" s="36">
+      <c r="B245" s="5">
         <v>240</v>
       </c>
-      <c r="C245" s="34" t="s">
+      <c r="C245" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="D245" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E245" s="36">
+      <c r="D245" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E245" s="5">
         <v>50000</v>
       </c>
-      <c r="F245" s="36">
+      <c r="F245" s="5">
         <v>1</v>
       </c>
     </row>
@@ -18588,19 +19270,19 @@
       <c r="A246" s="5">
         <v>245</v>
       </c>
-      <c r="B246" s="36">
+      <c r="B246" s="5">
         <v>241</v>
       </c>
-      <c r="C246" s="34" t="s">
+      <c r="C246" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="D246" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E246" s="36">
+      <c r="D246" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E246" s="5">
         <v>15000</v>
       </c>
-      <c r="F246" s="36">
+      <c r="F246" s="5">
         <v>1</v>
       </c>
     </row>
@@ -18608,19 +19290,19 @@
       <c r="A247" s="5">
         <v>246</v>
       </c>
-      <c r="B247" s="36">
+      <c r="B247" s="5">
         <v>242</v>
       </c>
-      <c r="C247" s="34" t="s">
+      <c r="C247" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="D247" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E247" s="36">
+      <c r="D247" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E247" s="5">
         <v>5000</v>
       </c>
-      <c r="F247" s="36">
+      <c r="F247" s="5">
         <v>1</v>
       </c>
     </row>
@@ -18628,19 +19310,19 @@
       <c r="A248" s="5">
         <v>247</v>
       </c>
-      <c r="B248" s="36">
+      <c r="B248" s="5">
         <v>243</v>
       </c>
-      <c r="C248" s="34" t="s">
+      <c r="C248" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="D248" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E248" s="36">
+      <c r="D248" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E248" s="5">
         <v>1500</v>
       </c>
-      <c r="F248" s="36">
+      <c r="F248" s="5">
         <v>1</v>
       </c>
     </row>
@@ -18648,19 +19330,19 @@
       <c r="A249" s="5">
         <v>248</v>
       </c>
-      <c r="B249" s="36">
+      <c r="B249" s="5">
         <v>244</v>
       </c>
-      <c r="C249" s="34" t="s">
+      <c r="C249" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="D249" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E249" s="36">
+      <c r="D249" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E249" s="5">
         <v>1000</v>
       </c>
-      <c r="F249" s="36">
+      <c r="F249" s="5">
         <v>1</v>
       </c>
     </row>
@@ -18668,19 +19350,19 @@
       <c r="A250" s="5">
         <v>249</v>
       </c>
-      <c r="B250" s="36">
+      <c r="B250" s="5">
         <v>245</v>
       </c>
-      <c r="C250" s="34" t="s">
+      <c r="C250" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="D250" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E250" s="36">
+      <c r="D250" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E250" s="5">
         <v>500</v>
       </c>
-      <c r="F250" s="36">
+      <c r="F250" s="5">
         <v>1</v>
       </c>
     </row>
@@ -18688,19 +19370,19 @@
       <c r="A251" s="5">
         <v>250</v>
       </c>
-      <c r="B251" s="36">
+      <c r="B251" s="5">
         <v>246</v>
       </c>
-      <c r="C251" s="34" t="s">
+      <c r="C251" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="D251" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E251" s="36">
+      <c r="D251" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E251" s="5">
         <v>240</v>
       </c>
-      <c r="F251" s="36">
+      <c r="F251" s="5">
         <v>1</v>
       </c>
     </row>
@@ -18708,19 +19390,19 @@
       <c r="A252" s="5">
         <v>251</v>
       </c>
-      <c r="B252" s="36">
+      <c r="B252" s="5">
         <v>247</v>
       </c>
-      <c r="C252" s="34" t="s">
+      <c r="C252" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="D252" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E252" s="36">
+      <c r="D252" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E252" s="5">
         <v>50000</v>
       </c>
-      <c r="F252" s="36">
+      <c r="F252" s="5">
         <v>1</v>
       </c>
     </row>
@@ -18728,19 +19410,19 @@
       <c r="A253" s="5">
         <v>252</v>
       </c>
-      <c r="B253" s="36">
+      <c r="B253" s="5">
         <v>248</v>
       </c>
-      <c r="C253" s="34" t="s">
+      <c r="C253" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="D253" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E253" s="36">
+      <c r="D253" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E253" s="5">
         <v>15000</v>
       </c>
-      <c r="F253" s="36">
+      <c r="F253" s="5">
         <v>1</v>
       </c>
     </row>
@@ -18748,19 +19430,19 @@
       <c r="A254" s="5">
         <v>253</v>
       </c>
-      <c r="B254" s="36">
+      <c r="B254" s="5">
         <v>249</v>
       </c>
-      <c r="C254" s="34" t="s">
+      <c r="C254" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="D254" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E254" s="36">
+      <c r="D254" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E254" s="5">
         <v>5000</v>
       </c>
-      <c r="F254" s="36">
+      <c r="F254" s="5">
         <v>1</v>
       </c>
     </row>
@@ -18768,19 +19450,19 @@
       <c r="A255" s="5">
         <v>254</v>
       </c>
-      <c r="B255" s="36">
+      <c r="B255" s="5">
         <v>250</v>
       </c>
-      <c r="C255" s="34" t="s">
+      <c r="C255" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="D255" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E255" s="36">
+      <c r="D255" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E255" s="5">
         <v>1500</v>
       </c>
-      <c r="F255" s="36">
+      <c r="F255" s="5">
         <v>1</v>
       </c>
     </row>
@@ -18788,19 +19470,19 @@
       <c r="A256" s="5">
         <v>255</v>
       </c>
-      <c r="B256" s="36">
+      <c r="B256" s="5">
         <v>251</v>
       </c>
-      <c r="C256" s="34" t="s">
+      <c r="C256" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="D256" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E256" s="36">
+      <c r="D256" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E256" s="5">
         <v>1000</v>
       </c>
-      <c r="F256" s="36">
+      <c r="F256" s="5">
         <v>1</v>
       </c>
     </row>
@@ -18808,19 +19490,19 @@
       <c r="A257" s="5">
         <v>256</v>
       </c>
-      <c r="B257" s="36">
+      <c r="B257" s="5">
         <v>252</v>
       </c>
-      <c r="C257" s="34" t="s">
+      <c r="C257" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="D257" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E257" s="36">
+      <c r="D257" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E257" s="5">
         <v>500</v>
       </c>
-      <c r="F257" s="36">
+      <c r="F257" s="5">
         <v>1</v>
       </c>
     </row>
@@ -18828,19 +19510,19 @@
       <c r="A258" s="5">
         <v>257</v>
       </c>
-      <c r="B258" s="36">
+      <c r="B258" s="5">
         <v>253</v>
       </c>
-      <c r="C258" s="34" t="s">
+      <c r="C258" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="D258" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E258" s="36">
+      <c r="D258" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E258" s="5">
         <v>240</v>
       </c>
-      <c r="F258" s="36">
+      <c r="F258" s="5">
         <v>1</v>
       </c>
     </row>
@@ -18848,19 +19530,19 @@
       <c r="A259" s="5">
         <v>258</v>
       </c>
-      <c r="B259" s="36">
+      <c r="B259" s="5">
         <v>254</v>
       </c>
-      <c r="C259" s="34" t="s">
+      <c r="C259" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="D259" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E259" s="36">
+      <c r="D259" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E259" s="5">
         <v>50000</v>
       </c>
-      <c r="F259" s="36">
+      <c r="F259" s="5">
         <v>1</v>
       </c>
     </row>
@@ -18868,19 +19550,19 @@
       <c r="A260" s="5">
         <v>259</v>
       </c>
-      <c r="B260" s="36">
+      <c r="B260" s="5">
         <v>255</v>
       </c>
-      <c r="C260" s="34" t="s">
+      <c r="C260" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="D260" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E260" s="36">
+      <c r="D260" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E260" s="5">
         <v>15000</v>
       </c>
-      <c r="F260" s="36">
+      <c r="F260" s="5">
         <v>1</v>
       </c>
     </row>
@@ -18888,19 +19570,19 @@
       <c r="A261" s="5">
         <v>260</v>
       </c>
-      <c r="B261" s="36">
+      <c r="B261" s="5">
         <v>256</v>
       </c>
-      <c r="C261" s="34" t="s">
+      <c r="C261" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="D261" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E261" s="36">
+      <c r="D261" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E261" s="5">
         <v>5000</v>
       </c>
-      <c r="F261" s="36">
+      <c r="F261" s="5">
         <v>1</v>
       </c>
     </row>
@@ -18908,19 +19590,19 @@
       <c r="A262" s="5">
         <v>261</v>
       </c>
-      <c r="B262" s="36">
+      <c r="B262" s="5">
         <v>257</v>
       </c>
-      <c r="C262" s="34" t="s">
+      <c r="C262" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="D262" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E262" s="36">
+      <c r="D262" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E262" s="5">
         <v>1500</v>
       </c>
-      <c r="F262" s="36">
+      <c r="F262" s="5">
         <v>1</v>
       </c>
     </row>
@@ -18928,19 +19610,19 @@
       <c r="A263" s="5">
         <v>262</v>
       </c>
-      <c r="B263" s="36">
+      <c r="B263" s="5">
         <v>258</v>
       </c>
-      <c r="C263" s="34" t="s">
+      <c r="C263" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="D263" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E263" s="36">
+      <c r="D263" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E263" s="5">
         <v>1000</v>
       </c>
-      <c r="F263" s="36">
+      <c r="F263" s="5">
         <v>1</v>
       </c>
     </row>
@@ -18948,19 +19630,19 @@
       <c r="A264" s="5">
         <v>263</v>
       </c>
-      <c r="B264" s="36">
+      <c r="B264" s="5">
         <v>259</v>
       </c>
-      <c r="C264" s="34" t="s">
+      <c r="C264" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="D264" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E264" s="36">
+      <c r="D264" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E264" s="5">
         <v>500</v>
       </c>
-      <c r="F264" s="36">
+      <c r="F264" s="5">
         <v>1</v>
       </c>
     </row>
@@ -18968,19 +19650,579 @@
       <c r="A265" s="5">
         <v>264</v>
       </c>
-      <c r="B265" s="36">
+      <c r="B265" s="5">
         <v>260</v>
       </c>
-      <c r="C265" s="34" t="s">
+      <c r="C265" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="D265" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E265" s="36">
+      <c r="D265" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E265" s="5">
         <v>240</v>
       </c>
-      <c r="F265" s="36">
+      <c r="F265" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A266" s="5">
+        <v>265</v>
+      </c>
+      <c r="B266" s="36">
+        <v>261</v>
+      </c>
+      <c r="C266" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="D266" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E266" s="36">
+        <v>50000</v>
+      </c>
+      <c r="F266" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A267" s="5">
+        <v>266</v>
+      </c>
+      <c r="B267" s="36">
+        <v>262</v>
+      </c>
+      <c r="C267" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="D267" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E267" s="36">
+        <v>15000</v>
+      </c>
+      <c r="F267" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A268" s="5">
+        <v>267</v>
+      </c>
+      <c r="B268" s="36">
+        <v>263</v>
+      </c>
+      <c r="C268" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="D268" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E268" s="36">
+        <v>5000</v>
+      </c>
+      <c r="F268" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A269" s="5">
+        <v>268</v>
+      </c>
+      <c r="B269" s="36">
+        <v>264</v>
+      </c>
+      <c r="C269" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="D269" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E269" s="36">
+        <v>1500</v>
+      </c>
+      <c r="F269" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A270" s="5">
+        <v>269</v>
+      </c>
+      <c r="B270" s="36">
+        <v>265</v>
+      </c>
+      <c r="C270" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="D270" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E270" s="36">
+        <v>1000</v>
+      </c>
+      <c r="F270" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A271" s="5">
+        <v>270</v>
+      </c>
+      <c r="B271" s="36">
+        <v>266</v>
+      </c>
+      <c r="C271" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="D271" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E271" s="36">
+        <v>500</v>
+      </c>
+      <c r="F271" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A272" s="5">
+        <v>271</v>
+      </c>
+      <c r="B272" s="36">
+        <v>267</v>
+      </c>
+      <c r="C272" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="D272" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E272" s="36">
+        <v>240</v>
+      </c>
+      <c r="F272" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A273" s="5">
+        <v>272</v>
+      </c>
+      <c r="B273" s="36">
+        <v>268</v>
+      </c>
+      <c r="C273" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="D273" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E273" s="36">
+        <v>50000</v>
+      </c>
+      <c r="F273" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A274" s="5">
+        <v>273</v>
+      </c>
+      <c r="B274" s="36">
+        <v>269</v>
+      </c>
+      <c r="C274" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="D274" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E274" s="36">
+        <v>15000</v>
+      </c>
+      <c r="F274" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A275" s="5">
+        <v>274</v>
+      </c>
+      <c r="B275" s="36">
+        <v>270</v>
+      </c>
+      <c r="C275" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="D275" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E275" s="36">
+        <v>5000</v>
+      </c>
+      <c r="F275" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A276" s="5">
+        <v>275</v>
+      </c>
+      <c r="B276" s="36">
+        <v>271</v>
+      </c>
+      <c r="C276" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="D276" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E276" s="36">
+        <v>1500</v>
+      </c>
+      <c r="F276" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A277" s="5">
+        <v>276</v>
+      </c>
+      <c r="B277" s="36">
+        <v>272</v>
+      </c>
+      <c r="C277" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="D277" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E277" s="36">
+        <v>1000</v>
+      </c>
+      <c r="F277" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A278" s="5">
+        <v>277</v>
+      </c>
+      <c r="B278" s="36">
+        <v>273</v>
+      </c>
+      <c r="C278" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="D278" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E278" s="36">
+        <v>500</v>
+      </c>
+      <c r="F278" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A279" s="5">
+        <v>278</v>
+      </c>
+      <c r="B279" s="36">
+        <v>274</v>
+      </c>
+      <c r="C279" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="D279" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E279" s="36">
+        <v>240</v>
+      </c>
+      <c r="F279" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A280" s="5">
+        <v>279</v>
+      </c>
+      <c r="B280" s="36">
+        <v>275</v>
+      </c>
+      <c r="C280" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="D280" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E280" s="36">
+        <v>50000</v>
+      </c>
+      <c r="F280" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A281" s="5">
+        <v>280</v>
+      </c>
+      <c r="B281" s="36">
+        <v>276</v>
+      </c>
+      <c r="C281" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="D281" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E281" s="36">
+        <v>15000</v>
+      </c>
+      <c r="F281" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A282" s="5">
+        <v>281</v>
+      </c>
+      <c r="B282" s="36">
+        <v>277</v>
+      </c>
+      <c r="C282" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="D282" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E282" s="36">
+        <v>5000</v>
+      </c>
+      <c r="F282" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A283" s="5">
+        <v>282</v>
+      </c>
+      <c r="B283" s="36">
+        <v>278</v>
+      </c>
+      <c r="C283" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="D283" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E283" s="36">
+        <v>1500</v>
+      </c>
+      <c r="F283" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A284" s="5">
+        <v>283</v>
+      </c>
+      <c r="B284" s="36">
+        <v>279</v>
+      </c>
+      <c r="C284" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="D284" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E284" s="36">
+        <v>1000</v>
+      </c>
+      <c r="F284" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A285" s="5">
+        <v>284</v>
+      </c>
+      <c r="B285" s="36">
+        <v>280</v>
+      </c>
+      <c r="C285" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="D285" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E285" s="36">
+        <v>500</v>
+      </c>
+      <c r="F285" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A286" s="5">
+        <v>285</v>
+      </c>
+      <c r="B286" s="36">
+        <v>281</v>
+      </c>
+      <c r="C286" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="D286" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E286" s="36">
+        <v>240</v>
+      </c>
+      <c r="F286" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A287" s="5">
+        <v>286</v>
+      </c>
+      <c r="B287" s="36">
+        <v>282</v>
+      </c>
+      <c r="C287" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="D287" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E287" s="36">
+        <v>50000</v>
+      </c>
+      <c r="F287" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A288" s="5">
+        <v>287</v>
+      </c>
+      <c r="B288" s="36">
+        <v>283</v>
+      </c>
+      <c r="C288" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="D288" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E288" s="36">
+        <v>15000</v>
+      </c>
+      <c r="F288" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A289" s="5">
+        <v>288</v>
+      </c>
+      <c r="B289" s="36">
+        <v>284</v>
+      </c>
+      <c r="C289" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="D289" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E289" s="36">
+        <v>5000</v>
+      </c>
+      <c r="F289" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A290" s="5">
+        <v>289</v>
+      </c>
+      <c r="B290" s="36">
+        <v>285</v>
+      </c>
+      <c r="C290" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="D290" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E290" s="36">
+        <v>1500</v>
+      </c>
+      <c r="F290" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A291" s="5">
+        <v>290</v>
+      </c>
+      <c r="B291" s="36">
+        <v>286</v>
+      </c>
+      <c r="C291" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="D291" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E291" s="36">
+        <v>1000</v>
+      </c>
+      <c r="F291" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A292" s="5">
+        <v>291</v>
+      </c>
+      <c r="B292" s="36">
+        <v>287</v>
+      </c>
+      <c r="C292" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="D292" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E292" s="36">
+        <v>500</v>
+      </c>
+      <c r="F292" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A293" s="5">
+        <v>292</v>
+      </c>
+      <c r="B293" s="36">
+        <v>288</v>
+      </c>
+      <c r="C293" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="D293" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E293" s="36">
+        <v>240</v>
+      </c>
+      <c r="F293" s="36">
         <v>1</v>
       </c>
     </row>

--- a/config_3.23/rank_server.xlsx
+++ b/config_3.23/rank_server.xlsx
@@ -2261,7 +2261,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
+      <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_3.23/rank_server.xlsx
+++ b/config_3.23/rank_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -2259,7 +2259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
     </sheetView>
@@ -5008,8 +5008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6069,7 +6069,7 @@
         <v>79</v>
       </c>
       <c r="D62" s="5">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="E62" s="5">
         <v>3</v>
@@ -6137,7 +6137,7 @@
         <v>79</v>
       </c>
       <c r="D66" s="36">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="E66" s="36">
         <v>3</v>

--- a/config_3.23/rank_server.xlsx
+++ b/config_3.23/rank_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_3.23\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="565">
   <si>
     <t>id|</t>
   </si>
@@ -1748,6 +1748,690 @@
   </si>
   <si>
     <t>1500福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,</t>
+  </si>
+  <si>
+    <t>2,</t>
+  </si>
+  <si>
+    <t>3,</t>
+  </si>
+  <si>
+    <t>4,</t>
+  </si>
+  <si>
+    <t>5,</t>
+  </si>
+  <si>
+    <t>6,</t>
+  </si>
+  <si>
+    <t>7,</t>
+  </si>
+  <si>
+    <t>8,</t>
+  </si>
+  <si>
+    <t>9,</t>
+  </si>
+  <si>
+    <t>10,</t>
+  </si>
+  <si>
+    <t>11,</t>
+  </si>
+  <si>
+    <t>12,</t>
+  </si>
+  <si>
+    <t>13,</t>
+  </si>
+  <si>
+    <t>14,</t>
+  </si>
+  <si>
+    <t>15,</t>
+  </si>
+  <si>
+    <t>16,</t>
+  </si>
+  <si>
+    <t>17,</t>
+  </si>
+  <si>
+    <t>18,</t>
+  </si>
+  <si>
+    <t>19,</t>
+  </si>
+  <si>
+    <t>20,</t>
+  </si>
+  <si>
+    <t>21,</t>
+  </si>
+  <si>
+    <t>22,</t>
+  </si>
+  <si>
+    <t>23,</t>
+  </si>
+  <si>
+    <t>24,</t>
+  </si>
+  <si>
+    <t>25,</t>
+  </si>
+  <si>
+    <t>26,</t>
+  </si>
+  <si>
+    <t>27,</t>
+  </si>
+  <si>
+    <t>28,</t>
+  </si>
+  <si>
+    <t>29,</t>
+  </si>
+  <si>
+    <t>30,</t>
+  </si>
+  <si>
+    <t>31,</t>
+  </si>
+  <si>
+    <t>32,</t>
+  </si>
+  <si>
+    <t>33,</t>
+  </si>
+  <si>
+    <t>34,</t>
+  </si>
+  <si>
+    <t>35,</t>
+  </si>
+  <si>
+    <t>36,</t>
+  </si>
+  <si>
+    <t>37,</t>
+  </si>
+  <si>
+    <t>38,</t>
+  </si>
+  <si>
+    <t>39,</t>
+  </si>
+  <si>
+    <t>40,</t>
+  </si>
+  <si>
+    <t>41,</t>
+  </si>
+  <si>
+    <t>42,</t>
+  </si>
+  <si>
+    <t>43,</t>
+  </si>
+  <si>
+    <t>44,</t>
+  </si>
+  <si>
+    <t>45,</t>
+  </si>
+  <si>
+    <t>46,</t>
+  </si>
+  <si>
+    <t>47,</t>
+  </si>
+  <si>
+    <t>48,</t>
+  </si>
+  <si>
+    <t>49,</t>
+  </si>
+  <si>
+    <t>50,</t>
+  </si>
+  <si>
+    <t>51,</t>
+  </si>
+  <si>
+    <t>52,</t>
+  </si>
+  <si>
+    <t>53,</t>
+  </si>
+  <si>
+    <t>54,</t>
+  </si>
+  <si>
+    <t>55,</t>
+  </si>
+  <si>
+    <t>56,</t>
+  </si>
+  <si>
+    <t>57,</t>
+  </si>
+  <si>
+    <t>58,</t>
+  </si>
+  <si>
+    <t>59,</t>
+  </si>
+  <si>
+    <t>60,</t>
+  </si>
+  <si>
+    <t>61,</t>
+  </si>
+  <si>
+    <t>62,</t>
+  </si>
+  <si>
+    <t>63,</t>
+  </si>
+  <si>
+    <t>64,</t>
+  </si>
+  <si>
+    <t>65,</t>
+  </si>
+  <si>
+    <t>66,</t>
+  </si>
+  <si>
+    <t>67,</t>
+  </si>
+  <si>
+    <t>68,</t>
+  </si>
+  <si>
+    <t>69,</t>
+  </si>
+  <si>
+    <t>70,</t>
+  </si>
+  <si>
+    <t>71,</t>
+  </si>
+  <si>
+    <t>72,</t>
+  </si>
+  <si>
+    <t>73,</t>
+  </si>
+  <si>
+    <t>74,</t>
+  </si>
+  <si>
+    <t>75,</t>
+  </si>
+  <si>
+    <t>76,</t>
+  </si>
+  <si>
+    <t>77,</t>
+  </si>
+  <si>
+    <t>78,</t>
+  </si>
+  <si>
+    <t>79,</t>
+  </si>
+  <si>
+    <t>80,</t>
+  </si>
+  <si>
+    <t>81,</t>
+  </si>
+  <si>
+    <t>82,</t>
+  </si>
+  <si>
+    <t>83,</t>
+  </si>
+  <si>
+    <t>84,</t>
+  </si>
+  <si>
+    <t>85,</t>
+  </si>
+  <si>
+    <t>86,</t>
+  </si>
+  <si>
+    <t>87,</t>
+  </si>
+  <si>
+    <t>88,</t>
+  </si>
+  <si>
+    <t>89,</t>
+  </si>
+  <si>
+    <t>90,</t>
+  </si>
+  <si>
+    <t>91,</t>
+  </si>
+  <si>
+    <t>92,</t>
+  </si>
+  <si>
+    <t>93,</t>
+  </si>
+  <si>
+    <t>94,</t>
+  </si>
+  <si>
+    <t>95,</t>
+  </si>
+  <si>
+    <t>96,</t>
+  </si>
+  <si>
+    <t>97,</t>
+  </si>
+  <si>
+    <t>98,</t>
+  </si>
+  <si>
+    <t>99,</t>
+  </si>
+  <si>
+    <t>100,</t>
+  </si>
+  <si>
+    <t>101,</t>
+  </si>
+  <si>
+    <t>102,</t>
+  </si>
+  <si>
+    <t>103,</t>
+  </si>
+  <si>
+    <t>104,</t>
+  </si>
+  <si>
+    <t>105,</t>
+  </si>
+  <si>
+    <t>106,</t>
+  </si>
+  <si>
+    <t>107,</t>
+  </si>
+  <si>
+    <t>108,</t>
+  </si>
+  <si>
+    <t>109,</t>
+  </si>
+  <si>
+    <t>110,</t>
+  </si>
+  <si>
+    <t>111,</t>
+  </si>
+  <si>
+    <t>112,</t>
+  </si>
+  <si>
+    <t>113,</t>
+  </si>
+  <si>
+    <t>114,</t>
+  </si>
+  <si>
+    <t>115,</t>
+  </si>
+  <si>
+    <t>116,</t>
+  </si>
+  <si>
+    <t>117,</t>
+  </si>
+  <si>
+    <t>118,</t>
+  </si>
+  <si>
+    <t>119,</t>
+  </si>
+  <si>
+    <t>120,</t>
+  </si>
+  <si>
+    <t>121,</t>
+  </si>
+  <si>
+    <t>122,</t>
+  </si>
+  <si>
+    <t>123,</t>
+  </si>
+  <si>
+    <t>124,</t>
+  </si>
+  <si>
+    <t>125,</t>
+  </si>
+  <si>
+    <t>126,</t>
+  </si>
+  <si>
+    <t>127,</t>
+  </si>
+  <si>
+    <t>128,</t>
+  </si>
+  <si>
+    <t>129,</t>
+  </si>
+  <si>
+    <t>130,</t>
+  </si>
+  <si>
+    <t>131,</t>
+  </si>
+  <si>
+    <t>132,</t>
+  </si>
+  <si>
+    <t>133,</t>
+  </si>
+  <si>
+    <t>134,</t>
+  </si>
+  <si>
+    <t>135,</t>
+  </si>
+  <si>
+    <t>136,</t>
+  </si>
+  <si>
+    <t>137,</t>
+  </si>
+  <si>
+    <t>138,</t>
+  </si>
+  <si>
+    <t>139,</t>
+  </si>
+  <si>
+    <t>140,</t>
+  </si>
+  <si>
+    <t>141,</t>
+  </si>
+  <si>
+    <t>142,</t>
+  </si>
+  <si>
+    <t>143,</t>
+  </si>
+  <si>
+    <t>144,</t>
+  </si>
+  <si>
+    <t>145,</t>
+  </si>
+  <si>
+    <t>146,</t>
+  </si>
+  <si>
+    <t>147,</t>
+  </si>
+  <si>
+    <t>148,</t>
+  </si>
+  <si>
+    <t>149,</t>
+  </si>
+  <si>
+    <t>150,</t>
+  </si>
+  <si>
+    <t>151,</t>
+  </si>
+  <si>
+    <t>152,</t>
+  </si>
+  <si>
+    <t>153,</t>
+  </si>
+  <si>
+    <t>154,</t>
+  </si>
+  <si>
+    <t>155,</t>
+  </si>
+  <si>
+    <t>156,</t>
+  </si>
+  <si>
+    <t>157,</t>
+  </si>
+  <si>
+    <t>158,</t>
+  </si>
+  <si>
+    <t>159,</t>
+  </si>
+  <si>
+    <t>160,</t>
+  </si>
+  <si>
+    <t>161,</t>
+  </si>
+  <si>
+    <t>162,</t>
+  </si>
+  <si>
+    <t>163,</t>
+  </si>
+  <si>
+    <t>164,</t>
+  </si>
+  <si>
+    <t>165,</t>
+  </si>
+  <si>
+    <t>166,</t>
+  </si>
+  <si>
+    <t>167,</t>
+  </si>
+  <si>
+    <t>168,</t>
+  </si>
+  <si>
+    <t>169,</t>
+  </si>
+  <si>
+    <t>170,</t>
+  </si>
+  <si>
+    <t>171,</t>
+  </si>
+  <si>
+    <t>172,</t>
+  </si>
+  <si>
+    <t>173,</t>
+  </si>
+  <si>
+    <t>174,</t>
+  </si>
+  <si>
+    <t>175,</t>
+  </si>
+  <si>
+    <t>176,</t>
+  </si>
+  <si>
+    <t>177,</t>
+  </si>
+  <si>
+    <t>178,</t>
+  </si>
+  <si>
+    <t>179,</t>
+  </si>
+  <si>
+    <t>180,</t>
+  </si>
+  <si>
+    <t>181,</t>
+  </si>
+  <si>
+    <t>182,</t>
+  </si>
+  <si>
+    <t>183,</t>
+  </si>
+  <si>
+    <t>184,</t>
+  </si>
+  <si>
+    <t>185,</t>
+  </si>
+  <si>
+    <t>186,</t>
+  </si>
+  <si>
+    <t>187,</t>
+  </si>
+  <si>
+    <t>188,</t>
+  </si>
+  <si>
+    <t>189,</t>
+  </si>
+  <si>
+    <t>190,</t>
+  </si>
+  <si>
+    <t>191,</t>
+  </si>
+  <si>
+    <t>192,</t>
+  </si>
+  <si>
+    <t>193,</t>
+  </si>
+  <si>
+    <t>194,</t>
+  </si>
+  <si>
+    <t>195,</t>
+  </si>
+  <si>
+    <t>196,</t>
+  </si>
+  <si>
+    <t>197,</t>
+  </si>
+  <si>
+    <t>198,</t>
+  </si>
+  <si>
+    <t>199,</t>
+  </si>
+  <si>
+    <t>200,</t>
+  </si>
+  <si>
+    <t>201,</t>
+  </si>
+  <si>
+    <t>202,</t>
+  </si>
+  <si>
+    <t>203,</t>
+  </si>
+  <si>
+    <t>204,</t>
+  </si>
+  <si>
+    <t>289,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>290</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>291</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>292</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>293</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -6312,7 +6996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
     </sheetView>
@@ -8420,9 +9104,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I267"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G273" sqref="G273"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G264" sqref="G264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8478,8 +9162,8 @@
       <c r="F2" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="2">
-        <v>1</v>
+      <c r="G2" s="2" t="s">
+        <v>356</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>116</v>
@@ -8501,8 +9185,8 @@
       <c r="F3" s="4">
         <v>5000000000</v>
       </c>
-      <c r="G3" s="2">
-        <v>2</v>
+      <c r="G3" s="2" t="s">
+        <v>357</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>116</v>
@@ -8524,8 +9208,8 @@
       <c r="F4" s="4">
         <v>1500000000</v>
       </c>
-      <c r="G4" s="2">
-        <v>3</v>
+      <c r="G4" s="2" t="s">
+        <v>358</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>116</v>
@@ -8547,8 +9231,8 @@
       <c r="F5" s="4">
         <v>500000000</v>
       </c>
-      <c r="G5" s="2">
-        <v>4</v>
+      <c r="G5" s="2" t="s">
+        <v>359</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>116</v>
@@ -8570,8 +9254,8 @@
       <c r="F6" s="4">
         <v>100000000</v>
       </c>
-      <c r="G6" s="2">
-        <v>5</v>
+      <c r="G6" s="2" t="s">
+        <v>360</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>116</v>
@@ -8590,8 +9274,8 @@
       <c r="F7" s="4">
         <v>30000000</v>
       </c>
-      <c r="G7" s="4">
-        <v>6</v>
+      <c r="G7" s="4" t="s">
+        <v>361</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>116</v>
@@ -8610,8 +9294,8 @@
       <c r="F8" s="4">
         <v>5000000</v>
       </c>
-      <c r="G8" s="4">
-        <v>7</v>
+      <c r="G8" s="4" t="s">
+        <v>362</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>116</v>
@@ -8630,8 +9314,8 @@
       <c r="F9" s="4">
         <v>2000000</v>
       </c>
-      <c r="G9" s="4">
-        <v>8</v>
+      <c r="G9" s="4" t="s">
+        <v>363</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>116</v>
@@ -8652,8 +9336,8 @@
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="8">
-        <v>9</v>
+      <c r="G10" s="8" t="s">
+        <v>364</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>121</v>
@@ -8673,8 +9357,8 @@
       <c r="D11" s="2">
         <v>2</v>
       </c>
-      <c r="G11" s="4">
-        <v>10</v>
+      <c r="G11" s="4" t="s">
+        <v>365</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>121</v>
@@ -8693,8 +9377,8 @@
       <c r="D12" s="2">
         <v>3</v>
       </c>
-      <c r="G12" s="4">
-        <v>11</v>
+      <c r="G12" s="4" t="s">
+        <v>366</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>121</v>
@@ -8713,8 +9397,8 @@
       <c r="D13" s="2">
         <v>6</v>
       </c>
-      <c r="G13" s="4">
-        <v>12</v>
+      <c r="G13" s="4" t="s">
+        <v>367</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>121</v>
@@ -8733,8 +9417,8 @@
       <c r="D14" s="2">
         <v>10</v>
       </c>
-      <c r="G14" s="4">
-        <v>13</v>
+      <c r="G14" s="4" t="s">
+        <v>368</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>121</v>
@@ -8755,8 +9439,8 @@
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="7">
-        <v>14</v>
+      <c r="G15" s="7" t="s">
+        <v>369</v>
       </c>
       <c r="H15" s="8" t="s">
         <v>122</v>
@@ -8778,8 +9462,8 @@
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="5">
-        <v>15</v>
+      <c r="G16" s="5" t="s">
+        <v>370</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>122</v>
@@ -8801,8 +9485,8 @@
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="5">
-        <v>16</v>
+      <c r="G17" s="5" t="s">
+        <v>371</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>122</v>
@@ -8824,8 +9508,8 @@
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="5">
-        <v>17</v>
+      <c r="G18" s="5" t="s">
+        <v>372</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>122</v>
@@ -8847,8 +9531,8 @@
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="5">
-        <v>18</v>
+      <c r="G19" s="5" t="s">
+        <v>373</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>122</v>
@@ -8870,8 +9554,8 @@
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="5">
-        <v>19</v>
+      <c r="G20" s="5" t="s">
+        <v>374</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>122</v>
@@ -8893,8 +9577,8 @@
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="5">
-        <v>20</v>
+      <c r="G21" s="5" t="s">
+        <v>375</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>122</v>
@@ -8916,8 +9600,8 @@
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="5">
-        <v>21</v>
+      <c r="G22" s="5" t="s">
+        <v>376</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>122</v>
@@ -8939,8 +9623,8 @@
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
-      <c r="G23" s="5">
-        <v>22</v>
+      <c r="G23" s="5" t="s">
+        <v>377</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>122</v>
@@ -8962,8 +9646,8 @@
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="5">
-        <v>23</v>
+      <c r="G24" s="5" t="s">
+        <v>378</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>122</v>
@@ -8985,8 +9669,8 @@
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="5">
-        <v>24</v>
+      <c r="G25" s="5" t="s">
+        <v>379</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>122</v>
@@ -9008,8 +9692,8 @@
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="5">
-        <v>25</v>
+      <c r="G26" s="5" t="s">
+        <v>380</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>122</v>
@@ -9031,8 +9715,8 @@
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
-      <c r="G27" s="7">
-        <v>26</v>
+      <c r="G27" s="7" t="s">
+        <v>381</v>
       </c>
       <c r="H27" s="8" t="s">
         <v>122</v>
@@ -9054,8 +9738,8 @@
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="5">
-        <v>27</v>
+      <c r="G28" s="5" t="s">
+        <v>382</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>122</v>
@@ -9076,8 +9760,8 @@
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="5">
-        <v>28</v>
+      <c r="G29" s="5" t="s">
+        <v>383</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>122</v>
@@ -9098,8 +9782,8 @@
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="5">
-        <v>29</v>
+      <c r="G30" s="5" t="s">
+        <v>384</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>122</v>
@@ -9120,8 +9804,8 @@
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="5">
-        <v>30</v>
+      <c r="G31" s="5" t="s">
+        <v>385</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>122</v>
@@ -9142,8 +9826,8 @@
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="5">
-        <v>31</v>
+      <c r="G32" s="5" t="s">
+        <v>386</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>122</v>
@@ -9164,8 +9848,8 @@
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="5">
-        <v>32</v>
+      <c r="G33" s="5" t="s">
+        <v>387</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>122</v>
@@ -9186,8 +9870,8 @@
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
-      <c r="G34" s="5">
-        <v>33</v>
+      <c r="G34" s="5" t="s">
+        <v>388</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>122</v>
@@ -9208,8 +9892,8 @@
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
-      <c r="G35" s="5">
-        <v>34</v>
+      <c r="G35" s="5" t="s">
+        <v>389</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>122</v>
@@ -9230,8 +9914,8 @@
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
-      <c r="G36" s="5">
-        <v>35</v>
+      <c r="G36" s="5" t="s">
+        <v>390</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>122</v>
@@ -9252,8 +9936,8 @@
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
-      <c r="G37" s="5">
-        <v>36</v>
+      <c r="G37" s="5" t="s">
+        <v>391</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>122</v>
@@ -9274,8 +9958,8 @@
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
-      <c r="G38" s="5">
-        <v>37</v>
+      <c r="G38" s="5" t="s">
+        <v>392</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>122</v>
@@ -9296,8 +9980,8 @@
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
-      <c r="G39" s="7">
-        <v>38</v>
+      <c r="G39" s="7" t="s">
+        <v>393</v>
       </c>
       <c r="H39" s="8" t="s">
         <v>122</v>
@@ -9319,8 +10003,8 @@
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
-      <c r="G40" s="5">
-        <v>39</v>
+      <c r="G40" s="5" t="s">
+        <v>394</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>122</v>
@@ -9341,8 +10025,8 @@
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
-      <c r="G41" s="5">
-        <v>40</v>
+      <c r="G41" s="5" t="s">
+        <v>395</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>122</v>
@@ -9363,8 +10047,8 @@
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
-      <c r="G42" s="5">
-        <v>41</v>
+      <c r="G42" s="5" t="s">
+        <v>396</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>122</v>
@@ -9385,8 +10069,8 @@
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
-      <c r="G43" s="5">
-        <v>42</v>
+      <c r="G43" s="5" t="s">
+        <v>397</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>122</v>
@@ -9407,8 +10091,8 @@
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
-      <c r="G44" s="5">
-        <v>43</v>
+      <c r="G44" s="5" t="s">
+        <v>398</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>122</v>
@@ -9429,8 +10113,8 @@
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
-      <c r="G45" s="5">
-        <v>44</v>
+      <c r="G45" s="5" t="s">
+        <v>399</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>122</v>
@@ -9451,8 +10135,8 @@
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
-      <c r="G46" s="5">
-        <v>45</v>
+      <c r="G46" s="5" t="s">
+        <v>400</v>
       </c>
       <c r="H46" s="6" t="s">
         <v>122</v>
@@ -9473,8 +10157,8 @@
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
-      <c r="G47" s="5">
-        <v>46</v>
+      <c r="G47" s="5" t="s">
+        <v>401</v>
       </c>
       <c r="H47" s="6" t="s">
         <v>122</v>
@@ -9495,8 +10179,8 @@
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
-      <c r="G48" s="5">
-        <v>47</v>
+      <c r="G48" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>122</v>
@@ -9517,8 +10201,8 @@
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
-      <c r="G49" s="5">
-        <v>48</v>
+      <c r="G49" s="5" t="s">
+        <v>403</v>
       </c>
       <c r="H49" s="6" t="s">
         <v>122</v>
@@ -9539,8 +10223,8 @@
       </c>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
-      <c r="G50" s="7">
-        <v>49</v>
+      <c r="G50" s="7" t="s">
+        <v>404</v>
       </c>
       <c r="H50" s="8" t="s">
         <v>122</v>
@@ -9562,8 +10246,8 @@
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
-      <c r="G51" s="5">
-        <v>50</v>
+      <c r="G51" s="5" t="s">
+        <v>405</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>122</v>
@@ -9584,8 +10268,8 @@
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
-      <c r="G52" s="5">
-        <v>51</v>
+      <c r="G52" s="5" t="s">
+        <v>406</v>
       </c>
       <c r="H52" s="6" t="s">
         <v>122</v>
@@ -9606,8 +10290,8 @@
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
-      <c r="G53" s="5">
-        <v>52</v>
+      <c r="G53" s="5" t="s">
+        <v>407</v>
       </c>
       <c r="H53" s="6" t="s">
         <v>122</v>
@@ -9628,8 +10312,8 @@
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
-      <c r="G54" s="5">
-        <v>53</v>
+      <c r="G54" s="5" t="s">
+        <v>408</v>
       </c>
       <c r="H54" s="6" t="s">
         <v>122</v>
@@ -9650,8 +10334,8 @@
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
-      <c r="G55" s="5">
-        <v>54</v>
+      <c r="G55" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="H55" s="6" t="s">
         <v>122</v>
@@ -9672,8 +10356,8 @@
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
-      <c r="G56" s="5">
-        <v>55</v>
+      <c r="G56" s="5" t="s">
+        <v>410</v>
       </c>
       <c r="H56" s="6" t="s">
         <v>122</v>
@@ -9694,8 +10378,8 @@
       </c>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
-      <c r="G57" s="7">
-        <v>56</v>
+      <c r="G57" s="7" t="s">
+        <v>411</v>
       </c>
       <c r="H57" s="8" t="s">
         <v>122</v>
@@ -9716,8 +10400,8 @@
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
-      <c r="G58" s="5">
-        <v>57</v>
+      <c r="G58" s="5" t="s">
+        <v>412</v>
       </c>
       <c r="H58" s="6" t="s">
         <v>122</v>
@@ -9738,8 +10422,8 @@
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
-      <c r="G59" s="5">
-        <v>58</v>
+      <c r="G59" s="5" t="s">
+        <v>413</v>
       </c>
       <c r="H59" s="6" t="s">
         <v>122</v>
@@ -9760,8 +10444,8 @@
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
-      <c r="G60" s="5">
-        <v>59</v>
+      <c r="G60" s="5" t="s">
+        <v>414</v>
       </c>
       <c r="H60" s="6" t="s">
         <v>122</v>
@@ -9782,8 +10466,8 @@
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
-      <c r="G61" s="5">
-        <v>60</v>
+      <c r="G61" s="5" t="s">
+        <v>415</v>
       </c>
       <c r="H61" s="6" t="s">
         <v>122</v>
@@ -9804,8 +10488,8 @@
       </c>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
-      <c r="G62" s="5">
-        <v>61</v>
+      <c r="G62" s="5" t="s">
+        <v>416</v>
       </c>
       <c r="H62" s="6" t="s">
         <v>122</v>
@@ -9826,8 +10510,8 @@
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
-      <c r="G63" s="5">
-        <v>62</v>
+      <c r="G63" s="5" t="s">
+        <v>417</v>
       </c>
       <c r="H63" s="6" t="s">
         <v>122</v>
@@ -9848,8 +10532,8 @@
       </c>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
-      <c r="G64" s="7">
-        <v>63</v>
+      <c r="G64" s="7" t="s">
+        <v>418</v>
       </c>
       <c r="H64" s="8" t="s">
         <v>122</v>
@@ -9870,8 +10554,8 @@
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
-      <c r="G65" s="5">
-        <v>64</v>
+      <c r="G65" s="5" t="s">
+        <v>419</v>
       </c>
       <c r="H65" s="6" t="s">
         <v>122</v>
@@ -9892,8 +10576,8 @@
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
-      <c r="G66" s="5">
-        <v>65</v>
+      <c r="G66" s="5" t="s">
+        <v>420</v>
       </c>
       <c r="H66" s="6" t="s">
         <v>122</v>
@@ -9914,8 +10598,8 @@
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
-      <c r="G67" s="5">
-        <v>66</v>
+      <c r="G67" s="5" t="s">
+        <v>421</v>
       </c>
       <c r="H67" s="6" t="s">
         <v>122</v>
@@ -9936,8 +10620,8 @@
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="5">
-        <v>67</v>
+      <c r="G68" s="5" t="s">
+        <v>422</v>
       </c>
       <c r="H68" s="6" t="s">
         <v>122</v>
@@ -9958,8 +10642,8 @@
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="5">
-        <v>68</v>
+      <c r="G69" s="5" t="s">
+        <v>423</v>
       </c>
       <c r="H69" s="6" t="s">
         <v>122</v>
@@ -9980,8 +10664,8 @@
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
-      <c r="G70" s="5">
-        <v>69</v>
+      <c r="G70" s="5" t="s">
+        <v>424</v>
       </c>
       <c r="H70" s="6" t="s">
         <v>122</v>
@@ -10002,8 +10686,8 @@
       </c>
       <c r="E71" s="11"/>
       <c r="F71" s="11"/>
-      <c r="G71" s="11">
-        <v>70</v>
+      <c r="G71" s="11" t="s">
+        <v>425</v>
       </c>
       <c r="H71" s="12" t="s">
         <v>136</v>
@@ -10025,8 +10709,8 @@
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
-      <c r="G72" s="5">
-        <v>71</v>
+      <c r="G72" s="5" t="s">
+        <v>426</v>
       </c>
       <c r="H72" s="6" t="s">
         <v>122</v>
@@ -10048,8 +10732,8 @@
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
-      <c r="G73" s="5">
-        <v>72</v>
+      <c r="G73" s="5" t="s">
+        <v>427</v>
       </c>
       <c r="H73" s="6" t="s">
         <v>122</v>
@@ -10071,8 +10755,8 @@
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
-      <c r="G74" s="5">
-        <v>73</v>
+      <c r="G74" s="5" t="s">
+        <v>428</v>
       </c>
       <c r="H74" s="6" t="s">
         <v>122</v>
@@ -10094,8 +10778,8 @@
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
-      <c r="G75" s="5">
-        <v>74</v>
+      <c r="G75" s="5" t="s">
+        <v>429</v>
       </c>
       <c r="H75" s="6" t="s">
         <v>122</v>
@@ -10117,8 +10801,8 @@
       </c>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
-      <c r="G76" s="5">
-        <v>75</v>
+      <c r="G76" s="5" t="s">
+        <v>430</v>
       </c>
       <c r="H76" s="6" t="s">
         <v>122</v>
@@ -10140,8 +10824,8 @@
       </c>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
-      <c r="G77" s="5">
-        <v>76</v>
+      <c r="G77" s="5" t="s">
+        <v>431</v>
       </c>
       <c r="H77" s="6" t="s">
         <v>122</v>
@@ -10163,8 +10847,8 @@
       </c>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
-      <c r="G78" s="5">
-        <v>77</v>
+      <c r="G78" s="5" t="s">
+        <v>432</v>
       </c>
       <c r="H78" s="6" t="s">
         <v>122</v>
@@ -10186,8 +10870,8 @@
       </c>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
-      <c r="G79" s="5">
-        <v>78</v>
+      <c r="G79" s="5" t="s">
+        <v>433</v>
       </c>
       <c r="H79" s="6" t="s">
         <v>122</v>
@@ -10209,8 +10893,8 @@
       </c>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
-      <c r="G80" s="5">
-        <v>79</v>
+      <c r="G80" s="5" t="s">
+        <v>434</v>
       </c>
       <c r="H80" s="6" t="s">
         <v>122</v>
@@ -10232,8 +10916,8 @@
       </c>
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
-      <c r="G81" s="5">
-        <v>80</v>
+      <c r="G81" s="5" t="s">
+        <v>435</v>
       </c>
       <c r="H81" s="6" t="s">
         <v>122</v>
@@ -10255,8 +10939,8 @@
       </c>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
-      <c r="G82" s="5">
-        <v>81</v>
+      <c r="G82" s="5" t="s">
+        <v>436</v>
       </c>
       <c r="H82" s="6" t="s">
         <v>122</v>
@@ -10278,8 +10962,8 @@
       </c>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
-      <c r="G83" s="5">
-        <v>82</v>
+      <c r="G83" s="5" t="s">
+        <v>437</v>
       </c>
       <c r="H83" s="6" t="s">
         <v>122</v>
@@ -10301,8 +10985,8 @@
       </c>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
-      <c r="G84" s="5">
-        <v>83</v>
+      <c r="G84" s="5" t="s">
+        <v>438</v>
       </c>
       <c r="H84" s="6" t="s">
         <v>122</v>
@@ -10324,8 +11008,8 @@
       </c>
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
-      <c r="G85" s="5">
-        <v>84</v>
+      <c r="G85" s="5" t="s">
+        <v>439</v>
       </c>
       <c r="H85" s="6" t="s">
         <v>122</v>
@@ -10347,8 +11031,8 @@
       </c>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
-      <c r="G86" s="5">
-        <v>85</v>
+      <c r="G86" s="5" t="s">
+        <v>440</v>
       </c>
       <c r="H86" s="6" t="s">
         <v>122</v>
@@ -10370,8 +11054,8 @@
       </c>
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
-      <c r="G87" s="5">
-        <v>86</v>
+      <c r="G87" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="H87" s="6" t="s">
         <v>122</v>
@@ -10393,8 +11077,8 @@
       </c>
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
-      <c r="G88" s="5">
-        <v>87</v>
+      <c r="G88" s="5" t="s">
+        <v>442</v>
       </c>
       <c r="H88" s="6" t="s">
         <v>122</v>
@@ -10416,8 +11100,8 @@
       </c>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
-      <c r="G89" s="5">
-        <v>88</v>
+      <c r="G89" s="5" t="s">
+        <v>443</v>
       </c>
       <c r="H89" s="6" t="s">
         <v>122</v>
@@ -10439,8 +11123,8 @@
       </c>
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
-      <c r="G90" s="5">
-        <v>89</v>
+      <c r="G90" s="5" t="s">
+        <v>444</v>
       </c>
       <c r="H90" s="6" t="s">
         <v>122</v>
@@ -10462,8 +11146,8 @@
       </c>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
-      <c r="G91" s="5">
-        <v>90</v>
+      <c r="G91" s="5" t="s">
+        <v>445</v>
       </c>
       <c r="H91" s="6" t="s">
         <v>122</v>
@@ -10485,8 +11169,8 @@
       </c>
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
-      <c r="G92" s="5">
-        <v>91</v>
+      <c r="G92" s="5" t="s">
+        <v>446</v>
       </c>
       <c r="H92" s="6" t="s">
         <v>122</v>
@@ -10508,8 +11192,8 @@
       </c>
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
-      <c r="G93" s="5">
-        <v>92</v>
+      <c r="G93" s="5" t="s">
+        <v>447</v>
       </c>
       <c r="H93" s="6" t="s">
         <v>122</v>
@@ -10531,8 +11215,8 @@
       </c>
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
-      <c r="G94" s="5">
-        <v>93</v>
+      <c r="G94" s="5" t="s">
+        <v>448</v>
       </c>
       <c r="H94" s="6" t="s">
         <v>122</v>
@@ -10554,8 +11238,8 @@
       </c>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
-      <c r="G95" s="5">
-        <v>94</v>
+      <c r="G95" s="5" t="s">
+        <v>449</v>
       </c>
       <c r="H95" s="6" t="s">
         <v>122</v>
@@ -10577,8 +11261,8 @@
       </c>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
-      <c r="G96" s="5">
-        <v>95</v>
+      <c r="G96" s="5" t="s">
+        <v>450</v>
       </c>
       <c r="H96" s="6" t="s">
         <v>122</v>
@@ -10600,8 +11284,8 @@
       </c>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
-      <c r="G97" s="5">
-        <v>96</v>
+      <c r="G97" s="5" t="s">
+        <v>451</v>
       </c>
       <c r="H97" s="6" t="s">
         <v>122</v>
@@ -10623,8 +11307,8 @@
       </c>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
-      <c r="G98" s="5">
-        <v>97</v>
+      <c r="G98" s="5" t="s">
+        <v>452</v>
       </c>
       <c r="H98" s="6" t="s">
         <v>122</v>
@@ -10646,8 +11330,8 @@
       </c>
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
-      <c r="G99" s="5">
-        <v>98</v>
+      <c r="G99" s="5" t="s">
+        <v>453</v>
       </c>
       <c r="H99" s="6" t="s">
         <v>122</v>
@@ -10669,8 +11353,8 @@
       </c>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
-      <c r="G100" s="5">
-        <v>99</v>
+      <c r="G100" s="5" t="s">
+        <v>454</v>
       </c>
       <c r="H100" s="6" t="s">
         <v>122</v>
@@ -10692,8 +11376,8 @@
       </c>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
-      <c r="G101" s="5">
-        <v>100</v>
+      <c r="G101" s="5" t="s">
+        <v>455</v>
       </c>
       <c r="H101" s="6" t="s">
         <v>122</v>
@@ -10715,8 +11399,8 @@
       </c>
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
-      <c r="G102" s="5">
-        <v>101</v>
+      <c r="G102" s="5" t="s">
+        <v>456</v>
       </c>
       <c r="H102" s="6" t="s">
         <v>122</v>
@@ -10738,8 +11422,8 @@
       </c>
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
-      <c r="G103" s="5">
-        <v>97</v>
+      <c r="G103" s="5" t="s">
+        <v>452</v>
       </c>
       <c r="H103" s="6" t="s">
         <v>122</v>
@@ -10761,8 +11445,8 @@
       </c>
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
-      <c r="G104" s="5">
-        <v>98</v>
+      <c r="G104" s="5" t="s">
+        <v>453</v>
       </c>
       <c r="H104" s="6" t="s">
         <v>122</v>
@@ -10784,8 +11468,8 @@
       </c>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
-      <c r="G105" s="5">
-        <v>99</v>
+      <c r="G105" s="5" t="s">
+        <v>454</v>
       </c>
       <c r="H105" s="6" t="s">
         <v>122</v>
@@ -10807,8 +11491,8 @@
       </c>
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
-      <c r="G106" s="5">
-        <v>100</v>
+      <c r="G106" s="5" t="s">
+        <v>455</v>
       </c>
       <c r="H106" s="6" t="s">
         <v>122</v>
@@ -10830,8 +11514,8 @@
       </c>
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
-      <c r="G107" s="5">
-        <v>101</v>
+      <c r="G107" s="5" t="s">
+        <v>456</v>
       </c>
       <c r="H107" s="6" t="s">
         <v>122</v>
@@ -10853,8 +11537,8 @@
       </c>
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
-      <c r="G108" s="5">
-        <v>97</v>
+      <c r="G108" s="5" t="s">
+        <v>452</v>
       </c>
       <c r="H108" s="6" t="s">
         <v>122</v>
@@ -10876,8 +11560,8 @@
       </c>
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
-      <c r="G109" s="5">
-        <v>98</v>
+      <c r="G109" s="5" t="s">
+        <v>453</v>
       </c>
       <c r="H109" s="6" t="s">
         <v>122</v>
@@ -10899,8 +11583,8 @@
       </c>
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
-      <c r="G110" s="5">
-        <v>99</v>
+      <c r="G110" s="5" t="s">
+        <v>454</v>
       </c>
       <c r="H110" s="6" t="s">
         <v>122</v>
@@ -10922,8 +11606,8 @@
       </c>
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
-      <c r="G111" s="5">
-        <v>100</v>
+      <c r="G111" s="5" t="s">
+        <v>455</v>
       </c>
       <c r="H111" s="6" t="s">
         <v>122</v>
@@ -10945,8 +11629,8 @@
       </c>
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
-      <c r="G112" s="5">
-        <v>101</v>
+      <c r="G112" s="5" t="s">
+        <v>456</v>
       </c>
       <c r="H112" s="6" t="s">
         <v>122</v>
@@ -10968,8 +11652,8 @@
       </c>
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
-      <c r="G113" s="5">
-        <v>97</v>
+      <c r="G113" s="5" t="s">
+        <v>452</v>
       </c>
       <c r="H113" s="6" t="s">
         <v>122</v>
@@ -10991,8 +11675,8 @@
       </c>
       <c r="E114" s="5"/>
       <c r="F114" s="5"/>
-      <c r="G114" s="5">
-        <v>98</v>
+      <c r="G114" s="5" t="s">
+        <v>453</v>
       </c>
       <c r="H114" s="6" t="s">
         <v>122</v>
@@ -11014,8 +11698,8 @@
       </c>
       <c r="E115" s="5"/>
       <c r="F115" s="5"/>
-      <c r="G115" s="5">
-        <v>99</v>
+      <c r="G115" s="5" t="s">
+        <v>454</v>
       </c>
       <c r="H115" s="6" t="s">
         <v>122</v>
@@ -11037,8 +11721,8 @@
       </c>
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
-      <c r="G116" s="5">
-        <v>100</v>
+      <c r="G116" s="5" t="s">
+        <v>455</v>
       </c>
       <c r="H116" s="6" t="s">
         <v>122</v>
@@ -11060,8 +11744,8 @@
       </c>
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
-      <c r="G117" s="5">
-        <v>101</v>
+      <c r="G117" s="5" t="s">
+        <v>456</v>
       </c>
       <c r="H117" s="6" t="s">
         <v>122</v>
@@ -11083,8 +11767,8 @@
       </c>
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
-      <c r="G118" s="5">
-        <v>102</v>
+      <c r="G118" s="5" t="s">
+        <v>457</v>
       </c>
       <c r="H118" s="6" t="s">
         <v>122</v>
@@ -11106,8 +11790,8 @@
       </c>
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
-      <c r="G119" s="5">
-        <v>103</v>
+      <c r="G119" s="5" t="s">
+        <v>458</v>
       </c>
       <c r="H119" s="6" t="s">
         <v>122</v>
@@ -11129,8 +11813,8 @@
       </c>
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
-      <c r="G120" s="5">
-        <v>104</v>
+      <c r="G120" s="5" t="s">
+        <v>459</v>
       </c>
       <c r="H120" s="6" t="s">
         <v>122</v>
@@ -11152,8 +11836,8 @@
       </c>
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
-      <c r="G121" s="5">
-        <v>105</v>
+      <c r="G121" s="5" t="s">
+        <v>460</v>
       </c>
       <c r="H121" s="6" t="s">
         <v>122</v>
@@ -11175,8 +11859,8 @@
       </c>
       <c r="E122" s="5"/>
       <c r="F122" s="5"/>
-      <c r="G122" s="5">
-        <v>106</v>
+      <c r="G122" s="5" t="s">
+        <v>461</v>
       </c>
       <c r="H122" s="6" t="s">
         <v>122</v>
@@ -11198,8 +11882,8 @@
       </c>
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
-      <c r="G123" s="5">
-        <v>107</v>
+      <c r="G123" s="5" t="s">
+        <v>462</v>
       </c>
       <c r="H123" s="6" t="s">
         <v>122</v>
@@ -11221,8 +11905,8 @@
       </c>
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
-      <c r="G124" s="5">
-        <v>108</v>
+      <c r="G124" s="5" t="s">
+        <v>463</v>
       </c>
       <c r="H124" s="6" t="s">
         <v>122</v>
@@ -11244,8 +11928,8 @@
       </c>
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
-      <c r="G125" s="5">
-        <v>109</v>
+      <c r="G125" s="5" t="s">
+        <v>464</v>
       </c>
       <c r="H125" s="20" t="s">
         <v>219</v>
@@ -11267,8 +11951,8 @@
       </c>
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
-      <c r="G126" s="5">
-        <v>110</v>
+      <c r="G126" s="5" t="s">
+        <v>465</v>
       </c>
       <c r="H126" s="20" t="s">
         <v>219</v>
@@ -11289,8 +11973,8 @@
       </c>
       <c r="E127" s="5"/>
       <c r="F127" s="5"/>
-      <c r="G127" s="5">
-        <v>111</v>
+      <c r="G127" s="5" t="s">
+        <v>466</v>
       </c>
       <c r="H127" s="20" t="s">
         <v>136</v>
@@ -11312,8 +11996,8 @@
       </c>
       <c r="E128" s="5"/>
       <c r="F128" s="5"/>
-      <c r="G128" s="5">
-        <v>112</v>
+      <c r="G128" s="5" t="s">
+        <v>467</v>
       </c>
       <c r="H128" s="20" t="s">
         <v>136</v>
@@ -11334,8 +12018,8 @@
       </c>
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
-      <c r="G129" s="5">
-        <v>113</v>
+      <c r="G129" s="5" t="s">
+        <v>468</v>
       </c>
       <c r="H129" s="20" t="s">
         <v>136</v>
@@ -11356,8 +12040,8 @@
       </c>
       <c r="E130" s="5"/>
       <c r="F130" s="5"/>
-      <c r="G130" s="5">
-        <v>114</v>
+      <c r="G130" s="5" t="s">
+        <v>469</v>
       </c>
       <c r="H130" s="6" t="s">
         <v>122</v>
@@ -11378,8 +12062,8 @@
       </c>
       <c r="E131" s="5"/>
       <c r="F131" s="5"/>
-      <c r="G131" s="5">
-        <v>115</v>
+      <c r="G131" s="5" t="s">
+        <v>470</v>
       </c>
       <c r="H131" s="6" t="s">
         <v>122</v>
@@ -11400,8 +12084,8 @@
       </c>
       <c r="E132" s="5"/>
       <c r="F132" s="5"/>
-      <c r="G132" s="5">
-        <v>116</v>
+      <c r="G132" s="5" t="s">
+        <v>471</v>
       </c>
       <c r="H132" s="6" t="s">
         <v>122</v>
@@ -11422,8 +12106,8 @@
       </c>
       <c r="E133" s="5"/>
       <c r="F133" s="5"/>
-      <c r="G133" s="5">
-        <v>117</v>
+      <c r="G133" s="5" t="s">
+        <v>472</v>
       </c>
       <c r="H133" s="6" t="s">
         <v>122</v>
@@ -11444,8 +12128,8 @@
       </c>
       <c r="E134" s="5"/>
       <c r="F134" s="5"/>
-      <c r="G134" s="5">
-        <v>118</v>
+      <c r="G134" s="5" t="s">
+        <v>473</v>
       </c>
       <c r="H134" s="6" t="s">
         <v>122</v>
@@ -11466,8 +12150,8 @@
       </c>
       <c r="E135" s="5"/>
       <c r="F135" s="5"/>
-      <c r="G135" s="5">
-        <v>119</v>
+      <c r="G135" s="5" t="s">
+        <v>474</v>
       </c>
       <c r="H135" s="6" t="s">
         <v>122</v>
@@ -11488,8 +12172,8 @@
       </c>
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
-      <c r="G136" s="5">
-        <v>120</v>
+      <c r="G136" s="5" t="s">
+        <v>475</v>
       </c>
       <c r="H136" s="6" t="s">
         <v>122</v>
@@ -11510,8 +12194,8 @@
       </c>
       <c r="E137" s="5"/>
       <c r="F137" s="5"/>
-      <c r="G137" s="5">
-        <v>121</v>
+      <c r="G137" s="5" t="s">
+        <v>476</v>
       </c>
       <c r="H137" s="6" t="s">
         <v>122</v>
@@ -11532,8 +12216,8 @@
       </c>
       <c r="E138" s="5"/>
       <c r="F138" s="5"/>
-      <c r="G138" s="5">
-        <v>122</v>
+      <c r="G138" s="5" t="s">
+        <v>477</v>
       </c>
       <c r="H138" s="6" t="s">
         <v>122</v>
@@ -11554,8 +12238,8 @@
       </c>
       <c r="E139" s="5"/>
       <c r="F139" s="5"/>
-      <c r="G139" s="5">
-        <v>123</v>
+      <c r="G139" s="5" t="s">
+        <v>478</v>
       </c>
       <c r="H139" s="6" t="s">
         <v>122</v>
@@ -11576,8 +12260,8 @@
       </c>
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
-      <c r="G140" s="5">
-        <v>124</v>
+      <c r="G140" s="5" t="s">
+        <v>479</v>
       </c>
       <c r="H140" s="6" t="s">
         <v>122</v>
@@ -11598,8 +12282,8 @@
       </c>
       <c r="E141" s="5"/>
       <c r="F141" s="5"/>
-      <c r="G141" s="5">
-        <v>125</v>
+      <c r="G141" s="5" t="s">
+        <v>480</v>
       </c>
       <c r="H141" s="6" t="s">
         <v>122</v>
@@ -11620,8 +12304,8 @@
       </c>
       <c r="E142" s="5"/>
       <c r="F142" s="5"/>
-      <c r="G142" s="5">
-        <v>126</v>
+      <c r="G142" s="5" t="s">
+        <v>481</v>
       </c>
       <c r="H142" s="6" t="s">
         <v>122</v>
@@ -11642,8 +12326,8 @@
       </c>
       <c r="E143" s="5"/>
       <c r="F143" s="5"/>
-      <c r="G143" s="5">
-        <v>127</v>
+      <c r="G143" s="5" t="s">
+        <v>482</v>
       </c>
       <c r="H143" s="6" t="s">
         <v>122</v>
@@ -11664,8 +12348,8 @@
       </c>
       <c r="E144" s="5"/>
       <c r="F144" s="5"/>
-      <c r="G144" s="5">
-        <v>128</v>
+      <c r="G144" s="5" t="s">
+        <v>483</v>
       </c>
       <c r="H144" s="6" t="s">
         <v>122</v>
@@ -11686,8 +12370,8 @@
       </c>
       <c r="E145" s="5"/>
       <c r="F145" s="5"/>
-      <c r="G145" s="5">
-        <v>129</v>
+      <c r="G145" s="5" t="s">
+        <v>484</v>
       </c>
       <c r="H145" s="6" t="s">
         <v>122</v>
@@ -11708,8 +12392,8 @@
       </c>
       <c r="E146" s="5"/>
       <c r="F146" s="5"/>
-      <c r="G146" s="5">
-        <v>130</v>
+      <c r="G146" s="5" t="s">
+        <v>485</v>
       </c>
       <c r="H146" s="6" t="s">
         <v>122</v>
@@ -11730,8 +12414,8 @@
       </c>
       <c r="E147" s="5"/>
       <c r="F147" s="5"/>
-      <c r="G147" s="5">
-        <v>131</v>
+      <c r="G147" s="5" t="s">
+        <v>486</v>
       </c>
       <c r="H147" s="6" t="s">
         <v>122</v>
@@ -11752,8 +12436,8 @@
       </c>
       <c r="E148" s="5"/>
       <c r="F148" s="5"/>
-      <c r="G148" s="5">
-        <v>132</v>
+      <c r="G148" s="5" t="s">
+        <v>487</v>
       </c>
       <c r="H148" s="6" t="s">
         <v>122</v>
@@ -11774,8 +12458,8 @@
       </c>
       <c r="E149" s="5"/>
       <c r="F149" s="5"/>
-      <c r="G149" s="5">
-        <v>133</v>
+      <c r="G149" s="5" t="s">
+        <v>488</v>
       </c>
       <c r="H149" s="6" t="s">
         <v>122</v>
@@ -11796,8 +12480,8 @@
       </c>
       <c r="E150" s="5"/>
       <c r="F150" s="5"/>
-      <c r="G150" s="5">
-        <v>134</v>
+      <c r="G150" s="5" t="s">
+        <v>489</v>
       </c>
       <c r="H150" s="6" t="s">
         <v>122</v>
@@ -11818,8 +12502,8 @@
       </c>
       <c r="E151" s="5"/>
       <c r="F151" s="5"/>
-      <c r="G151" s="5">
-        <v>135</v>
+      <c r="G151" s="5" t="s">
+        <v>490</v>
       </c>
       <c r="H151" s="6" t="s">
         <v>122</v>
@@ -11840,8 +12524,8 @@
       </c>
       <c r="E152" s="5"/>
       <c r="F152" s="5"/>
-      <c r="G152" s="5">
-        <v>136</v>
+      <c r="G152" s="5" t="s">
+        <v>491</v>
       </c>
       <c r="H152" s="6" t="s">
         <v>122</v>
@@ -11862,8 +12546,8 @@
       </c>
       <c r="E153" s="5"/>
       <c r="F153" s="5"/>
-      <c r="G153" s="5">
-        <v>137</v>
+      <c r="G153" s="5" t="s">
+        <v>492</v>
       </c>
       <c r="H153" s="6" t="s">
         <v>122</v>
@@ -11884,8 +12568,8 @@
       </c>
       <c r="E154" s="5"/>
       <c r="F154" s="5"/>
-      <c r="G154" s="5">
-        <v>138</v>
+      <c r="G154" s="5" t="s">
+        <v>493</v>
       </c>
       <c r="H154" s="6" t="s">
         <v>122</v>
@@ -11906,8 +12590,8 @@
       </c>
       <c r="E155" s="5"/>
       <c r="F155" s="5"/>
-      <c r="G155" s="5">
-        <v>139</v>
+      <c r="G155" s="5" t="s">
+        <v>494</v>
       </c>
       <c r="H155" s="6" t="s">
         <v>122</v>
@@ -11928,8 +12612,8 @@
       </c>
       <c r="E156" s="5"/>
       <c r="F156" s="5"/>
-      <c r="G156" s="5">
-        <v>140</v>
+      <c r="G156" s="5" t="s">
+        <v>495</v>
       </c>
       <c r="H156" s="6" t="s">
         <v>122</v>
@@ -11950,8 +12634,8 @@
       </c>
       <c r="E157" s="5"/>
       <c r="F157" s="5"/>
-      <c r="G157" s="5">
-        <v>141</v>
+      <c r="G157" s="5" t="s">
+        <v>496</v>
       </c>
       <c r="H157" s="6" t="s">
         <v>122</v>
@@ -11972,8 +12656,8 @@
       </c>
       <c r="E158" s="5"/>
       <c r="F158" s="5"/>
-      <c r="G158" s="5">
-        <v>142</v>
+      <c r="G158" s="5" t="s">
+        <v>497</v>
       </c>
       <c r="H158" s="6" t="s">
         <v>122</v>
@@ -11994,8 +12678,8 @@
       </c>
       <c r="E159" s="5"/>
       <c r="F159" s="5"/>
-      <c r="G159" s="5">
-        <v>143</v>
+      <c r="G159" s="5" t="s">
+        <v>498</v>
       </c>
       <c r="H159" s="6" t="s">
         <v>122</v>
@@ -12016,8 +12700,8 @@
       </c>
       <c r="E160" s="5"/>
       <c r="F160" s="5"/>
-      <c r="G160" s="5">
-        <v>144</v>
+      <c r="G160" s="5" t="s">
+        <v>499</v>
       </c>
       <c r="H160" s="6" t="s">
         <v>122</v>
@@ -12038,8 +12722,8 @@
       </c>
       <c r="E161" s="5"/>
       <c r="F161" s="5"/>
-      <c r="G161" s="5">
-        <v>145</v>
+      <c r="G161" s="5" t="s">
+        <v>500</v>
       </c>
       <c r="H161" s="6" t="s">
         <v>122</v>
@@ -12060,8 +12744,8 @@
       </c>
       <c r="E162" s="5"/>
       <c r="F162" s="5"/>
-      <c r="G162" s="5">
-        <v>146</v>
+      <c r="G162" s="5" t="s">
+        <v>501</v>
       </c>
       <c r="H162" s="6" t="s">
         <v>122</v>
@@ -12082,8 +12766,8 @@
       </c>
       <c r="E163" s="5"/>
       <c r="F163" s="5"/>
-      <c r="G163" s="5">
-        <v>147</v>
+      <c r="G163" s="5" t="s">
+        <v>502</v>
       </c>
       <c r="H163" s="6" t="s">
         <v>122</v>
@@ -12104,8 +12788,8 @@
       </c>
       <c r="E164" s="5"/>
       <c r="F164" s="5"/>
-      <c r="G164" s="5">
-        <v>148</v>
+      <c r="G164" s="5" t="s">
+        <v>503</v>
       </c>
       <c r="H164" s="6" t="s">
         <v>122</v>
@@ -12126,8 +12810,8 @@
       </c>
       <c r="E165" s="5"/>
       <c r="F165" s="5"/>
-      <c r="G165" s="5">
-        <v>149</v>
+      <c r="G165" s="5" t="s">
+        <v>504</v>
       </c>
       <c r="H165" s="6" t="s">
         <v>122</v>
@@ -12148,8 +12832,8 @@
       </c>
       <c r="E166" s="5"/>
       <c r="F166" s="5"/>
-      <c r="G166" s="5">
-        <v>150</v>
+      <c r="G166" s="5" t="s">
+        <v>505</v>
       </c>
       <c r="H166" s="6" t="s">
         <v>122</v>
@@ -12170,8 +12854,8 @@
       </c>
       <c r="E167" s="5"/>
       <c r="F167" s="5"/>
-      <c r="G167" s="5">
-        <v>151</v>
+      <c r="G167" s="5" t="s">
+        <v>506</v>
       </c>
       <c r="H167" s="6" t="s">
         <v>122</v>
@@ -12192,8 +12876,8 @@
       </c>
       <c r="E168" s="5"/>
       <c r="F168" s="5"/>
-      <c r="G168" s="5">
-        <v>152</v>
+      <c r="G168" s="5" t="s">
+        <v>507</v>
       </c>
       <c r="H168" s="6" t="s">
         <v>122</v>
@@ -12214,8 +12898,8 @@
       </c>
       <c r="E169" s="5"/>
       <c r="F169" s="5"/>
-      <c r="G169" s="5">
-        <v>153</v>
+      <c r="G169" s="5" t="s">
+        <v>508</v>
       </c>
       <c r="H169" s="6" t="s">
         <v>122</v>
@@ -12236,8 +12920,8 @@
       </c>
       <c r="E170" s="5"/>
       <c r="F170" s="5"/>
-      <c r="G170" s="5">
-        <v>154</v>
+      <c r="G170" s="5" t="s">
+        <v>509</v>
       </c>
       <c r="H170" s="6" t="s">
         <v>122</v>
@@ -12258,8 +12942,8 @@
       </c>
       <c r="E171" s="5"/>
       <c r="F171" s="5"/>
-      <c r="G171" s="5">
-        <v>155</v>
+      <c r="G171" s="5" t="s">
+        <v>510</v>
       </c>
       <c r="H171" s="6" t="s">
         <v>122</v>
@@ -12280,8 +12964,8 @@
       </c>
       <c r="E172" s="5"/>
       <c r="F172" s="5"/>
-      <c r="G172" s="5">
-        <v>156</v>
+      <c r="G172" s="5" t="s">
+        <v>511</v>
       </c>
       <c r="H172" s="6" t="s">
         <v>122</v>
@@ -12302,8 +12986,8 @@
       </c>
       <c r="E173" s="5"/>
       <c r="F173" s="5"/>
-      <c r="G173" s="5">
-        <v>157</v>
+      <c r="G173" s="5" t="s">
+        <v>512</v>
       </c>
       <c r="H173" s="6" t="s">
         <v>122</v>
@@ -12324,8 +13008,8 @@
       </c>
       <c r="E174" s="5"/>
       <c r="F174" s="5"/>
-      <c r="G174" s="5">
-        <v>158</v>
+      <c r="G174" s="5" t="s">
+        <v>513</v>
       </c>
       <c r="H174" s="6" t="s">
         <v>122</v>
@@ -12346,8 +13030,8 @@
       </c>
       <c r="E175" s="5"/>
       <c r="F175" s="5"/>
-      <c r="G175" s="5">
-        <v>159</v>
+      <c r="G175" s="5" t="s">
+        <v>514</v>
       </c>
       <c r="H175" s="6" t="s">
         <v>122</v>
@@ -12368,8 +13052,8 @@
       </c>
       <c r="E176" s="5"/>
       <c r="F176" s="5"/>
-      <c r="G176" s="5">
-        <v>160</v>
+      <c r="G176" s="5" t="s">
+        <v>515</v>
       </c>
       <c r="H176" s="6" t="s">
         <v>122</v>
@@ -12390,8 +13074,8 @@
       </c>
       <c r="E177" s="5"/>
       <c r="F177" s="5"/>
-      <c r="G177" s="5">
-        <v>161</v>
+      <c r="G177" s="5" t="s">
+        <v>516</v>
       </c>
       <c r="H177" s="6" t="s">
         <v>122</v>
@@ -12412,8 +13096,8 @@
       </c>
       <c r="E178" s="5"/>
       <c r="F178" s="5"/>
-      <c r="G178" s="5">
-        <v>162</v>
+      <c r="G178" s="5" t="s">
+        <v>517</v>
       </c>
       <c r="H178" s="6" t="s">
         <v>122</v>
@@ -12434,8 +13118,8 @@
       </c>
       <c r="E179" s="5"/>
       <c r="F179" s="5"/>
-      <c r="G179" s="5">
-        <v>163</v>
+      <c r="G179" s="5" t="s">
+        <v>518</v>
       </c>
       <c r="H179" s="6" t="s">
         <v>122</v>
@@ -12456,8 +13140,8 @@
       </c>
       <c r="E180" s="5"/>
       <c r="F180" s="5"/>
-      <c r="G180" s="5">
-        <v>164</v>
+      <c r="G180" s="5" t="s">
+        <v>519</v>
       </c>
       <c r="H180" s="6" t="s">
         <v>122</v>
@@ -12478,8 +13162,8 @@
       </c>
       <c r="E181" s="5"/>
       <c r="F181" s="5"/>
-      <c r="G181" s="5">
-        <v>165</v>
+      <c r="G181" s="5" t="s">
+        <v>520</v>
       </c>
       <c r="H181" s="6" t="s">
         <v>122</v>
@@ -12500,8 +13184,8 @@
       </c>
       <c r="E182" s="5"/>
       <c r="F182" s="5"/>
-      <c r="G182" s="5">
-        <v>166</v>
+      <c r="G182" s="5" t="s">
+        <v>521</v>
       </c>
       <c r="H182" s="6" t="s">
         <v>122</v>
@@ -12522,8 +13206,8 @@
       </c>
       <c r="E183" s="5"/>
       <c r="F183" s="5"/>
-      <c r="G183" s="5">
-        <v>167</v>
+      <c r="G183" s="5" t="s">
+        <v>522</v>
       </c>
       <c r="H183" s="6" t="s">
         <v>122</v>
@@ -12544,8 +13228,8 @@
       </c>
       <c r="E184" s="5"/>
       <c r="F184" s="5"/>
-      <c r="G184" s="5">
-        <v>168</v>
+      <c r="G184" s="5" t="s">
+        <v>523</v>
       </c>
       <c r="H184" s="6" t="s">
         <v>122</v>
@@ -12566,8 +13250,8 @@
       </c>
       <c r="E185" s="5"/>
       <c r="F185" s="5"/>
-      <c r="G185" s="5">
-        <v>169</v>
+      <c r="G185" s="5" t="s">
+        <v>524</v>
       </c>
       <c r="H185" s="6" t="s">
         <v>122</v>
@@ -12588,8 +13272,8 @@
       </c>
       <c r="E186" s="5"/>
       <c r="F186" s="5"/>
-      <c r="G186" s="5">
-        <v>170</v>
+      <c r="G186" s="5" t="s">
+        <v>525</v>
       </c>
       <c r="H186" s="6" t="s">
         <v>122</v>
@@ -12611,8 +13295,8 @@
       </c>
       <c r="E187" s="5"/>
       <c r="F187" s="5"/>
-      <c r="G187" s="5">
-        <v>171</v>
+      <c r="G187" s="5" t="s">
+        <v>526</v>
       </c>
       <c r="H187" s="6" t="s">
         <v>122</v>
@@ -12634,8 +13318,8 @@
       </c>
       <c r="E188" s="5"/>
       <c r="F188" s="5"/>
-      <c r="G188" s="5">
-        <v>172</v>
+      <c r="G188" s="5" t="s">
+        <v>527</v>
       </c>
       <c r="H188" s="6" t="s">
         <v>122</v>
@@ -12657,8 +13341,8 @@
       </c>
       <c r="E189" s="5"/>
       <c r="F189" s="5"/>
-      <c r="G189" s="5">
-        <v>173</v>
+      <c r="G189" s="5" t="s">
+        <v>528</v>
       </c>
       <c r="H189" s="6" t="s">
         <v>122</v>
@@ -12680,8 +13364,8 @@
       </c>
       <c r="E190" s="5"/>
       <c r="F190" s="5"/>
-      <c r="G190" s="5">
-        <v>174</v>
+      <c r="G190" s="5" t="s">
+        <v>529</v>
       </c>
       <c r="H190" s="6" t="s">
         <v>122</v>
@@ -12703,8 +13387,8 @@
       </c>
       <c r="E191" s="5"/>
       <c r="F191" s="5"/>
-      <c r="G191" s="5">
-        <v>175</v>
+      <c r="G191" s="5" t="s">
+        <v>530</v>
       </c>
       <c r="H191" s="6" t="s">
         <v>122</v>
@@ -12726,8 +13410,8 @@
       </c>
       <c r="E192" s="5"/>
       <c r="F192" s="5"/>
-      <c r="G192" s="5">
-        <v>176</v>
+      <c r="G192" s="5" t="s">
+        <v>531</v>
       </c>
       <c r="H192" s="6" t="s">
         <v>122</v>
@@ -12749,8 +13433,8 @@
       </c>
       <c r="E193" s="5"/>
       <c r="F193" s="5"/>
-      <c r="G193" s="5">
-        <v>177</v>
+      <c r="G193" s="5" t="s">
+        <v>532</v>
       </c>
       <c r="H193" s="6" t="s">
         <v>122</v>
@@ -12772,8 +13456,8 @@
       </c>
       <c r="E194" s="5"/>
       <c r="F194" s="5"/>
-      <c r="G194" s="5">
-        <v>178</v>
+      <c r="G194" s="5" t="s">
+        <v>533</v>
       </c>
       <c r="H194" s="6" t="s">
         <v>122</v>
@@ -12795,8 +13479,8 @@
       </c>
       <c r="E195" s="5"/>
       <c r="F195" s="5"/>
-      <c r="G195" s="5">
-        <v>179</v>
+      <c r="G195" s="5" t="s">
+        <v>534</v>
       </c>
       <c r="H195" s="6" t="s">
         <v>122</v>
@@ -12818,8 +13502,8 @@
       </c>
       <c r="E196" s="5"/>
       <c r="F196" s="5"/>
-      <c r="G196" s="5">
-        <v>180</v>
+      <c r="G196" s="5" t="s">
+        <v>535</v>
       </c>
       <c r="H196" s="6" t="s">
         <v>122</v>
@@ -12841,8 +13525,8 @@
       </c>
       <c r="E197" s="5"/>
       <c r="F197" s="5"/>
-      <c r="G197" s="5">
-        <v>181</v>
+      <c r="G197" s="5" t="s">
+        <v>536</v>
       </c>
       <c r="H197" s="6" t="s">
         <v>122</v>
@@ -12864,8 +13548,8 @@
       </c>
       <c r="E198" s="5"/>
       <c r="F198" s="5"/>
-      <c r="G198" s="5">
-        <v>182</v>
+      <c r="G198" s="5" t="s">
+        <v>537</v>
       </c>
       <c r="H198" s="6" t="s">
         <v>122</v>
@@ -12887,8 +13571,8 @@
       </c>
       <c r="E199" s="5"/>
       <c r="F199" s="5"/>
-      <c r="G199" s="5">
-        <v>183</v>
+      <c r="G199" s="5" t="s">
+        <v>538</v>
       </c>
       <c r="H199" s="6" t="s">
         <v>122</v>
@@ -12910,8 +13594,8 @@
       </c>
       <c r="E200" s="5"/>
       <c r="F200" s="5"/>
-      <c r="G200" s="5">
-        <v>184</v>
+      <c r="G200" s="5" t="s">
+        <v>539</v>
       </c>
       <c r="H200" s="6" t="s">
         <v>122</v>
@@ -12933,8 +13617,8 @@
       </c>
       <c r="E201" s="5"/>
       <c r="F201" s="5"/>
-      <c r="G201" s="5">
-        <v>185</v>
+      <c r="G201" s="5" t="s">
+        <v>540</v>
       </c>
       <c r="H201" s="6" t="s">
         <v>122</v>
@@ -12956,8 +13640,8 @@
       </c>
       <c r="E202" s="5"/>
       <c r="F202" s="5"/>
-      <c r="G202" s="5">
-        <v>186</v>
+      <c r="G202" s="5" t="s">
+        <v>541</v>
       </c>
       <c r="H202" s="6" t="s">
         <v>122</v>
@@ -12979,8 +13663,8 @@
       </c>
       <c r="E203" s="5"/>
       <c r="F203" s="5"/>
-      <c r="G203" s="5">
-        <v>187</v>
+      <c r="G203" s="5" t="s">
+        <v>542</v>
       </c>
       <c r="H203" s="6" t="s">
         <v>122</v>
@@ -13002,8 +13686,8 @@
       </c>
       <c r="E204" s="5"/>
       <c r="F204" s="5"/>
-      <c r="G204" s="5">
-        <v>188</v>
+      <c r="G204" s="5" t="s">
+        <v>543</v>
       </c>
       <c r="H204" s="6" t="s">
         <v>122</v>
@@ -13025,8 +13709,8 @@
       </c>
       <c r="E205" s="5"/>
       <c r="F205" s="5"/>
-      <c r="G205" s="5">
-        <v>189</v>
+      <c r="G205" s="5" t="s">
+        <v>544</v>
       </c>
       <c r="H205" s="6" t="s">
         <v>122</v>
@@ -13048,8 +13732,8 @@
       </c>
       <c r="E206" s="5"/>
       <c r="F206" s="5"/>
-      <c r="G206" s="5">
-        <v>190</v>
+      <c r="G206" s="5" t="s">
+        <v>545</v>
       </c>
       <c r="H206" s="6" t="s">
         <v>122</v>
@@ -13071,8 +13755,8 @@
       </c>
       <c r="E207" s="5"/>
       <c r="F207" s="5"/>
-      <c r="G207" s="5">
-        <v>191</v>
+      <c r="G207" s="5" t="s">
+        <v>546</v>
       </c>
       <c r="H207" s="6" t="s">
         <v>122</v>
@@ -13094,8 +13778,8 @@
       </c>
       <c r="E208" s="5"/>
       <c r="F208" s="5"/>
-      <c r="G208" s="5">
-        <v>192</v>
+      <c r="G208" s="5" t="s">
+        <v>547</v>
       </c>
       <c r="H208" s="6" t="s">
         <v>122</v>
@@ -13117,8 +13801,8 @@
       </c>
       <c r="E209" s="5"/>
       <c r="F209" s="5"/>
-      <c r="G209" s="5">
-        <v>193</v>
+      <c r="G209" s="5" t="s">
+        <v>548</v>
       </c>
       <c r="H209" s="6" t="s">
         <v>122</v>
@@ -13140,8 +13824,8 @@
       </c>
       <c r="E210" s="5"/>
       <c r="F210" s="5"/>
-      <c r="G210" s="5">
-        <v>194</v>
+      <c r="G210" s="5" t="s">
+        <v>549</v>
       </c>
       <c r="H210" s="6" t="s">
         <v>122</v>
@@ -13163,8 +13847,8 @@
       </c>
       <c r="E211" s="5"/>
       <c r="F211" s="5"/>
-      <c r="G211" s="5">
-        <v>195</v>
+      <c r="G211" s="5" t="s">
+        <v>550</v>
       </c>
       <c r="H211" s="6" t="s">
         <v>122</v>
@@ -13186,8 +13870,8 @@
       </c>
       <c r="E212" s="5"/>
       <c r="F212" s="5"/>
-      <c r="G212" s="5">
-        <v>196</v>
+      <c r="G212" s="5" t="s">
+        <v>551</v>
       </c>
       <c r="H212" s="6" t="s">
         <v>122</v>
@@ -13209,8 +13893,8 @@
       </c>
       <c r="E213" s="5"/>
       <c r="F213" s="5"/>
-      <c r="G213" s="5">
-        <v>197</v>
+      <c r="G213" s="5" t="s">
+        <v>552</v>
       </c>
       <c r="H213" s="6" t="s">
         <v>122</v>
@@ -13232,8 +13916,8 @@
       </c>
       <c r="E214" s="5"/>
       <c r="F214" s="5"/>
-      <c r="G214" s="5">
-        <v>198</v>
+      <c r="G214" s="5" t="s">
+        <v>553</v>
       </c>
       <c r="H214" s="6" t="s">
         <v>122</v>
@@ -13254,8 +13938,8 @@
       </c>
       <c r="E215" s="5"/>
       <c r="F215" s="5"/>
-      <c r="G215" s="5">
-        <v>199</v>
+      <c r="G215" s="5" t="s">
+        <v>554</v>
       </c>
       <c r="H215" s="6" t="s">
         <v>122</v>
@@ -13276,8 +13960,8 @@
       </c>
       <c r="E216" s="5"/>
       <c r="F216" s="5"/>
-      <c r="G216" s="5">
-        <v>200</v>
+      <c r="G216" s="5" t="s">
+        <v>555</v>
       </c>
       <c r="H216" s="6" t="s">
         <v>122</v>
@@ -13298,8 +13982,8 @@
       </c>
       <c r="E217" s="5"/>
       <c r="F217" s="5"/>
-      <c r="G217" s="5">
-        <v>201</v>
+      <c r="G217" s="5" t="s">
+        <v>556</v>
       </c>
       <c r="H217" s="6" t="s">
         <v>122</v>
@@ -13320,8 +14004,8 @@
       </c>
       <c r="E218" s="5"/>
       <c r="F218" s="5"/>
-      <c r="G218" s="5">
-        <v>202</v>
+      <c r="G218" s="5" t="s">
+        <v>557</v>
       </c>
       <c r="H218" s="6" t="s">
         <v>122</v>
@@ -13342,8 +14026,8 @@
       </c>
       <c r="E219" s="5"/>
       <c r="F219" s="5"/>
-      <c r="G219" s="5">
-        <v>203</v>
+      <c r="G219" s="5" t="s">
+        <v>558</v>
       </c>
       <c r="H219" s="6" t="s">
         <v>122</v>
@@ -13364,8 +14048,8 @@
       </c>
       <c r="E220" s="5"/>
       <c r="F220" s="5"/>
-      <c r="G220" s="5">
-        <v>204</v>
+      <c r="G220" s="5" t="s">
+        <v>559</v>
       </c>
       <c r="H220" s="6" t="s">
         <v>122</v>
@@ -14478,8 +15162,8 @@
       </c>
       <c r="E263" s="36"/>
       <c r="F263" s="36"/>
-      <c r="G263" s="36">
-        <v>289</v>
+      <c r="G263" s="36" t="s">
+        <v>560</v>
       </c>
       <c r="H263" s="37" t="s">
         <v>122</v>
@@ -14500,8 +15184,8 @@
       </c>
       <c r="E264" s="36"/>
       <c r="F264" s="36"/>
-      <c r="G264" s="36">
-        <v>290</v>
+      <c r="G264" s="34" t="s">
+        <v>561</v>
       </c>
       <c r="H264" s="37" t="s">
         <v>122</v>
@@ -14522,8 +15206,8 @@
       </c>
       <c r="E265" s="36"/>
       <c r="F265" s="36"/>
-      <c r="G265" s="36">
-        <v>291</v>
+      <c r="G265" s="34" t="s">
+        <v>562</v>
       </c>
       <c r="H265" s="37" t="s">
         <v>122</v>
@@ -14544,8 +15228,8 @@
       </c>
       <c r="E266" s="36"/>
       <c r="F266" s="36"/>
-      <c r="G266" s="36">
-        <v>292</v>
+      <c r="G266" s="34" t="s">
+        <v>563</v>
       </c>
       <c r="H266" s="37" t="s">
         <v>122</v>
@@ -14566,8 +15250,8 @@
       </c>
       <c r="E267" s="36"/>
       <c r="F267" s="36"/>
-      <c r="G267" s="36">
-        <v>293</v>
+      <c r="G267" s="34" t="s">
+        <v>564</v>
       </c>
       <c r="H267" s="37" t="s">
         <v>122</v>

--- a/config_3.23/rank_server.xlsx
+++ b/config_3.23/rank_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_3.23\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="565">
   <si>
     <t>id|</t>
   </si>
@@ -1749,6 +1749,677 @@
   <si>
     <t>1500福利券</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>289,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>290,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>291</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>292</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>293</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,</t>
+  </si>
+  <si>
+    <t>2,</t>
+  </si>
+  <si>
+    <t>3,</t>
+  </si>
+  <si>
+    <t>4,</t>
+  </si>
+  <si>
+    <t>5,</t>
+  </si>
+  <si>
+    <t>6,</t>
+  </si>
+  <si>
+    <t>7,</t>
+  </si>
+  <si>
+    <t>8,</t>
+  </si>
+  <si>
+    <t>9,</t>
+  </si>
+  <si>
+    <t>10,</t>
+  </si>
+  <si>
+    <t>11,</t>
+  </si>
+  <si>
+    <t>12,</t>
+  </si>
+  <si>
+    <t>13,</t>
+  </si>
+  <si>
+    <t>14,</t>
+  </si>
+  <si>
+    <t>15,</t>
+  </si>
+  <si>
+    <t>16,</t>
+  </si>
+  <si>
+    <t>17,</t>
+  </si>
+  <si>
+    <t>18,</t>
+  </si>
+  <si>
+    <t>19,</t>
+  </si>
+  <si>
+    <t>20,</t>
+  </si>
+  <si>
+    <t>21,</t>
+  </si>
+  <si>
+    <t>22,</t>
+  </si>
+  <si>
+    <t>23,</t>
+  </si>
+  <si>
+    <t>24,</t>
+  </si>
+  <si>
+    <t>25,</t>
+  </si>
+  <si>
+    <t>26,</t>
+  </si>
+  <si>
+    <t>27,</t>
+  </si>
+  <si>
+    <t>28,</t>
+  </si>
+  <si>
+    <t>29,</t>
+  </si>
+  <si>
+    <t>30,</t>
+  </si>
+  <si>
+    <t>31,</t>
+  </si>
+  <si>
+    <t>32,</t>
+  </si>
+  <si>
+    <t>33,</t>
+  </si>
+  <si>
+    <t>34,</t>
+  </si>
+  <si>
+    <t>35,</t>
+  </si>
+  <si>
+    <t>36,</t>
+  </si>
+  <si>
+    <t>37,</t>
+  </si>
+  <si>
+    <t>38,</t>
+  </si>
+  <si>
+    <t>39,</t>
+  </si>
+  <si>
+    <t>40,</t>
+  </si>
+  <si>
+    <t>41,</t>
+  </si>
+  <si>
+    <t>42,</t>
+  </si>
+  <si>
+    <t>43,</t>
+  </si>
+  <si>
+    <t>44,</t>
+  </si>
+  <si>
+    <t>45,</t>
+  </si>
+  <si>
+    <t>46,</t>
+  </si>
+  <si>
+    <t>47,</t>
+  </si>
+  <si>
+    <t>48,</t>
+  </si>
+  <si>
+    <t>49,</t>
+  </si>
+  <si>
+    <t>50,</t>
+  </si>
+  <si>
+    <t>51,</t>
+  </si>
+  <si>
+    <t>52,</t>
+  </si>
+  <si>
+    <t>53,</t>
+  </si>
+  <si>
+    <t>54,</t>
+  </si>
+  <si>
+    <t>55,</t>
+  </si>
+  <si>
+    <t>56,</t>
+  </si>
+  <si>
+    <t>57,</t>
+  </si>
+  <si>
+    <t>58,</t>
+  </si>
+  <si>
+    <t>59,</t>
+  </si>
+  <si>
+    <t>60,</t>
+  </si>
+  <si>
+    <t>61,</t>
+  </si>
+  <si>
+    <t>62,</t>
+  </si>
+  <si>
+    <t>63,</t>
+  </si>
+  <si>
+    <t>64,</t>
+  </si>
+  <si>
+    <t>65,</t>
+  </si>
+  <si>
+    <t>66,</t>
+  </si>
+  <si>
+    <t>67,</t>
+  </si>
+  <si>
+    <t>68,</t>
+  </si>
+  <si>
+    <t>69,</t>
+  </si>
+  <si>
+    <t>70,</t>
+  </si>
+  <si>
+    <t>71,</t>
+  </si>
+  <si>
+    <t>72,</t>
+  </si>
+  <si>
+    <t>73,</t>
+  </si>
+  <si>
+    <t>74,</t>
+  </si>
+  <si>
+    <t>75,</t>
+  </si>
+  <si>
+    <t>76,</t>
+  </si>
+  <si>
+    <t>77,</t>
+  </si>
+  <si>
+    <t>78,</t>
+  </si>
+  <si>
+    <t>79,</t>
+  </si>
+  <si>
+    <t>80,</t>
+  </si>
+  <si>
+    <t>81,</t>
+  </si>
+  <si>
+    <t>82,</t>
+  </si>
+  <si>
+    <t>83,</t>
+  </si>
+  <si>
+    <t>84,</t>
+  </si>
+  <si>
+    <t>85,</t>
+  </si>
+  <si>
+    <t>86,</t>
+  </si>
+  <si>
+    <t>87,</t>
+  </si>
+  <si>
+    <t>88,</t>
+  </si>
+  <si>
+    <t>89,</t>
+  </si>
+  <si>
+    <t>90,</t>
+  </si>
+  <si>
+    <t>91,</t>
+  </si>
+  <si>
+    <t>92,</t>
+  </si>
+  <si>
+    <t>93,</t>
+  </si>
+  <si>
+    <t>94,</t>
+  </si>
+  <si>
+    <t>95,</t>
+  </si>
+  <si>
+    <t>96,</t>
+  </si>
+  <si>
+    <t>97,</t>
+  </si>
+  <si>
+    <t>98,</t>
+  </si>
+  <si>
+    <t>99,</t>
+  </si>
+  <si>
+    <t>100,</t>
+  </si>
+  <si>
+    <t>101,</t>
+  </si>
+  <si>
+    <t>102,</t>
+  </si>
+  <si>
+    <t>103,</t>
+  </si>
+  <si>
+    <t>104,</t>
+  </si>
+  <si>
+    <t>105,</t>
+  </si>
+  <si>
+    <t>106,</t>
+  </si>
+  <si>
+    <t>107,</t>
+  </si>
+  <si>
+    <t>108,</t>
+  </si>
+  <si>
+    <t>109,</t>
+  </si>
+  <si>
+    <t>110,</t>
+  </si>
+  <si>
+    <t>111,</t>
+  </si>
+  <si>
+    <t>112,</t>
+  </si>
+  <si>
+    <t>113,</t>
+  </si>
+  <si>
+    <t>114,</t>
+  </si>
+  <si>
+    <t>115,</t>
+  </si>
+  <si>
+    <t>116,</t>
+  </si>
+  <si>
+    <t>117,</t>
+  </si>
+  <si>
+    <t>118,</t>
+  </si>
+  <si>
+    <t>119,</t>
+  </si>
+  <si>
+    <t>120,</t>
+  </si>
+  <si>
+    <t>121,</t>
+  </si>
+  <si>
+    <t>122,</t>
+  </si>
+  <si>
+    <t>123,</t>
+  </si>
+  <si>
+    <t>124,</t>
+  </si>
+  <si>
+    <t>125,</t>
+  </si>
+  <si>
+    <t>126,</t>
+  </si>
+  <si>
+    <t>127,</t>
+  </si>
+  <si>
+    <t>128,</t>
+  </si>
+  <si>
+    <t>129,</t>
+  </si>
+  <si>
+    <t>130,</t>
+  </si>
+  <si>
+    <t>131,</t>
+  </si>
+  <si>
+    <t>132,</t>
+  </si>
+  <si>
+    <t>133,</t>
+  </si>
+  <si>
+    <t>134,</t>
+  </si>
+  <si>
+    <t>135,</t>
+  </si>
+  <si>
+    <t>136,</t>
+  </si>
+  <si>
+    <t>137,</t>
+  </si>
+  <si>
+    <t>138,</t>
+  </si>
+  <si>
+    <t>139,</t>
+  </si>
+  <si>
+    <t>140,</t>
+  </si>
+  <si>
+    <t>141,</t>
+  </si>
+  <si>
+    <t>142,</t>
+  </si>
+  <si>
+    <t>143,</t>
+  </si>
+  <si>
+    <t>144,</t>
+  </si>
+  <si>
+    <t>145,</t>
+  </si>
+  <si>
+    <t>146,</t>
+  </si>
+  <si>
+    <t>147,</t>
+  </si>
+  <si>
+    <t>148,</t>
+  </si>
+  <si>
+    <t>149,</t>
+  </si>
+  <si>
+    <t>150,</t>
+  </si>
+  <si>
+    <t>151,</t>
+  </si>
+  <si>
+    <t>152,</t>
+  </si>
+  <si>
+    <t>153,</t>
+  </si>
+  <si>
+    <t>154,</t>
+  </si>
+  <si>
+    <t>155,</t>
+  </si>
+  <si>
+    <t>156,</t>
+  </si>
+  <si>
+    <t>157,</t>
+  </si>
+  <si>
+    <t>158,</t>
+  </si>
+  <si>
+    <t>159,</t>
+  </si>
+  <si>
+    <t>160,</t>
+  </si>
+  <si>
+    <t>161,</t>
+  </si>
+  <si>
+    <t>162,</t>
+  </si>
+  <si>
+    <t>163,</t>
+  </si>
+  <si>
+    <t>164,</t>
+  </si>
+  <si>
+    <t>165,</t>
+  </si>
+  <si>
+    <t>166,</t>
+  </si>
+  <si>
+    <t>167,</t>
+  </si>
+  <si>
+    <t>168,</t>
+  </si>
+  <si>
+    <t>169,</t>
+  </si>
+  <si>
+    <t>170,</t>
+  </si>
+  <si>
+    <t>171,</t>
+  </si>
+  <si>
+    <t>172,</t>
+  </si>
+  <si>
+    <t>173,</t>
+  </si>
+  <si>
+    <t>174,</t>
+  </si>
+  <si>
+    <t>175,</t>
+  </si>
+  <si>
+    <t>176,</t>
+  </si>
+  <si>
+    <t>177,</t>
+  </si>
+  <si>
+    <t>178,</t>
+  </si>
+  <si>
+    <t>179,</t>
+  </si>
+  <si>
+    <t>180,</t>
+  </si>
+  <si>
+    <t>181,</t>
+  </si>
+  <si>
+    <t>182,</t>
+  </si>
+  <si>
+    <t>183,</t>
+  </si>
+  <si>
+    <t>184,</t>
+  </si>
+  <si>
+    <t>185,</t>
+  </si>
+  <si>
+    <t>186,</t>
+  </si>
+  <si>
+    <t>187,</t>
+  </si>
+  <si>
+    <t>188,</t>
+  </si>
+  <si>
+    <t>189,</t>
+  </si>
+  <si>
+    <t>190,</t>
+  </si>
+  <si>
+    <t>191,</t>
+  </si>
+  <si>
+    <t>192,</t>
+  </si>
+  <si>
+    <t>193,</t>
+  </si>
+  <si>
+    <t>194,</t>
+  </si>
+  <si>
+    <t>195,</t>
+  </si>
+  <si>
+    <t>196,</t>
+  </si>
+  <si>
+    <t>197,</t>
+  </si>
+  <si>
+    <t>198,</t>
+  </si>
+  <si>
+    <t>199,</t>
+  </si>
+  <si>
+    <t>200,</t>
+  </si>
+  <si>
+    <t>201,</t>
+  </si>
+  <si>
+    <t>202,</t>
+  </si>
+  <si>
+    <t>203,</t>
+  </si>
+  <si>
+    <t>204,</t>
   </si>
 </sst>
 </file>
@@ -2287,7 +2958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
     </sheetView>
@@ -8420,9 +9091,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I267"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G273" sqref="G273"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8478,8 +9149,8 @@
       <c r="F2" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="2">
-        <v>1</v>
+      <c r="G2" s="2" t="s">
+        <v>361</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>116</v>
@@ -8501,8 +9172,8 @@
       <c r="F3" s="4">
         <v>5000000000</v>
       </c>
-      <c r="G3" s="2">
-        <v>2</v>
+      <c r="G3" s="2" t="s">
+        <v>362</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>116</v>
@@ -8524,8 +9195,8 @@
       <c r="F4" s="4">
         <v>1500000000</v>
       </c>
-      <c r="G4" s="2">
-        <v>3</v>
+      <c r="G4" s="2" t="s">
+        <v>363</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>116</v>
@@ -8547,8 +9218,8 @@
       <c r="F5" s="4">
         <v>500000000</v>
       </c>
-      <c r="G5" s="2">
-        <v>4</v>
+      <c r="G5" s="2" t="s">
+        <v>364</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>116</v>
@@ -8570,8 +9241,8 @@
       <c r="F6" s="4">
         <v>100000000</v>
       </c>
-      <c r="G6" s="2">
-        <v>5</v>
+      <c r="G6" s="2" t="s">
+        <v>365</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>116</v>
@@ -8590,8 +9261,8 @@
       <c r="F7" s="4">
         <v>30000000</v>
       </c>
-      <c r="G7" s="4">
-        <v>6</v>
+      <c r="G7" s="4" t="s">
+        <v>366</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>116</v>
@@ -8610,8 +9281,8 @@
       <c r="F8" s="4">
         <v>5000000</v>
       </c>
-      <c r="G8" s="4">
-        <v>7</v>
+      <c r="G8" s="4" t="s">
+        <v>367</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>116</v>
@@ -8630,8 +9301,8 @@
       <c r="F9" s="4">
         <v>2000000</v>
       </c>
-      <c r="G9" s="4">
-        <v>8</v>
+      <c r="G9" s="4" t="s">
+        <v>368</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>116</v>
@@ -8652,8 +9323,8 @@
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="8">
-        <v>9</v>
+      <c r="G10" s="8" t="s">
+        <v>369</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>121</v>
@@ -8673,8 +9344,8 @@
       <c r="D11" s="2">
         <v>2</v>
       </c>
-      <c r="G11" s="4">
-        <v>10</v>
+      <c r="G11" s="4" t="s">
+        <v>370</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>121</v>
@@ -8693,8 +9364,8 @@
       <c r="D12" s="2">
         <v>3</v>
       </c>
-      <c r="G12" s="4">
-        <v>11</v>
+      <c r="G12" s="4" t="s">
+        <v>371</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>121</v>
@@ -8713,8 +9384,8 @@
       <c r="D13" s="2">
         <v>6</v>
       </c>
-      <c r="G13" s="4">
-        <v>12</v>
+      <c r="G13" s="4" t="s">
+        <v>372</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>121</v>
@@ -8733,8 +9404,8 @@
       <c r="D14" s="2">
         <v>10</v>
       </c>
-      <c r="G14" s="4">
-        <v>13</v>
+      <c r="G14" s="4" t="s">
+        <v>373</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>121</v>
@@ -8755,8 +9426,8 @@
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="7">
-        <v>14</v>
+      <c r="G15" s="7" t="s">
+        <v>374</v>
       </c>
       <c r="H15" s="8" t="s">
         <v>122</v>
@@ -8778,8 +9449,8 @@
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="5">
-        <v>15</v>
+      <c r="G16" s="5" t="s">
+        <v>375</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>122</v>
@@ -8801,8 +9472,8 @@
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="5">
-        <v>16</v>
+      <c r="G17" s="5" t="s">
+        <v>376</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>122</v>
@@ -8824,8 +9495,8 @@
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="5">
-        <v>17</v>
+      <c r="G18" s="5" t="s">
+        <v>377</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>122</v>
@@ -8847,8 +9518,8 @@
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="5">
-        <v>18</v>
+      <c r="G19" s="5" t="s">
+        <v>378</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>122</v>
@@ -8870,8 +9541,8 @@
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="5">
-        <v>19</v>
+      <c r="G20" s="5" t="s">
+        <v>379</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>122</v>
@@ -8893,8 +9564,8 @@
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="5">
-        <v>20</v>
+      <c r="G21" s="5" t="s">
+        <v>380</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>122</v>
@@ -8916,8 +9587,8 @@
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="5">
-        <v>21</v>
+      <c r="G22" s="5" t="s">
+        <v>381</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>122</v>
@@ -8939,8 +9610,8 @@
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
-      <c r="G23" s="5">
-        <v>22</v>
+      <c r="G23" s="5" t="s">
+        <v>382</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>122</v>
@@ -8962,8 +9633,8 @@
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="5">
-        <v>23</v>
+      <c r="G24" s="5" t="s">
+        <v>383</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>122</v>
@@ -8985,8 +9656,8 @@
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="5">
-        <v>24</v>
+      <c r="G25" s="5" t="s">
+        <v>384</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>122</v>
@@ -9008,8 +9679,8 @@
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="5">
-        <v>25</v>
+      <c r="G26" s="5" t="s">
+        <v>385</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>122</v>
@@ -9031,8 +9702,8 @@
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
-      <c r="G27" s="7">
-        <v>26</v>
+      <c r="G27" s="7" t="s">
+        <v>386</v>
       </c>
       <c r="H27" s="8" t="s">
         <v>122</v>
@@ -9054,8 +9725,8 @@
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="5">
-        <v>27</v>
+      <c r="G28" s="5" t="s">
+        <v>387</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>122</v>
@@ -9076,8 +9747,8 @@
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="5">
-        <v>28</v>
+      <c r="G29" s="5" t="s">
+        <v>388</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>122</v>
@@ -9098,8 +9769,8 @@
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="5">
-        <v>29</v>
+      <c r="G30" s="5" t="s">
+        <v>389</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>122</v>
@@ -9120,8 +9791,8 @@
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="5">
-        <v>30</v>
+      <c r="G31" s="5" t="s">
+        <v>390</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>122</v>
@@ -9142,8 +9813,8 @@
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="5">
-        <v>31</v>
+      <c r="G32" s="5" t="s">
+        <v>391</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>122</v>
@@ -9164,8 +9835,8 @@
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="5">
-        <v>32</v>
+      <c r="G33" s="5" t="s">
+        <v>392</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>122</v>
@@ -9186,8 +9857,8 @@
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
-      <c r="G34" s="5">
-        <v>33</v>
+      <c r="G34" s="5" t="s">
+        <v>393</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>122</v>
@@ -9208,8 +9879,8 @@
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
-      <c r="G35" s="5">
-        <v>34</v>
+      <c r="G35" s="5" t="s">
+        <v>394</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>122</v>
@@ -9230,8 +9901,8 @@
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
-      <c r="G36" s="5">
-        <v>35</v>
+      <c r="G36" s="5" t="s">
+        <v>395</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>122</v>
@@ -9252,8 +9923,8 @@
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
-      <c r="G37" s="5">
-        <v>36</v>
+      <c r="G37" s="5" t="s">
+        <v>396</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>122</v>
@@ -9274,8 +9945,8 @@
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
-      <c r="G38" s="5">
-        <v>37</v>
+      <c r="G38" s="5" t="s">
+        <v>397</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>122</v>
@@ -9296,8 +9967,8 @@
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
-      <c r="G39" s="7">
-        <v>38</v>
+      <c r="G39" s="7" t="s">
+        <v>398</v>
       </c>
       <c r="H39" s="8" t="s">
         <v>122</v>
@@ -9319,8 +9990,8 @@
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
-      <c r="G40" s="5">
-        <v>39</v>
+      <c r="G40" s="5" t="s">
+        <v>399</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>122</v>
@@ -9341,8 +10012,8 @@
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
-      <c r="G41" s="5">
-        <v>40</v>
+      <c r="G41" s="5" t="s">
+        <v>400</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>122</v>
@@ -9363,8 +10034,8 @@
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
-      <c r="G42" s="5">
-        <v>41</v>
+      <c r="G42" s="5" t="s">
+        <v>401</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>122</v>
@@ -9385,8 +10056,8 @@
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
-      <c r="G43" s="5">
-        <v>42</v>
+      <c r="G43" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>122</v>
@@ -9407,8 +10078,8 @@
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
-      <c r="G44" s="5">
-        <v>43</v>
+      <c r="G44" s="5" t="s">
+        <v>403</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>122</v>
@@ -9429,8 +10100,8 @@
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
-      <c r="G45" s="5">
-        <v>44</v>
+      <c r="G45" s="5" t="s">
+        <v>404</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>122</v>
@@ -9451,8 +10122,8 @@
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
-      <c r="G46" s="5">
-        <v>45</v>
+      <c r="G46" s="5" t="s">
+        <v>405</v>
       </c>
       <c r="H46" s="6" t="s">
         <v>122</v>
@@ -9473,8 +10144,8 @@
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
-      <c r="G47" s="5">
-        <v>46</v>
+      <c r="G47" s="5" t="s">
+        <v>406</v>
       </c>
       <c r="H47" s="6" t="s">
         <v>122</v>
@@ -9495,8 +10166,8 @@
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
-      <c r="G48" s="5">
-        <v>47</v>
+      <c r="G48" s="5" t="s">
+        <v>407</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>122</v>
@@ -9517,8 +10188,8 @@
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
-      <c r="G49" s="5">
-        <v>48</v>
+      <c r="G49" s="5" t="s">
+        <v>408</v>
       </c>
       <c r="H49" s="6" t="s">
         <v>122</v>
@@ -9539,8 +10210,8 @@
       </c>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
-      <c r="G50" s="7">
-        <v>49</v>
+      <c r="G50" s="7" t="s">
+        <v>409</v>
       </c>
       <c r="H50" s="8" t="s">
         <v>122</v>
@@ -9562,8 +10233,8 @@
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
-      <c r="G51" s="5">
-        <v>50</v>
+      <c r="G51" s="5" t="s">
+        <v>410</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>122</v>
@@ -9584,8 +10255,8 @@
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
-      <c r="G52" s="5">
-        <v>51</v>
+      <c r="G52" s="5" t="s">
+        <v>411</v>
       </c>
       <c r="H52" s="6" t="s">
         <v>122</v>
@@ -9606,8 +10277,8 @@
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
-      <c r="G53" s="5">
-        <v>52</v>
+      <c r="G53" s="5" t="s">
+        <v>412</v>
       </c>
       <c r="H53" s="6" t="s">
         <v>122</v>
@@ -9628,8 +10299,8 @@
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
-      <c r="G54" s="5">
-        <v>53</v>
+      <c r="G54" s="5" t="s">
+        <v>413</v>
       </c>
       <c r="H54" s="6" t="s">
         <v>122</v>
@@ -9650,8 +10321,8 @@
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
-      <c r="G55" s="5">
-        <v>54</v>
+      <c r="G55" s="5" t="s">
+        <v>414</v>
       </c>
       <c r="H55" s="6" t="s">
         <v>122</v>
@@ -9672,8 +10343,8 @@
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
-      <c r="G56" s="5">
-        <v>55</v>
+      <c r="G56" s="5" t="s">
+        <v>415</v>
       </c>
       <c r="H56" s="6" t="s">
         <v>122</v>
@@ -9694,8 +10365,8 @@
       </c>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
-      <c r="G57" s="7">
-        <v>56</v>
+      <c r="G57" s="7" t="s">
+        <v>416</v>
       </c>
       <c r="H57" s="8" t="s">
         <v>122</v>
@@ -9716,8 +10387,8 @@
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
-      <c r="G58" s="5">
-        <v>57</v>
+      <c r="G58" s="5" t="s">
+        <v>417</v>
       </c>
       <c r="H58" s="6" t="s">
         <v>122</v>
@@ -9738,8 +10409,8 @@
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
-      <c r="G59" s="5">
-        <v>58</v>
+      <c r="G59" s="5" t="s">
+        <v>418</v>
       </c>
       <c r="H59" s="6" t="s">
         <v>122</v>
@@ -9760,8 +10431,8 @@
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
-      <c r="G60" s="5">
-        <v>59</v>
+      <c r="G60" s="5" t="s">
+        <v>419</v>
       </c>
       <c r="H60" s="6" t="s">
         <v>122</v>
@@ -9782,8 +10453,8 @@
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
-      <c r="G61" s="5">
-        <v>60</v>
+      <c r="G61" s="5" t="s">
+        <v>420</v>
       </c>
       <c r="H61" s="6" t="s">
         <v>122</v>
@@ -9804,8 +10475,8 @@
       </c>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
-      <c r="G62" s="5">
-        <v>61</v>
+      <c r="G62" s="5" t="s">
+        <v>421</v>
       </c>
       <c r="H62" s="6" t="s">
         <v>122</v>
@@ -9826,8 +10497,8 @@
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
-      <c r="G63" s="5">
-        <v>62</v>
+      <c r="G63" s="5" t="s">
+        <v>422</v>
       </c>
       <c r="H63" s="6" t="s">
         <v>122</v>
@@ -9848,8 +10519,8 @@
       </c>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
-      <c r="G64" s="7">
-        <v>63</v>
+      <c r="G64" s="7" t="s">
+        <v>423</v>
       </c>
       <c r="H64" s="8" t="s">
         <v>122</v>
@@ -9870,8 +10541,8 @@
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
-      <c r="G65" s="5">
-        <v>64</v>
+      <c r="G65" s="5" t="s">
+        <v>424</v>
       </c>
       <c r="H65" s="6" t="s">
         <v>122</v>
@@ -9892,8 +10563,8 @@
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
-      <c r="G66" s="5">
-        <v>65</v>
+      <c r="G66" s="5" t="s">
+        <v>425</v>
       </c>
       <c r="H66" s="6" t="s">
         <v>122</v>
@@ -9914,8 +10585,8 @@
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
-      <c r="G67" s="5">
-        <v>66</v>
+      <c r="G67" s="5" t="s">
+        <v>426</v>
       </c>
       <c r="H67" s="6" t="s">
         <v>122</v>
@@ -9936,8 +10607,8 @@
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="5">
-        <v>67</v>
+      <c r="G68" s="5" t="s">
+        <v>427</v>
       </c>
       <c r="H68" s="6" t="s">
         <v>122</v>
@@ -9958,8 +10629,8 @@
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="5">
-        <v>68</v>
+      <c r="G69" s="5" t="s">
+        <v>428</v>
       </c>
       <c r="H69" s="6" t="s">
         <v>122</v>
@@ -9980,8 +10651,8 @@
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
-      <c r="G70" s="5">
-        <v>69</v>
+      <c r="G70" s="5" t="s">
+        <v>429</v>
       </c>
       <c r="H70" s="6" t="s">
         <v>122</v>
@@ -10002,8 +10673,8 @@
       </c>
       <c r="E71" s="11"/>
       <c r="F71" s="11"/>
-      <c r="G71" s="11">
-        <v>70</v>
+      <c r="G71" s="11" t="s">
+        <v>430</v>
       </c>
       <c r="H71" s="12" t="s">
         <v>136</v>
@@ -10025,8 +10696,8 @@
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
-      <c r="G72" s="5">
-        <v>71</v>
+      <c r="G72" s="5" t="s">
+        <v>431</v>
       </c>
       <c r="H72" s="6" t="s">
         <v>122</v>
@@ -10048,8 +10719,8 @@
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
-      <c r="G73" s="5">
-        <v>72</v>
+      <c r="G73" s="5" t="s">
+        <v>432</v>
       </c>
       <c r="H73" s="6" t="s">
         <v>122</v>
@@ -10071,8 +10742,8 @@
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
-      <c r="G74" s="5">
-        <v>73</v>
+      <c r="G74" s="5" t="s">
+        <v>433</v>
       </c>
       <c r="H74" s="6" t="s">
         <v>122</v>
@@ -10094,8 +10765,8 @@
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
-      <c r="G75" s="5">
-        <v>74</v>
+      <c r="G75" s="5" t="s">
+        <v>434</v>
       </c>
       <c r="H75" s="6" t="s">
         <v>122</v>
@@ -10117,8 +10788,8 @@
       </c>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
-      <c r="G76" s="5">
-        <v>75</v>
+      <c r="G76" s="5" t="s">
+        <v>435</v>
       </c>
       <c r="H76" s="6" t="s">
         <v>122</v>
@@ -10140,8 +10811,8 @@
       </c>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
-      <c r="G77" s="5">
-        <v>76</v>
+      <c r="G77" s="5" t="s">
+        <v>436</v>
       </c>
       <c r="H77" s="6" t="s">
         <v>122</v>
@@ -10163,8 +10834,8 @@
       </c>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
-      <c r="G78" s="5">
-        <v>77</v>
+      <c r="G78" s="5" t="s">
+        <v>437</v>
       </c>
       <c r="H78" s="6" t="s">
         <v>122</v>
@@ -10186,8 +10857,8 @@
       </c>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
-      <c r="G79" s="5">
-        <v>78</v>
+      <c r="G79" s="5" t="s">
+        <v>438</v>
       </c>
       <c r="H79" s="6" t="s">
         <v>122</v>
@@ -10209,8 +10880,8 @@
       </c>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
-      <c r="G80" s="5">
-        <v>79</v>
+      <c r="G80" s="5" t="s">
+        <v>439</v>
       </c>
       <c r="H80" s="6" t="s">
         <v>122</v>
@@ -10232,8 +10903,8 @@
       </c>
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
-      <c r="G81" s="5">
-        <v>80</v>
+      <c r="G81" s="5" t="s">
+        <v>440</v>
       </c>
       <c r="H81" s="6" t="s">
         <v>122</v>
@@ -10255,8 +10926,8 @@
       </c>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
-      <c r="G82" s="5">
-        <v>81</v>
+      <c r="G82" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="H82" s="6" t="s">
         <v>122</v>
@@ -10278,8 +10949,8 @@
       </c>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
-      <c r="G83" s="5">
-        <v>82</v>
+      <c r="G83" s="5" t="s">
+        <v>442</v>
       </c>
       <c r="H83" s="6" t="s">
         <v>122</v>
@@ -10301,8 +10972,8 @@
       </c>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
-      <c r="G84" s="5">
-        <v>83</v>
+      <c r="G84" s="5" t="s">
+        <v>443</v>
       </c>
       <c r="H84" s="6" t="s">
         <v>122</v>
@@ -10324,8 +10995,8 @@
       </c>
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
-      <c r="G85" s="5">
-        <v>84</v>
+      <c r="G85" s="5" t="s">
+        <v>444</v>
       </c>
       <c r="H85" s="6" t="s">
         <v>122</v>
@@ -10347,8 +11018,8 @@
       </c>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
-      <c r="G86" s="5">
-        <v>85</v>
+      <c r="G86" s="5" t="s">
+        <v>445</v>
       </c>
       <c r="H86" s="6" t="s">
         <v>122</v>
@@ -10370,8 +11041,8 @@
       </c>
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
-      <c r="G87" s="5">
-        <v>86</v>
+      <c r="G87" s="5" t="s">
+        <v>446</v>
       </c>
       <c r="H87" s="6" t="s">
         <v>122</v>
@@ -10393,8 +11064,8 @@
       </c>
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
-      <c r="G88" s="5">
-        <v>87</v>
+      <c r="G88" s="5" t="s">
+        <v>447</v>
       </c>
       <c r="H88" s="6" t="s">
         <v>122</v>
@@ -10416,8 +11087,8 @@
       </c>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
-      <c r="G89" s="5">
-        <v>88</v>
+      <c r="G89" s="5" t="s">
+        <v>448</v>
       </c>
       <c r="H89" s="6" t="s">
         <v>122</v>
@@ -10439,8 +11110,8 @@
       </c>
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
-      <c r="G90" s="5">
-        <v>89</v>
+      <c r="G90" s="5" t="s">
+        <v>449</v>
       </c>
       <c r="H90" s="6" t="s">
         <v>122</v>
@@ -10462,8 +11133,8 @@
       </c>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
-      <c r="G91" s="5">
-        <v>90</v>
+      <c r="G91" s="5" t="s">
+        <v>450</v>
       </c>
       <c r="H91" s="6" t="s">
         <v>122</v>
@@ -10485,8 +11156,8 @@
       </c>
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
-      <c r="G92" s="5">
-        <v>91</v>
+      <c r="G92" s="5" t="s">
+        <v>451</v>
       </c>
       <c r="H92" s="6" t="s">
         <v>122</v>
@@ -10508,8 +11179,8 @@
       </c>
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
-      <c r="G93" s="5">
-        <v>92</v>
+      <c r="G93" s="5" t="s">
+        <v>452</v>
       </c>
       <c r="H93" s="6" t="s">
         <v>122</v>
@@ -10531,8 +11202,8 @@
       </c>
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
-      <c r="G94" s="5">
-        <v>93</v>
+      <c r="G94" s="5" t="s">
+        <v>453</v>
       </c>
       <c r="H94" s="6" t="s">
         <v>122</v>
@@ -10554,8 +11225,8 @@
       </c>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
-      <c r="G95" s="5">
-        <v>94</v>
+      <c r="G95" s="5" t="s">
+        <v>454</v>
       </c>
       <c r="H95" s="6" t="s">
         <v>122</v>
@@ -10577,8 +11248,8 @@
       </c>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
-      <c r="G96" s="5">
-        <v>95</v>
+      <c r="G96" s="5" t="s">
+        <v>455</v>
       </c>
       <c r="H96" s="6" t="s">
         <v>122</v>
@@ -10600,8 +11271,8 @@
       </c>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
-      <c r="G97" s="5">
-        <v>96</v>
+      <c r="G97" s="5" t="s">
+        <v>456</v>
       </c>
       <c r="H97" s="6" t="s">
         <v>122</v>
@@ -10623,8 +11294,8 @@
       </c>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
-      <c r="G98" s="5">
-        <v>97</v>
+      <c r="G98" s="5" t="s">
+        <v>457</v>
       </c>
       <c r="H98" s="6" t="s">
         <v>122</v>
@@ -10646,8 +11317,8 @@
       </c>
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
-      <c r="G99" s="5">
-        <v>98</v>
+      <c r="G99" s="5" t="s">
+        <v>458</v>
       </c>
       <c r="H99" s="6" t="s">
         <v>122</v>
@@ -10669,8 +11340,8 @@
       </c>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
-      <c r="G100" s="5">
-        <v>99</v>
+      <c r="G100" s="5" t="s">
+        <v>459</v>
       </c>
       <c r="H100" s="6" t="s">
         <v>122</v>
@@ -10692,8 +11363,8 @@
       </c>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
-      <c r="G101" s="5">
-        <v>100</v>
+      <c r="G101" s="5" t="s">
+        <v>460</v>
       </c>
       <c r="H101" s="6" t="s">
         <v>122</v>
@@ -10715,8 +11386,8 @@
       </c>
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
-      <c r="G102" s="5">
-        <v>101</v>
+      <c r="G102" s="5" t="s">
+        <v>461</v>
       </c>
       <c r="H102" s="6" t="s">
         <v>122</v>
@@ -10738,8 +11409,8 @@
       </c>
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
-      <c r="G103" s="5">
-        <v>97</v>
+      <c r="G103" s="5" t="s">
+        <v>457</v>
       </c>
       <c r="H103" s="6" t="s">
         <v>122</v>
@@ -10761,8 +11432,8 @@
       </c>
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
-      <c r="G104" s="5">
-        <v>98</v>
+      <c r="G104" s="5" t="s">
+        <v>458</v>
       </c>
       <c r="H104" s="6" t="s">
         <v>122</v>
@@ -10784,8 +11455,8 @@
       </c>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
-      <c r="G105" s="5">
-        <v>99</v>
+      <c r="G105" s="5" t="s">
+        <v>459</v>
       </c>
       <c r="H105" s="6" t="s">
         <v>122</v>
@@ -10807,8 +11478,8 @@
       </c>
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
-      <c r="G106" s="5">
-        <v>100</v>
+      <c r="G106" s="5" t="s">
+        <v>460</v>
       </c>
       <c r="H106" s="6" t="s">
         <v>122</v>
@@ -10830,8 +11501,8 @@
       </c>
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
-      <c r="G107" s="5">
-        <v>101</v>
+      <c r="G107" s="5" t="s">
+        <v>461</v>
       </c>
       <c r="H107" s="6" t="s">
         <v>122</v>
@@ -10853,8 +11524,8 @@
       </c>
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
-      <c r="G108" s="5">
-        <v>97</v>
+      <c r="G108" s="5" t="s">
+        <v>457</v>
       </c>
       <c r="H108" s="6" t="s">
         <v>122</v>
@@ -10876,8 +11547,8 @@
       </c>
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
-      <c r="G109" s="5">
-        <v>98</v>
+      <c r="G109" s="5" t="s">
+        <v>458</v>
       </c>
       <c r="H109" s="6" t="s">
         <v>122</v>
@@ -10899,8 +11570,8 @@
       </c>
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
-      <c r="G110" s="5">
-        <v>99</v>
+      <c r="G110" s="5" t="s">
+        <v>459</v>
       </c>
       <c r="H110" s="6" t="s">
         <v>122</v>
@@ -10922,8 +11593,8 @@
       </c>
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
-      <c r="G111" s="5">
-        <v>100</v>
+      <c r="G111" s="5" t="s">
+        <v>460</v>
       </c>
       <c r="H111" s="6" t="s">
         <v>122</v>
@@ -10945,8 +11616,8 @@
       </c>
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
-      <c r="G112" s="5">
-        <v>101</v>
+      <c r="G112" s="5" t="s">
+        <v>461</v>
       </c>
       <c r="H112" s="6" t="s">
         <v>122</v>
@@ -10968,8 +11639,8 @@
       </c>
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
-      <c r="G113" s="5">
-        <v>97</v>
+      <c r="G113" s="5" t="s">
+        <v>457</v>
       </c>
       <c r="H113" s="6" t="s">
         <v>122</v>
@@ -10991,8 +11662,8 @@
       </c>
       <c r="E114" s="5"/>
       <c r="F114" s="5"/>
-      <c r="G114" s="5">
-        <v>98</v>
+      <c r="G114" s="5" t="s">
+        <v>458</v>
       </c>
       <c r="H114" s="6" t="s">
         <v>122</v>
@@ -11014,8 +11685,8 @@
       </c>
       <c r="E115" s="5"/>
       <c r="F115" s="5"/>
-      <c r="G115" s="5">
-        <v>99</v>
+      <c r="G115" s="5" t="s">
+        <v>459</v>
       </c>
       <c r="H115" s="6" t="s">
         <v>122</v>
@@ -11037,8 +11708,8 @@
       </c>
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
-      <c r="G116" s="5">
-        <v>100</v>
+      <c r="G116" s="5" t="s">
+        <v>460</v>
       </c>
       <c r="H116" s="6" t="s">
         <v>122</v>
@@ -11060,8 +11731,8 @@
       </c>
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
-      <c r="G117" s="5">
-        <v>101</v>
+      <c r="G117" s="5" t="s">
+        <v>461</v>
       </c>
       <c r="H117" s="6" t="s">
         <v>122</v>
@@ -11083,8 +11754,8 @@
       </c>
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
-      <c r="G118" s="5">
-        <v>102</v>
+      <c r="G118" s="5" t="s">
+        <v>462</v>
       </c>
       <c r="H118" s="6" t="s">
         <v>122</v>
@@ -11106,8 +11777,8 @@
       </c>
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
-      <c r="G119" s="5">
-        <v>103</v>
+      <c r="G119" s="5" t="s">
+        <v>463</v>
       </c>
       <c r="H119" s="6" t="s">
         <v>122</v>
@@ -11129,8 +11800,8 @@
       </c>
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
-      <c r="G120" s="5">
-        <v>104</v>
+      <c r="G120" s="5" t="s">
+        <v>464</v>
       </c>
       <c r="H120" s="6" t="s">
         <v>122</v>
@@ -11152,8 +11823,8 @@
       </c>
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
-      <c r="G121" s="5">
-        <v>105</v>
+      <c r="G121" s="5" t="s">
+        <v>465</v>
       </c>
       <c r="H121" s="6" t="s">
         <v>122</v>
@@ -11175,8 +11846,8 @@
       </c>
       <c r="E122" s="5"/>
       <c r="F122" s="5"/>
-      <c r="G122" s="5">
-        <v>106</v>
+      <c r="G122" s="5" t="s">
+        <v>466</v>
       </c>
       <c r="H122" s="6" t="s">
         <v>122</v>
@@ -11198,8 +11869,8 @@
       </c>
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
-      <c r="G123" s="5">
-        <v>107</v>
+      <c r="G123" s="5" t="s">
+        <v>467</v>
       </c>
       <c r="H123" s="6" t="s">
         <v>122</v>
@@ -11221,8 +11892,8 @@
       </c>
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
-      <c r="G124" s="5">
-        <v>108</v>
+      <c r="G124" s="5" t="s">
+        <v>468</v>
       </c>
       <c r="H124" s="6" t="s">
         <v>122</v>
@@ -11244,8 +11915,8 @@
       </c>
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
-      <c r="G125" s="5">
-        <v>109</v>
+      <c r="G125" s="5" t="s">
+        <v>469</v>
       </c>
       <c r="H125" s="20" t="s">
         <v>219</v>
@@ -11267,8 +11938,8 @@
       </c>
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
-      <c r="G126" s="5">
-        <v>110</v>
+      <c r="G126" s="5" t="s">
+        <v>470</v>
       </c>
       <c r="H126" s="20" t="s">
         <v>219</v>
@@ -11289,8 +11960,8 @@
       </c>
       <c r="E127" s="5"/>
       <c r="F127" s="5"/>
-      <c r="G127" s="5">
-        <v>111</v>
+      <c r="G127" s="5" t="s">
+        <v>471</v>
       </c>
       <c r="H127" s="20" t="s">
         <v>136</v>
@@ -11312,8 +11983,8 @@
       </c>
       <c r="E128" s="5"/>
       <c r="F128" s="5"/>
-      <c r="G128" s="5">
-        <v>112</v>
+      <c r="G128" s="5" t="s">
+        <v>472</v>
       </c>
       <c r="H128" s="20" t="s">
         <v>136</v>
@@ -11334,8 +12005,8 @@
       </c>
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
-      <c r="G129" s="5">
-        <v>113</v>
+      <c r="G129" s="5" t="s">
+        <v>473</v>
       </c>
       <c r="H129" s="20" t="s">
         <v>136</v>
@@ -11356,8 +12027,8 @@
       </c>
       <c r="E130" s="5"/>
       <c r="F130" s="5"/>
-      <c r="G130" s="5">
-        <v>114</v>
+      <c r="G130" s="5" t="s">
+        <v>474</v>
       </c>
       <c r="H130" s="6" t="s">
         <v>122</v>
@@ -11378,8 +12049,8 @@
       </c>
       <c r="E131" s="5"/>
       <c r="F131" s="5"/>
-      <c r="G131" s="5">
-        <v>115</v>
+      <c r="G131" s="5" t="s">
+        <v>475</v>
       </c>
       <c r="H131" s="6" t="s">
         <v>122</v>
@@ -11400,8 +12071,8 @@
       </c>
       <c r="E132" s="5"/>
       <c r="F132" s="5"/>
-      <c r="G132" s="5">
-        <v>116</v>
+      <c r="G132" s="5" t="s">
+        <v>476</v>
       </c>
       <c r="H132" s="6" t="s">
         <v>122</v>
@@ -11422,8 +12093,8 @@
       </c>
       <c r="E133" s="5"/>
       <c r="F133" s="5"/>
-      <c r="G133" s="5">
-        <v>117</v>
+      <c r="G133" s="5" t="s">
+        <v>477</v>
       </c>
       <c r="H133" s="6" t="s">
         <v>122</v>
@@ -11444,8 +12115,8 @@
       </c>
       <c r="E134" s="5"/>
       <c r="F134" s="5"/>
-      <c r="G134" s="5">
-        <v>118</v>
+      <c r="G134" s="5" t="s">
+        <v>478</v>
       </c>
       <c r="H134" s="6" t="s">
         <v>122</v>
@@ -11466,8 +12137,8 @@
       </c>
       <c r="E135" s="5"/>
       <c r="F135" s="5"/>
-      <c r="G135" s="5">
-        <v>119</v>
+      <c r="G135" s="5" t="s">
+        <v>479</v>
       </c>
       <c r="H135" s="6" t="s">
         <v>122</v>
@@ -11488,8 +12159,8 @@
       </c>
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
-      <c r="G136" s="5">
-        <v>120</v>
+      <c r="G136" s="5" t="s">
+        <v>480</v>
       </c>
       <c r="H136" s="6" t="s">
         <v>122</v>
@@ -11510,8 +12181,8 @@
       </c>
       <c r="E137" s="5"/>
       <c r="F137" s="5"/>
-      <c r="G137" s="5">
-        <v>121</v>
+      <c r="G137" s="5" t="s">
+        <v>481</v>
       </c>
       <c r="H137" s="6" t="s">
         <v>122</v>
@@ -11532,8 +12203,8 @@
       </c>
       <c r="E138" s="5"/>
       <c r="F138" s="5"/>
-      <c r="G138" s="5">
-        <v>122</v>
+      <c r="G138" s="5" t="s">
+        <v>482</v>
       </c>
       <c r="H138" s="6" t="s">
         <v>122</v>
@@ -11554,8 +12225,8 @@
       </c>
       <c r="E139" s="5"/>
       <c r="F139" s="5"/>
-      <c r="G139" s="5">
-        <v>123</v>
+      <c r="G139" s="5" t="s">
+        <v>483</v>
       </c>
       <c r="H139" s="6" t="s">
         <v>122</v>
@@ -11576,8 +12247,8 @@
       </c>
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
-      <c r="G140" s="5">
-        <v>124</v>
+      <c r="G140" s="5" t="s">
+        <v>484</v>
       </c>
       <c r="H140" s="6" t="s">
         <v>122</v>
@@ -11598,8 +12269,8 @@
       </c>
       <c r="E141" s="5"/>
       <c r="F141" s="5"/>
-      <c r="G141" s="5">
-        <v>125</v>
+      <c r="G141" s="5" t="s">
+        <v>485</v>
       </c>
       <c r="H141" s="6" t="s">
         <v>122</v>
@@ -11620,8 +12291,8 @@
       </c>
       <c r="E142" s="5"/>
       <c r="F142" s="5"/>
-      <c r="G142" s="5">
-        <v>126</v>
+      <c r="G142" s="5" t="s">
+        <v>486</v>
       </c>
       <c r="H142" s="6" t="s">
         <v>122</v>
@@ -11642,8 +12313,8 @@
       </c>
       <c r="E143" s="5"/>
       <c r="F143" s="5"/>
-      <c r="G143" s="5">
-        <v>127</v>
+      <c r="G143" s="5" t="s">
+        <v>487</v>
       </c>
       <c r="H143" s="6" t="s">
         <v>122</v>
@@ -11664,8 +12335,8 @@
       </c>
       <c r="E144" s="5"/>
       <c r="F144" s="5"/>
-      <c r="G144" s="5">
-        <v>128</v>
+      <c r="G144" s="5" t="s">
+        <v>488</v>
       </c>
       <c r="H144" s="6" t="s">
         <v>122</v>
@@ -11686,8 +12357,8 @@
       </c>
       <c r="E145" s="5"/>
       <c r="F145" s="5"/>
-      <c r="G145" s="5">
-        <v>129</v>
+      <c r="G145" s="5" t="s">
+        <v>489</v>
       </c>
       <c r="H145" s="6" t="s">
         <v>122</v>
@@ -11708,8 +12379,8 @@
       </c>
       <c r="E146" s="5"/>
       <c r="F146" s="5"/>
-      <c r="G146" s="5">
-        <v>130</v>
+      <c r="G146" s="5" t="s">
+        <v>490</v>
       </c>
       <c r="H146" s="6" t="s">
         <v>122</v>
@@ -11730,8 +12401,8 @@
       </c>
       <c r="E147" s="5"/>
       <c r="F147" s="5"/>
-      <c r="G147" s="5">
-        <v>131</v>
+      <c r="G147" s="5" t="s">
+        <v>491</v>
       </c>
       <c r="H147" s="6" t="s">
         <v>122</v>
@@ -11752,8 +12423,8 @@
       </c>
       <c r="E148" s="5"/>
       <c r="F148" s="5"/>
-      <c r="G148" s="5">
-        <v>132</v>
+      <c r="G148" s="5" t="s">
+        <v>492</v>
       </c>
       <c r="H148" s="6" t="s">
         <v>122</v>
@@ -11774,8 +12445,8 @@
       </c>
       <c r="E149" s="5"/>
       <c r="F149" s="5"/>
-      <c r="G149" s="5">
-        <v>133</v>
+      <c r="G149" s="5" t="s">
+        <v>493</v>
       </c>
       <c r="H149" s="6" t="s">
         <v>122</v>
@@ -11796,8 +12467,8 @@
       </c>
       <c r="E150" s="5"/>
       <c r="F150" s="5"/>
-      <c r="G150" s="5">
-        <v>134</v>
+      <c r="G150" s="5" t="s">
+        <v>494</v>
       </c>
       <c r="H150" s="6" t="s">
         <v>122</v>
@@ -11818,8 +12489,8 @@
       </c>
       <c r="E151" s="5"/>
       <c r="F151" s="5"/>
-      <c r="G151" s="5">
-        <v>135</v>
+      <c r="G151" s="5" t="s">
+        <v>495</v>
       </c>
       <c r="H151" s="6" t="s">
         <v>122</v>
@@ -11840,8 +12511,8 @@
       </c>
       <c r="E152" s="5"/>
       <c r="F152" s="5"/>
-      <c r="G152" s="5">
-        <v>136</v>
+      <c r="G152" s="5" t="s">
+        <v>496</v>
       </c>
       <c r="H152" s="6" t="s">
         <v>122</v>
@@ -11862,8 +12533,8 @@
       </c>
       <c r="E153" s="5"/>
       <c r="F153" s="5"/>
-      <c r="G153" s="5">
-        <v>137</v>
+      <c r="G153" s="5" t="s">
+        <v>497</v>
       </c>
       <c r="H153" s="6" t="s">
         <v>122</v>
@@ -11884,8 +12555,8 @@
       </c>
       <c r="E154" s="5"/>
       <c r="F154" s="5"/>
-      <c r="G154" s="5">
-        <v>138</v>
+      <c r="G154" s="5" t="s">
+        <v>498</v>
       </c>
       <c r="H154" s="6" t="s">
         <v>122</v>
@@ -11906,8 +12577,8 @@
       </c>
       <c r="E155" s="5"/>
       <c r="F155" s="5"/>
-      <c r="G155" s="5">
-        <v>139</v>
+      <c r="G155" s="5" t="s">
+        <v>499</v>
       </c>
       <c r="H155" s="6" t="s">
         <v>122</v>
@@ -11928,8 +12599,8 @@
       </c>
       <c r="E156" s="5"/>
       <c r="F156" s="5"/>
-      <c r="G156" s="5">
-        <v>140</v>
+      <c r="G156" s="5" t="s">
+        <v>500</v>
       </c>
       <c r="H156" s="6" t="s">
         <v>122</v>
@@ -11950,8 +12621,8 @@
       </c>
       <c r="E157" s="5"/>
       <c r="F157" s="5"/>
-      <c r="G157" s="5">
-        <v>141</v>
+      <c r="G157" s="5" t="s">
+        <v>501</v>
       </c>
       <c r="H157" s="6" t="s">
         <v>122</v>
@@ -11972,8 +12643,8 @@
       </c>
       <c r="E158" s="5"/>
       <c r="F158" s="5"/>
-      <c r="G158" s="5">
-        <v>142</v>
+      <c r="G158" s="5" t="s">
+        <v>502</v>
       </c>
       <c r="H158" s="6" t="s">
         <v>122</v>
@@ -11994,8 +12665,8 @@
       </c>
       <c r="E159" s="5"/>
       <c r="F159" s="5"/>
-      <c r="G159" s="5">
-        <v>143</v>
+      <c r="G159" s="5" t="s">
+        <v>503</v>
       </c>
       <c r="H159" s="6" t="s">
         <v>122</v>
@@ -12016,8 +12687,8 @@
       </c>
       <c r="E160" s="5"/>
       <c r="F160" s="5"/>
-      <c r="G160" s="5">
-        <v>144</v>
+      <c r="G160" s="5" t="s">
+        <v>504</v>
       </c>
       <c r="H160" s="6" t="s">
         <v>122</v>
@@ -12038,8 +12709,8 @@
       </c>
       <c r="E161" s="5"/>
       <c r="F161" s="5"/>
-      <c r="G161" s="5">
-        <v>145</v>
+      <c r="G161" s="5" t="s">
+        <v>505</v>
       </c>
       <c r="H161" s="6" t="s">
         <v>122</v>
@@ -12060,8 +12731,8 @@
       </c>
       <c r="E162" s="5"/>
       <c r="F162" s="5"/>
-      <c r="G162" s="5">
-        <v>146</v>
+      <c r="G162" s="5" t="s">
+        <v>506</v>
       </c>
       <c r="H162" s="6" t="s">
         <v>122</v>
@@ -12082,8 +12753,8 @@
       </c>
       <c r="E163" s="5"/>
       <c r="F163" s="5"/>
-      <c r="G163" s="5">
-        <v>147</v>
+      <c r="G163" s="5" t="s">
+        <v>507</v>
       </c>
       <c r="H163" s="6" t="s">
         <v>122</v>
@@ -12104,8 +12775,8 @@
       </c>
       <c r="E164" s="5"/>
       <c r="F164" s="5"/>
-      <c r="G164" s="5">
-        <v>148</v>
+      <c r="G164" s="5" t="s">
+        <v>508</v>
       </c>
       <c r="H164" s="6" t="s">
         <v>122</v>
@@ -12126,8 +12797,8 @@
       </c>
       <c r="E165" s="5"/>
       <c r="F165" s="5"/>
-      <c r="G165" s="5">
-        <v>149</v>
+      <c r="G165" s="5" t="s">
+        <v>509</v>
       </c>
       <c r="H165" s="6" t="s">
         <v>122</v>
@@ -12148,8 +12819,8 @@
       </c>
       <c r="E166" s="5"/>
       <c r="F166" s="5"/>
-      <c r="G166" s="5">
-        <v>150</v>
+      <c r="G166" s="5" t="s">
+        <v>510</v>
       </c>
       <c r="H166" s="6" t="s">
         <v>122</v>
@@ -12170,8 +12841,8 @@
       </c>
       <c r="E167" s="5"/>
       <c r="F167" s="5"/>
-      <c r="G167" s="5">
-        <v>151</v>
+      <c r="G167" s="5" t="s">
+        <v>511</v>
       </c>
       <c r="H167" s="6" t="s">
         <v>122</v>
@@ -12192,8 +12863,8 @@
       </c>
       <c r="E168" s="5"/>
       <c r="F168" s="5"/>
-      <c r="G168" s="5">
-        <v>152</v>
+      <c r="G168" s="5" t="s">
+        <v>512</v>
       </c>
       <c r="H168" s="6" t="s">
         <v>122</v>
@@ -12214,8 +12885,8 @@
       </c>
       <c r="E169" s="5"/>
       <c r="F169" s="5"/>
-      <c r="G169" s="5">
-        <v>153</v>
+      <c r="G169" s="5" t="s">
+        <v>513</v>
       </c>
       <c r="H169" s="6" t="s">
         <v>122</v>
@@ -12236,8 +12907,8 @@
       </c>
       <c r="E170" s="5"/>
       <c r="F170" s="5"/>
-      <c r="G170" s="5">
-        <v>154</v>
+      <c r="G170" s="5" t="s">
+        <v>514</v>
       </c>
       <c r="H170" s="6" t="s">
         <v>122</v>
@@ -12258,8 +12929,8 @@
       </c>
       <c r="E171" s="5"/>
       <c r="F171" s="5"/>
-      <c r="G171" s="5">
-        <v>155</v>
+      <c r="G171" s="5" t="s">
+        <v>515</v>
       </c>
       <c r="H171" s="6" t="s">
         <v>122</v>
@@ -12280,8 +12951,8 @@
       </c>
       <c r="E172" s="5"/>
       <c r="F172" s="5"/>
-      <c r="G172" s="5">
-        <v>156</v>
+      <c r="G172" s="5" t="s">
+        <v>516</v>
       </c>
       <c r="H172" s="6" t="s">
         <v>122</v>
@@ -12302,8 +12973,8 @@
       </c>
       <c r="E173" s="5"/>
       <c r="F173" s="5"/>
-      <c r="G173" s="5">
-        <v>157</v>
+      <c r="G173" s="5" t="s">
+        <v>517</v>
       </c>
       <c r="H173" s="6" t="s">
         <v>122</v>
@@ -12324,8 +12995,8 @@
       </c>
       <c r="E174" s="5"/>
       <c r="F174" s="5"/>
-      <c r="G174" s="5">
-        <v>158</v>
+      <c r="G174" s="5" t="s">
+        <v>518</v>
       </c>
       <c r="H174" s="6" t="s">
         <v>122</v>
@@ -12346,8 +13017,8 @@
       </c>
       <c r="E175" s="5"/>
       <c r="F175" s="5"/>
-      <c r="G175" s="5">
-        <v>159</v>
+      <c r="G175" s="5" t="s">
+        <v>519</v>
       </c>
       <c r="H175" s="6" t="s">
         <v>122</v>
@@ -12368,8 +13039,8 @@
       </c>
       <c r="E176" s="5"/>
       <c r="F176" s="5"/>
-      <c r="G176" s="5">
-        <v>160</v>
+      <c r="G176" s="5" t="s">
+        <v>520</v>
       </c>
       <c r="H176" s="6" t="s">
         <v>122</v>
@@ -12390,8 +13061,8 @@
       </c>
       <c r="E177" s="5"/>
       <c r="F177" s="5"/>
-      <c r="G177" s="5">
-        <v>161</v>
+      <c r="G177" s="5" t="s">
+        <v>521</v>
       </c>
       <c r="H177" s="6" t="s">
         <v>122</v>
@@ -12412,8 +13083,8 @@
       </c>
       <c r="E178" s="5"/>
       <c r="F178" s="5"/>
-      <c r="G178" s="5">
-        <v>162</v>
+      <c r="G178" s="5" t="s">
+        <v>522</v>
       </c>
       <c r="H178" s="6" t="s">
         <v>122</v>
@@ -12434,8 +13105,8 @@
       </c>
       <c r="E179" s="5"/>
       <c r="F179" s="5"/>
-      <c r="G179" s="5">
-        <v>163</v>
+      <c r="G179" s="5" t="s">
+        <v>523</v>
       </c>
       <c r="H179" s="6" t="s">
         <v>122</v>
@@ -12456,8 +13127,8 @@
       </c>
       <c r="E180" s="5"/>
       <c r="F180" s="5"/>
-      <c r="G180" s="5">
-        <v>164</v>
+      <c r="G180" s="5" t="s">
+        <v>524</v>
       </c>
       <c r="H180" s="6" t="s">
         <v>122</v>
@@ -12478,8 +13149,8 @@
       </c>
       <c r="E181" s="5"/>
       <c r="F181" s="5"/>
-      <c r="G181" s="5">
-        <v>165</v>
+      <c r="G181" s="5" t="s">
+        <v>525</v>
       </c>
       <c r="H181" s="6" t="s">
         <v>122</v>
@@ -12500,8 +13171,8 @@
       </c>
       <c r="E182" s="5"/>
       <c r="F182" s="5"/>
-      <c r="G182" s="5">
-        <v>166</v>
+      <c r="G182" s="5" t="s">
+        <v>526</v>
       </c>
       <c r="H182" s="6" t="s">
         <v>122</v>
@@ -12522,8 +13193,8 @@
       </c>
       <c r="E183" s="5"/>
       <c r="F183" s="5"/>
-      <c r="G183" s="5">
-        <v>167</v>
+      <c r="G183" s="5" t="s">
+        <v>527</v>
       </c>
       <c r="H183" s="6" t="s">
         <v>122</v>
@@ -12544,8 +13215,8 @@
       </c>
       <c r="E184" s="5"/>
       <c r="F184" s="5"/>
-      <c r="G184" s="5">
-        <v>168</v>
+      <c r="G184" s="5" t="s">
+        <v>528</v>
       </c>
       <c r="H184" s="6" t="s">
         <v>122</v>
@@ -12566,8 +13237,8 @@
       </c>
       <c r="E185" s="5"/>
       <c r="F185" s="5"/>
-      <c r="G185" s="5">
-        <v>169</v>
+      <c r="G185" s="5" t="s">
+        <v>529</v>
       </c>
       <c r="H185" s="6" t="s">
         <v>122</v>
@@ -12588,8 +13259,8 @@
       </c>
       <c r="E186" s="5"/>
       <c r="F186" s="5"/>
-      <c r="G186" s="5">
-        <v>170</v>
+      <c r="G186" s="5" t="s">
+        <v>530</v>
       </c>
       <c r="H186" s="6" t="s">
         <v>122</v>
@@ -12611,8 +13282,8 @@
       </c>
       <c r="E187" s="5"/>
       <c r="F187" s="5"/>
-      <c r="G187" s="5">
-        <v>171</v>
+      <c r="G187" s="5" t="s">
+        <v>531</v>
       </c>
       <c r="H187" s="6" t="s">
         <v>122</v>
@@ -12634,8 +13305,8 @@
       </c>
       <c r="E188" s="5"/>
       <c r="F188" s="5"/>
-      <c r="G188" s="5">
-        <v>172</v>
+      <c r="G188" s="5" t="s">
+        <v>532</v>
       </c>
       <c r="H188" s="6" t="s">
         <v>122</v>
@@ -12657,8 +13328,8 @@
       </c>
       <c r="E189" s="5"/>
       <c r="F189" s="5"/>
-      <c r="G189" s="5">
-        <v>173</v>
+      <c r="G189" s="5" t="s">
+        <v>533</v>
       </c>
       <c r="H189" s="6" t="s">
         <v>122</v>
@@ -12680,8 +13351,8 @@
       </c>
       <c r="E190" s="5"/>
       <c r="F190" s="5"/>
-      <c r="G190" s="5">
-        <v>174</v>
+      <c r="G190" s="5" t="s">
+        <v>534</v>
       </c>
       <c r="H190" s="6" t="s">
         <v>122</v>
@@ -12703,8 +13374,8 @@
       </c>
       <c r="E191" s="5"/>
       <c r="F191" s="5"/>
-      <c r="G191" s="5">
-        <v>175</v>
+      <c r="G191" s="5" t="s">
+        <v>535</v>
       </c>
       <c r="H191" s="6" t="s">
         <v>122</v>
@@ -12726,8 +13397,8 @@
       </c>
       <c r="E192" s="5"/>
       <c r="F192" s="5"/>
-      <c r="G192" s="5">
-        <v>176</v>
+      <c r="G192" s="5" t="s">
+        <v>536</v>
       </c>
       <c r="H192" s="6" t="s">
         <v>122</v>
@@ -12749,8 +13420,8 @@
       </c>
       <c r="E193" s="5"/>
       <c r="F193" s="5"/>
-      <c r="G193" s="5">
-        <v>177</v>
+      <c r="G193" s="5" t="s">
+        <v>537</v>
       </c>
       <c r="H193" s="6" t="s">
         <v>122</v>
@@ -12772,8 +13443,8 @@
       </c>
       <c r="E194" s="5"/>
       <c r="F194" s="5"/>
-      <c r="G194" s="5">
-        <v>178</v>
+      <c r="G194" s="5" t="s">
+        <v>538</v>
       </c>
       <c r="H194" s="6" t="s">
         <v>122</v>
@@ -12795,8 +13466,8 @@
       </c>
       <c r="E195" s="5"/>
       <c r="F195" s="5"/>
-      <c r="G195" s="5">
-        <v>179</v>
+      <c r="G195" s="5" t="s">
+        <v>539</v>
       </c>
       <c r="H195" s="6" t="s">
         <v>122</v>
@@ -12818,8 +13489,8 @@
       </c>
       <c r="E196" s="5"/>
       <c r="F196" s="5"/>
-      <c r="G196" s="5">
-        <v>180</v>
+      <c r="G196" s="5" t="s">
+        <v>540</v>
       </c>
       <c r="H196" s="6" t="s">
         <v>122</v>
@@ -12841,8 +13512,8 @@
       </c>
       <c r="E197" s="5"/>
       <c r="F197" s="5"/>
-      <c r="G197" s="5">
-        <v>181</v>
+      <c r="G197" s="5" t="s">
+        <v>541</v>
       </c>
       <c r="H197" s="6" t="s">
         <v>122</v>
@@ -12864,8 +13535,8 @@
       </c>
       <c r="E198" s="5"/>
       <c r="F198" s="5"/>
-      <c r="G198" s="5">
-        <v>182</v>
+      <c r="G198" s="5" t="s">
+        <v>542</v>
       </c>
       <c r="H198" s="6" t="s">
         <v>122</v>
@@ -12887,8 +13558,8 @@
       </c>
       <c r="E199" s="5"/>
       <c r="F199" s="5"/>
-      <c r="G199" s="5">
-        <v>183</v>
+      <c r="G199" s="5" t="s">
+        <v>543</v>
       </c>
       <c r="H199" s="6" t="s">
         <v>122</v>
@@ -12910,8 +13581,8 @@
       </c>
       <c r="E200" s="5"/>
       <c r="F200" s="5"/>
-      <c r="G200" s="5">
-        <v>184</v>
+      <c r="G200" s="5" t="s">
+        <v>544</v>
       </c>
       <c r="H200" s="6" t="s">
         <v>122</v>
@@ -12933,8 +13604,8 @@
       </c>
       <c r="E201" s="5"/>
       <c r="F201" s="5"/>
-      <c r="G201" s="5">
-        <v>185</v>
+      <c r="G201" s="5" t="s">
+        <v>545</v>
       </c>
       <c r="H201" s="6" t="s">
         <v>122</v>
@@ -12956,8 +13627,8 @@
       </c>
       <c r="E202" s="5"/>
       <c r="F202" s="5"/>
-      <c r="G202" s="5">
-        <v>186</v>
+      <c r="G202" s="5" t="s">
+        <v>546</v>
       </c>
       <c r="H202" s="6" t="s">
         <v>122</v>
@@ -12979,8 +13650,8 @@
       </c>
       <c r="E203" s="5"/>
       <c r="F203" s="5"/>
-      <c r="G203" s="5">
-        <v>187</v>
+      <c r="G203" s="5" t="s">
+        <v>547</v>
       </c>
       <c r="H203" s="6" t="s">
         <v>122</v>
@@ -13002,8 +13673,8 @@
       </c>
       <c r="E204" s="5"/>
       <c r="F204" s="5"/>
-      <c r="G204" s="5">
-        <v>188</v>
+      <c r="G204" s="5" t="s">
+        <v>548</v>
       </c>
       <c r="H204" s="6" t="s">
         <v>122</v>
@@ -13025,8 +13696,8 @@
       </c>
       <c r="E205" s="5"/>
       <c r="F205" s="5"/>
-      <c r="G205" s="5">
-        <v>189</v>
+      <c r="G205" s="5" t="s">
+        <v>549</v>
       </c>
       <c r="H205" s="6" t="s">
         <v>122</v>
@@ -13048,8 +13719,8 @@
       </c>
       <c r="E206" s="5"/>
       <c r="F206" s="5"/>
-      <c r="G206" s="5">
-        <v>190</v>
+      <c r="G206" s="5" t="s">
+        <v>550</v>
       </c>
       <c r="H206" s="6" t="s">
         <v>122</v>
@@ -13071,8 +13742,8 @@
       </c>
       <c r="E207" s="5"/>
       <c r="F207" s="5"/>
-      <c r="G207" s="5">
-        <v>191</v>
+      <c r="G207" s="5" t="s">
+        <v>551</v>
       </c>
       <c r="H207" s="6" t="s">
         <v>122</v>
@@ -13094,8 +13765,8 @@
       </c>
       <c r="E208" s="5"/>
       <c r="F208" s="5"/>
-      <c r="G208" s="5">
-        <v>192</v>
+      <c r="G208" s="5" t="s">
+        <v>552</v>
       </c>
       <c r="H208" s="6" t="s">
         <v>122</v>
@@ -13117,8 +13788,8 @@
       </c>
       <c r="E209" s="5"/>
       <c r="F209" s="5"/>
-      <c r="G209" s="5">
-        <v>193</v>
+      <c r="G209" s="5" t="s">
+        <v>553</v>
       </c>
       <c r="H209" s="6" t="s">
         <v>122</v>
@@ -13140,8 +13811,8 @@
       </c>
       <c r="E210" s="5"/>
       <c r="F210" s="5"/>
-      <c r="G210" s="5">
-        <v>194</v>
+      <c r="G210" s="5" t="s">
+        <v>554</v>
       </c>
       <c r="H210" s="6" t="s">
         <v>122</v>
@@ -13163,8 +13834,8 @@
       </c>
       <c r="E211" s="5"/>
       <c r="F211" s="5"/>
-      <c r="G211" s="5">
-        <v>195</v>
+      <c r="G211" s="5" t="s">
+        <v>555</v>
       </c>
       <c r="H211" s="6" t="s">
         <v>122</v>
@@ -13186,8 +13857,8 @@
       </c>
       <c r="E212" s="5"/>
       <c r="F212" s="5"/>
-      <c r="G212" s="5">
-        <v>196</v>
+      <c r="G212" s="5" t="s">
+        <v>556</v>
       </c>
       <c r="H212" s="6" t="s">
         <v>122</v>
@@ -13209,8 +13880,8 @@
       </c>
       <c r="E213" s="5"/>
       <c r="F213" s="5"/>
-      <c r="G213" s="5">
-        <v>197</v>
+      <c r="G213" s="5" t="s">
+        <v>557</v>
       </c>
       <c r="H213" s="6" t="s">
         <v>122</v>
@@ -13232,8 +13903,8 @@
       </c>
       <c r="E214" s="5"/>
       <c r="F214" s="5"/>
-      <c r="G214" s="5">
-        <v>198</v>
+      <c r="G214" s="5" t="s">
+        <v>558</v>
       </c>
       <c r="H214" s="6" t="s">
         <v>122</v>
@@ -13254,8 +13925,8 @@
       </c>
       <c r="E215" s="5"/>
       <c r="F215" s="5"/>
-      <c r="G215" s="5">
-        <v>199</v>
+      <c r="G215" s="5" t="s">
+        <v>559</v>
       </c>
       <c r="H215" s="6" t="s">
         <v>122</v>
@@ -13276,8 +13947,8 @@
       </c>
       <c r="E216" s="5"/>
       <c r="F216" s="5"/>
-      <c r="G216" s="5">
-        <v>200</v>
+      <c r="G216" s="5" t="s">
+        <v>560</v>
       </c>
       <c r="H216" s="6" t="s">
         <v>122</v>
@@ -13298,8 +13969,8 @@
       </c>
       <c r="E217" s="5"/>
       <c r="F217" s="5"/>
-      <c r="G217" s="5">
-        <v>201</v>
+      <c r="G217" s="5" t="s">
+        <v>561</v>
       </c>
       <c r="H217" s="6" t="s">
         <v>122</v>
@@ -13320,8 +13991,8 @@
       </c>
       <c r="E218" s="5"/>
       <c r="F218" s="5"/>
-      <c r="G218" s="5">
-        <v>202</v>
+      <c r="G218" s="5" t="s">
+        <v>562</v>
       </c>
       <c r="H218" s="6" t="s">
         <v>122</v>
@@ -13342,8 +14013,8 @@
       </c>
       <c r="E219" s="5"/>
       <c r="F219" s="5"/>
-      <c r="G219" s="5">
-        <v>203</v>
+      <c r="G219" s="5" t="s">
+        <v>563</v>
       </c>
       <c r="H219" s="6" t="s">
         <v>122</v>
@@ -13364,8 +14035,8 @@
       </c>
       <c r="E220" s="5"/>
       <c r="F220" s="5"/>
-      <c r="G220" s="5">
-        <v>204</v>
+      <c r="G220" s="5" t="s">
+        <v>564</v>
       </c>
       <c r="H220" s="6" t="s">
         <v>122</v>
@@ -14478,8 +15149,8 @@
       </c>
       <c r="E263" s="36"/>
       <c r="F263" s="36"/>
-      <c r="G263" s="36">
-        <v>289</v>
+      <c r="G263" s="36" t="s">
+        <v>356</v>
       </c>
       <c r="H263" s="37" t="s">
         <v>122</v>
@@ -14500,8 +15171,8 @@
       </c>
       <c r="E264" s="36"/>
       <c r="F264" s="36"/>
-      <c r="G264" s="36">
-        <v>290</v>
+      <c r="G264" s="36" t="s">
+        <v>357</v>
       </c>
       <c r="H264" s="37" t="s">
         <v>122</v>
@@ -14522,8 +15193,8 @@
       </c>
       <c r="E265" s="36"/>
       <c r="F265" s="36"/>
-      <c r="G265" s="36">
-        <v>291</v>
+      <c r="G265" s="34" t="s">
+        <v>358</v>
       </c>
       <c r="H265" s="37" t="s">
         <v>122</v>
@@ -14544,8 +15215,8 @@
       </c>
       <c r="E266" s="36"/>
       <c r="F266" s="36"/>
-      <c r="G266" s="36">
-        <v>292</v>
+      <c r="G266" s="34" t="s">
+        <v>359</v>
       </c>
       <c r="H266" s="37" t="s">
         <v>122</v>
@@ -14566,8 +15237,8 @@
       </c>
       <c r="E267" s="36"/>
       <c r="F267" s="36"/>
-      <c r="G267" s="36">
-        <v>293</v>
+      <c r="G267" s="34" t="s">
+        <v>360</v>
       </c>
       <c r="H267" s="37" t="s">
         <v>122</v>

--- a/config_3.23/rank_server.xlsx
+++ b/config_3.23/rank_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="356">
   <si>
     <t>id|</t>
   </si>
@@ -1720,6 +1720,34 @@
   </si>
   <si>
     <t>274,288</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiaole_tower_week_rank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>消消乐闯关排行榜</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>25000福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>15000福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2500福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500福利券</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2257,11 +2285,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U41"/>
+  <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3739,6 +3767,38 @@
         <v>38</v>
       </c>
     </row>
+    <row r="42" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="26">
+        <v>41</v>
+      </c>
+      <c r="B42" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" s="35" t="s">
+        <v>349</v>
+      </c>
+      <c r="D42" s="35" t="s">
+        <v>350</v>
+      </c>
+      <c r="E42" s="33">
+        <v>1604246400</v>
+      </c>
+      <c r="F42" s="33">
+        <v>2555555555</v>
+      </c>
+      <c r="G42" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="K42" s="33">
+        <v>41</v>
+      </c>
+      <c r="L42" s="33">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5008,7 +5068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
@@ -6250,11 +6310,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A40" sqref="A40"/>
+      <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7212,6 +7272,29 @@
         <v>10</v>
       </c>
     </row>
+    <row r="42" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="36">
+        <v>41</v>
+      </c>
+      <c r="B42" s="36">
+        <v>1</v>
+      </c>
+      <c r="C42" s="36">
+        <v>20</v>
+      </c>
+      <c r="D42" s="36">
+        <v>100</v>
+      </c>
+      <c r="E42" s="36">
+        <v>20</v>
+      </c>
+      <c r="F42" s="36">
+        <v>180</v>
+      </c>
+      <c r="G42" s="36">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7220,11 +7303,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
+      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7779,6 +7862,20 @@
         <v>38</v>
       </c>
     </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="36">
+        <v>39</v>
+      </c>
+      <c r="B40" s="36">
+        <v>43</v>
+      </c>
+      <c r="C40" s="36">
+        <v>1</v>
+      </c>
+      <c r="D40" s="36">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7788,11 +7885,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A42" sqref="A42:C43"/>
+      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8302,6 +8399,17 @@
         <v>1617033599</v>
       </c>
     </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="36">
+        <v>43</v>
+      </c>
+      <c r="B44" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="C44" s="36">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8310,11 +8418,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I262"/>
+  <dimension ref="A1:I267"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J265" sqref="J265"/>
+      <selection pane="bottomLeft" activeCell="G273" sqref="G273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14355,6 +14463,116 @@
         <v>122</v>
       </c>
     </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A263" s="5">
+        <v>262</v>
+      </c>
+      <c r="B263" s="36">
+        <v>39</v>
+      </c>
+      <c r="C263" s="36">
+        <v>1</v>
+      </c>
+      <c r="D263" s="36">
+        <v>1</v>
+      </c>
+      <c r="E263" s="36"/>
+      <c r="F263" s="36"/>
+      <c r="G263" s="36">
+        <v>289</v>
+      </c>
+      <c r="H263" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A264" s="5">
+        <v>263</v>
+      </c>
+      <c r="B264" s="36">
+        <v>39</v>
+      </c>
+      <c r="C264" s="36">
+        <v>2</v>
+      </c>
+      <c r="D264" s="36">
+        <v>2</v>
+      </c>
+      <c r="E264" s="36"/>
+      <c r="F264" s="36"/>
+      <c r="G264" s="36">
+        <v>290</v>
+      </c>
+      <c r="H264" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A265" s="5">
+        <v>264</v>
+      </c>
+      <c r="B265" s="36">
+        <v>39</v>
+      </c>
+      <c r="C265" s="36">
+        <v>3</v>
+      </c>
+      <c r="D265" s="36">
+        <v>3</v>
+      </c>
+      <c r="E265" s="36"/>
+      <c r="F265" s="36"/>
+      <c r="G265" s="36">
+        <v>291</v>
+      </c>
+      <c r="H265" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A266" s="5">
+        <v>265</v>
+      </c>
+      <c r="B266" s="36">
+        <v>39</v>
+      </c>
+      <c r="C266" s="36">
+        <v>4</v>
+      </c>
+      <c r="D266" s="36">
+        <v>10</v>
+      </c>
+      <c r="E266" s="36"/>
+      <c r="F266" s="36"/>
+      <c r="G266" s="36">
+        <v>292</v>
+      </c>
+      <c r="H266" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A267" s="5">
+        <v>266</v>
+      </c>
+      <c r="B267" s="36">
+        <v>39</v>
+      </c>
+      <c r="C267" s="36">
+        <v>11</v>
+      </c>
+      <c r="D267" s="36">
+        <v>20</v>
+      </c>
+      <c r="E267" s="36"/>
+      <c r="F267" s="36"/>
+      <c r="G267" s="36">
+        <v>293</v>
+      </c>
+      <c r="H267" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -14364,11 +14582,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G293"/>
+  <dimension ref="A1:G298"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A260" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B279" sqref="B279"/>
+      <pane ySplit="1" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B294" sqref="B294:F298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -20226,6 +20444,106 @@
         <v>1</v>
       </c>
     </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A294" s="5">
+        <v>293</v>
+      </c>
+      <c r="B294" s="36">
+        <v>289</v>
+      </c>
+      <c r="C294" s="34" t="s">
+        <v>351</v>
+      </c>
+      <c r="D294" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E294" s="36">
+        <v>25000</v>
+      </c>
+      <c r="F294" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A295" s="5">
+        <v>294</v>
+      </c>
+      <c r="B295" s="36">
+        <v>290</v>
+      </c>
+      <c r="C295" s="34" t="s">
+        <v>352</v>
+      </c>
+      <c r="D295" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E295" s="36">
+        <v>15000</v>
+      </c>
+      <c r="F295" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A296" s="5">
+        <v>295</v>
+      </c>
+      <c r="B296" s="36">
+        <v>291</v>
+      </c>
+      <c r="C296" s="34" t="s">
+        <v>353</v>
+      </c>
+      <c r="D296" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E296" s="36">
+        <v>5000</v>
+      </c>
+      <c r="F296" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A297" s="5">
+        <v>296</v>
+      </c>
+      <c r="B297" s="36">
+        <v>292</v>
+      </c>
+      <c r="C297" s="34" t="s">
+        <v>354</v>
+      </c>
+      <c r="D297" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E297" s="36">
+        <v>2500</v>
+      </c>
+      <c r="F297" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A298" s="5">
+        <v>297</v>
+      </c>
+      <c r="B298" s="36">
+        <v>293</v>
+      </c>
+      <c r="C298" s="34" t="s">
+        <v>355</v>
+      </c>
+      <c r="D298" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E298" s="36">
+        <v>1500</v>
+      </c>
+      <c r="F298" s="36">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_3.23/rank_server.xlsx
+++ b/config_3.23/rank_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -2287,9 +2287,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3781,7 +3781,7 @@
         <v>350</v>
       </c>
       <c r="E42" s="33">
-        <v>1604246400</v>
+        <v>1615046400</v>
       </c>
       <c r="F42" s="33">
         <v>2555555555</v>
@@ -6312,7 +6312,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
     </sheetView>
